--- a/Data/Dailies Final.xlsx
+++ b/Data/Dailies Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A191944E-8484-4333-AB9A-24AE63E2C2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F20AF9-164A-4B8C-B911-96AA800980E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -168,13 +168,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,36 +480,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U297"/>
+  <dimension ref="A1:U395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="6.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -19214,6 +19194,6256 @@
         <v>43</v>
       </c>
     </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" s="3">
+        <v>1</v>
+      </c>
+      <c r="F298" s="3">
+        <v>1</v>
+      </c>
+      <c r="G298" s="3">
+        <v>0</v>
+      </c>
+      <c r="H298" s="3">
+        <v>1</v>
+      </c>
+      <c r="I298" s="3">
+        <v>1</v>
+      </c>
+      <c r="J298" s="3">
+        <v>1</v>
+      </c>
+      <c r="K298" s="3">
+        <v>1</v>
+      </c>
+      <c r="L298" s="3">
+        <v>1</v>
+      </c>
+      <c r="M298" s="3">
+        <v>0</v>
+      </c>
+      <c r="N298" s="3">
+        <v>1</v>
+      </c>
+      <c r="O298" s="3">
+        <v>1</v>
+      </c>
+      <c r="P298" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q298" s="3">
+        <v>0</v>
+      </c>
+      <c r="R298" s="3">
+        <v>0</v>
+      </c>
+      <c r="S298" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T298" s="3">
+        <v>1</v>
+      </c>
+      <c r="U298" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E299" s="3">
+        <v>1</v>
+      </c>
+      <c r="F299" s="3">
+        <v>1</v>
+      </c>
+      <c r="G299" s="3">
+        <v>1</v>
+      </c>
+      <c r="H299" s="3">
+        <v>0</v>
+      </c>
+      <c r="I299" s="3">
+        <v>1</v>
+      </c>
+      <c r="J299" s="3">
+        <v>1</v>
+      </c>
+      <c r="K299" s="3">
+        <v>1</v>
+      </c>
+      <c r="L299" s="3">
+        <v>0</v>
+      </c>
+      <c r="M299" s="3">
+        <v>0</v>
+      </c>
+      <c r="N299" s="3">
+        <v>1</v>
+      </c>
+      <c r="O299" s="3">
+        <v>1</v>
+      </c>
+      <c r="P299" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q299" s="3">
+        <v>0</v>
+      </c>
+      <c r="R299" s="3">
+        <v>0</v>
+      </c>
+      <c r="S299" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T299" s="3">
+        <v>0</v>
+      </c>
+      <c r="U299" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E300" s="3">
+        <v>1</v>
+      </c>
+      <c r="F300" s="3">
+        <v>0</v>
+      </c>
+      <c r="G300" s="3">
+        <v>0</v>
+      </c>
+      <c r="H300" s="3">
+        <v>1</v>
+      </c>
+      <c r="I300" s="3">
+        <v>1</v>
+      </c>
+      <c r="J300" s="3">
+        <v>0</v>
+      </c>
+      <c r="K300" s="3">
+        <v>1</v>
+      </c>
+      <c r="L300" s="3">
+        <v>1</v>
+      </c>
+      <c r="M300" s="3">
+        <v>0</v>
+      </c>
+      <c r="N300" s="3">
+        <v>0</v>
+      </c>
+      <c r="O300" s="3">
+        <v>1</v>
+      </c>
+      <c r="P300" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q300" s="3">
+        <v>1</v>
+      </c>
+      <c r="R300" s="3">
+        <v>0</v>
+      </c>
+      <c r="S300" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T300" s="3">
+        <v>0</v>
+      </c>
+      <c r="U300" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E301" s="3">
+        <v>1</v>
+      </c>
+      <c r="F301" s="3">
+        <v>0</v>
+      </c>
+      <c r="G301" s="3">
+        <v>1</v>
+      </c>
+      <c r="H301" s="3">
+        <v>0</v>
+      </c>
+      <c r="I301" s="3">
+        <v>0</v>
+      </c>
+      <c r="J301" s="3">
+        <v>0</v>
+      </c>
+      <c r="K301" s="3">
+        <v>1</v>
+      </c>
+      <c r="L301" s="3">
+        <v>0</v>
+      </c>
+      <c r="M301" s="3">
+        <v>0</v>
+      </c>
+      <c r="N301" s="3">
+        <v>1</v>
+      </c>
+      <c r="O301" s="3">
+        <v>0</v>
+      </c>
+      <c r="P301" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q301" s="3">
+        <v>1</v>
+      </c>
+      <c r="R301" s="3">
+        <v>0</v>
+      </c>
+      <c r="S301" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T301" s="3">
+        <v>0</v>
+      </c>
+      <c r="U301" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" s="3">
+        <v>1</v>
+      </c>
+      <c r="F302" s="3">
+        <v>1</v>
+      </c>
+      <c r="G302" s="3">
+        <v>0</v>
+      </c>
+      <c r="H302" s="3">
+        <v>1</v>
+      </c>
+      <c r="I302" s="3">
+        <v>1</v>
+      </c>
+      <c r="J302" s="3">
+        <v>0</v>
+      </c>
+      <c r="K302" s="3">
+        <v>1</v>
+      </c>
+      <c r="L302" s="3">
+        <v>1</v>
+      </c>
+      <c r="M302" s="3">
+        <v>0</v>
+      </c>
+      <c r="N302" s="3">
+        <v>0</v>
+      </c>
+      <c r="O302" s="3">
+        <v>0</v>
+      </c>
+      <c r="P302" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q302" s="3">
+        <v>0</v>
+      </c>
+      <c r="R302" s="3">
+        <v>0</v>
+      </c>
+      <c r="S302" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T302" s="3">
+        <v>0</v>
+      </c>
+      <c r="U302" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E303" s="3">
+        <v>1</v>
+      </c>
+      <c r="F303" s="3">
+        <v>1</v>
+      </c>
+      <c r="G303" s="3">
+        <v>1</v>
+      </c>
+      <c r="H303" s="3">
+        <v>0</v>
+      </c>
+      <c r="I303" s="3">
+        <v>1</v>
+      </c>
+      <c r="J303" s="3">
+        <v>0</v>
+      </c>
+      <c r="K303" s="3">
+        <v>1</v>
+      </c>
+      <c r="L303" s="3">
+        <v>0</v>
+      </c>
+      <c r="M303" s="3">
+        <v>0</v>
+      </c>
+      <c r="N303" s="3">
+        <v>0</v>
+      </c>
+      <c r="O303" s="3">
+        <v>1</v>
+      </c>
+      <c r="P303" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q303" s="3">
+        <v>1</v>
+      </c>
+      <c r="R303" s="3">
+        <v>0</v>
+      </c>
+      <c r="S303" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T303" s="3">
+        <v>0</v>
+      </c>
+      <c r="U303" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304" s="3">
+        <v>1</v>
+      </c>
+      <c r="F304" s="3">
+        <v>1</v>
+      </c>
+      <c r="G304" s="3">
+        <v>0</v>
+      </c>
+      <c r="H304" s="3">
+        <v>1</v>
+      </c>
+      <c r="I304" s="3">
+        <v>1</v>
+      </c>
+      <c r="J304" s="3">
+        <v>1</v>
+      </c>
+      <c r="K304" s="3">
+        <v>1</v>
+      </c>
+      <c r="L304" s="3">
+        <v>0</v>
+      </c>
+      <c r="M304" s="3">
+        <v>0</v>
+      </c>
+      <c r="N304" s="3">
+        <v>0</v>
+      </c>
+      <c r="O304" s="3">
+        <v>0</v>
+      </c>
+      <c r="P304" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q304" s="3">
+        <v>1</v>
+      </c>
+      <c r="R304" s="3">
+        <v>0</v>
+      </c>
+      <c r="S304" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T304" s="3">
+        <v>0</v>
+      </c>
+      <c r="U304" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E305" s="3">
+        <v>1</v>
+      </c>
+      <c r="F305" s="3">
+        <v>0</v>
+      </c>
+      <c r="G305" s="3">
+        <v>1</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+      <c r="I305" s="3">
+        <v>0</v>
+      </c>
+      <c r="J305" s="3">
+        <v>0</v>
+      </c>
+      <c r="K305" s="3">
+        <v>1</v>
+      </c>
+      <c r="L305" s="3">
+        <v>0</v>
+      </c>
+      <c r="M305" s="3">
+        <v>0</v>
+      </c>
+      <c r="N305" s="3">
+        <v>0</v>
+      </c>
+      <c r="O305" s="3">
+        <v>0</v>
+      </c>
+      <c r="P305" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q305" s="3">
+        <v>1</v>
+      </c>
+      <c r="R305" s="3">
+        <v>0</v>
+      </c>
+      <c r="S305" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T305" s="3">
+        <v>1</v>
+      </c>
+      <c r="U305" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E306" s="3">
+        <v>1</v>
+      </c>
+      <c r="F306" s="3">
+        <v>1</v>
+      </c>
+      <c r="G306" s="3">
+        <v>1</v>
+      </c>
+      <c r="H306" s="3">
+        <v>1</v>
+      </c>
+      <c r="I306" s="3">
+        <v>1</v>
+      </c>
+      <c r="J306" s="3">
+        <v>1</v>
+      </c>
+      <c r="K306" s="3">
+        <v>1</v>
+      </c>
+      <c r="L306" s="3">
+        <v>1</v>
+      </c>
+      <c r="M306" s="3">
+        <v>0</v>
+      </c>
+      <c r="N306" s="3">
+        <v>0</v>
+      </c>
+      <c r="O306" s="3">
+        <v>0</v>
+      </c>
+      <c r="P306" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q306" s="3">
+        <v>1</v>
+      </c>
+      <c r="R306" s="3">
+        <v>0</v>
+      </c>
+      <c r="S306" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T306" s="3">
+        <v>0</v>
+      </c>
+      <c r="U306" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E307" s="3">
+        <v>1</v>
+      </c>
+      <c r="F307" s="3">
+        <v>1</v>
+      </c>
+      <c r="G307" s="3">
+        <v>1</v>
+      </c>
+      <c r="H307" s="3">
+        <v>0</v>
+      </c>
+      <c r="I307" s="3">
+        <v>1</v>
+      </c>
+      <c r="J307" s="3">
+        <v>1</v>
+      </c>
+      <c r="K307" s="3">
+        <v>1</v>
+      </c>
+      <c r="L307" s="3">
+        <v>0</v>
+      </c>
+      <c r="M307" s="3">
+        <v>1</v>
+      </c>
+      <c r="N307" s="3">
+        <v>0</v>
+      </c>
+      <c r="O307" s="3">
+        <v>0</v>
+      </c>
+      <c r="P307" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q307" s="3">
+        <v>1</v>
+      </c>
+      <c r="R307" s="3">
+        <v>0</v>
+      </c>
+      <c r="S307" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T307" s="3">
+        <v>0</v>
+      </c>
+      <c r="U307" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E308" s="3">
+        <v>1</v>
+      </c>
+      <c r="F308" s="3">
+        <v>1</v>
+      </c>
+      <c r="G308" s="3">
+        <v>1</v>
+      </c>
+      <c r="H308" s="3">
+        <v>1</v>
+      </c>
+      <c r="I308" s="3">
+        <v>1</v>
+      </c>
+      <c r="J308" s="3">
+        <v>1</v>
+      </c>
+      <c r="K308" s="3">
+        <v>1</v>
+      </c>
+      <c r="L308" s="3">
+        <v>1</v>
+      </c>
+      <c r="M308" s="3">
+        <v>0</v>
+      </c>
+      <c r="N308" s="3">
+        <v>0</v>
+      </c>
+      <c r="O308" s="3">
+        <v>1</v>
+      </c>
+      <c r="P308" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q308" s="3">
+        <v>1</v>
+      </c>
+      <c r="R308" s="3">
+        <v>0</v>
+      </c>
+      <c r="S308" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T308" s="3">
+        <v>0</v>
+      </c>
+      <c r="U308" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E309" s="3">
+        <v>1</v>
+      </c>
+      <c r="F309" s="3">
+        <v>1</v>
+      </c>
+      <c r="G309" s="3">
+        <v>1</v>
+      </c>
+      <c r="H309" s="3">
+        <v>0</v>
+      </c>
+      <c r="I309" s="3">
+        <v>1</v>
+      </c>
+      <c r="J309" s="3">
+        <v>0</v>
+      </c>
+      <c r="K309" s="3">
+        <v>1</v>
+      </c>
+      <c r="L309" s="3">
+        <v>0</v>
+      </c>
+      <c r="M309" s="3">
+        <v>1</v>
+      </c>
+      <c r="N309" s="3">
+        <v>1</v>
+      </c>
+      <c r="O309" s="3">
+        <v>0</v>
+      </c>
+      <c r="P309" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q309" s="3">
+        <v>0</v>
+      </c>
+      <c r="R309" s="3">
+        <v>0</v>
+      </c>
+      <c r="S309" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T309" s="3">
+        <v>0</v>
+      </c>
+      <c r="U309" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E310" s="3">
+        <v>1</v>
+      </c>
+      <c r="F310" s="3">
+        <v>1</v>
+      </c>
+      <c r="G310" s="3">
+        <v>1</v>
+      </c>
+      <c r="H310" s="3">
+        <v>1</v>
+      </c>
+      <c r="I310" s="3">
+        <v>0</v>
+      </c>
+      <c r="J310" s="3">
+        <v>0</v>
+      </c>
+      <c r="K310" s="3">
+        <v>1</v>
+      </c>
+      <c r="L310" s="3">
+        <v>1</v>
+      </c>
+      <c r="M310" s="3">
+        <v>0</v>
+      </c>
+      <c r="N310" s="3">
+        <v>0</v>
+      </c>
+      <c r="O310" s="3">
+        <v>1</v>
+      </c>
+      <c r="P310" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q310" s="3">
+        <v>1</v>
+      </c>
+      <c r="R310" s="3">
+        <v>0</v>
+      </c>
+      <c r="S310" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T310" s="3">
+        <v>0</v>
+      </c>
+      <c r="U310" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E311" s="3">
+        <v>1</v>
+      </c>
+      <c r="F311" s="3">
+        <v>0</v>
+      </c>
+      <c r="G311" s="3">
+        <v>0</v>
+      </c>
+      <c r="H311" s="3">
+        <v>0</v>
+      </c>
+      <c r="I311" s="3">
+        <v>1</v>
+      </c>
+      <c r="J311" s="3">
+        <v>0</v>
+      </c>
+      <c r="K311" s="3">
+        <v>1</v>
+      </c>
+      <c r="L311" s="3">
+        <v>0</v>
+      </c>
+      <c r="M311" s="3">
+        <v>0</v>
+      </c>
+      <c r="N311" s="3">
+        <v>0</v>
+      </c>
+      <c r="O311" s="3">
+        <v>0</v>
+      </c>
+      <c r="P311" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q311" s="3">
+        <v>1</v>
+      </c>
+      <c r="R311" s="3">
+        <v>0</v>
+      </c>
+      <c r="S311" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T311" s="3">
+        <v>0</v>
+      </c>
+      <c r="U311" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E312" s="3">
+        <v>1</v>
+      </c>
+      <c r="F312" s="3">
+        <v>1</v>
+      </c>
+      <c r="G312" s="3">
+        <v>1</v>
+      </c>
+      <c r="H312" s="3">
+        <v>1</v>
+      </c>
+      <c r="I312" s="3">
+        <v>1</v>
+      </c>
+      <c r="J312" s="3">
+        <v>1</v>
+      </c>
+      <c r="K312" s="3">
+        <v>1</v>
+      </c>
+      <c r="L312" s="3">
+        <v>1</v>
+      </c>
+      <c r="M312" s="3">
+        <v>0</v>
+      </c>
+      <c r="N312" s="3">
+        <v>0</v>
+      </c>
+      <c r="O312" s="3">
+        <v>1</v>
+      </c>
+      <c r="P312" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q312" s="3">
+        <v>1</v>
+      </c>
+      <c r="R312" s="3">
+        <v>0</v>
+      </c>
+      <c r="S312" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T312" s="3">
+        <v>1</v>
+      </c>
+      <c r="U312" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E313" s="3">
+        <v>1</v>
+      </c>
+      <c r="F313" s="3">
+        <v>1</v>
+      </c>
+      <c r="G313" s="3">
+        <v>1</v>
+      </c>
+      <c r="H313" s="3">
+        <v>0</v>
+      </c>
+      <c r="I313" s="3">
+        <v>1</v>
+      </c>
+      <c r="J313" s="3">
+        <v>1</v>
+      </c>
+      <c r="K313" s="3">
+        <v>1</v>
+      </c>
+      <c r="L313" s="3">
+        <v>0</v>
+      </c>
+      <c r="M313" s="3">
+        <v>0</v>
+      </c>
+      <c r="N313" s="3">
+        <v>1</v>
+      </c>
+      <c r="O313" s="3">
+        <v>1</v>
+      </c>
+      <c r="P313" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="3">
+        <v>0</v>
+      </c>
+      <c r="R313" s="3">
+        <v>0</v>
+      </c>
+      <c r="S313" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T313" s="3">
+        <v>0</v>
+      </c>
+      <c r="U313" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E314" s="3">
+        <v>1</v>
+      </c>
+      <c r="F314" s="3">
+        <v>1</v>
+      </c>
+      <c r="G314" s="3">
+        <v>1</v>
+      </c>
+      <c r="H314" s="3">
+        <v>1</v>
+      </c>
+      <c r="I314" s="3">
+        <v>1</v>
+      </c>
+      <c r="J314" s="3">
+        <v>0</v>
+      </c>
+      <c r="K314" s="3">
+        <v>1</v>
+      </c>
+      <c r="L314" s="3">
+        <v>1</v>
+      </c>
+      <c r="M314" s="3">
+        <v>0</v>
+      </c>
+      <c r="N314" s="3">
+        <v>0</v>
+      </c>
+      <c r="O314" s="3">
+        <v>1</v>
+      </c>
+      <c r="P314" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>0</v>
+      </c>
+      <c r="R314" s="3">
+        <v>0</v>
+      </c>
+      <c r="S314" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T314" s="3">
+        <v>0</v>
+      </c>
+      <c r="U314" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="3">
+        <v>1</v>
+      </c>
+      <c r="F315" s="3">
+        <v>1</v>
+      </c>
+      <c r="G315" s="3">
+        <v>0</v>
+      </c>
+      <c r="H315" s="3">
+        <v>1</v>
+      </c>
+      <c r="I315" s="3">
+        <v>1</v>
+      </c>
+      <c r="J315" s="3">
+        <v>0</v>
+      </c>
+      <c r="K315" s="3">
+        <v>1</v>
+      </c>
+      <c r="L315" s="3">
+        <v>0</v>
+      </c>
+      <c r="M315" s="3">
+        <v>0</v>
+      </c>
+      <c r="N315" s="3">
+        <v>0</v>
+      </c>
+      <c r="O315" s="3">
+        <v>0</v>
+      </c>
+      <c r="P315" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="3">
+        <v>0</v>
+      </c>
+      <c r="R315" s="3">
+        <v>0</v>
+      </c>
+      <c r="S315" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T315" s="3">
+        <v>0</v>
+      </c>
+      <c r="U315" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="3">
+        <v>1</v>
+      </c>
+      <c r="F316" s="3">
+        <v>1</v>
+      </c>
+      <c r="G316" s="3">
+        <v>0</v>
+      </c>
+      <c r="H316" s="3">
+        <v>0</v>
+      </c>
+      <c r="I316" s="3">
+        <v>1</v>
+      </c>
+      <c r="J316" s="3">
+        <v>0</v>
+      </c>
+      <c r="K316" s="3">
+        <v>1</v>
+      </c>
+      <c r="L316" s="3">
+        <v>0</v>
+      </c>
+      <c r="M316" s="3">
+        <v>0</v>
+      </c>
+      <c r="N316" s="3">
+        <v>1</v>
+      </c>
+      <c r="O316" s="3">
+        <v>0</v>
+      </c>
+      <c r="P316" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q316" s="3">
+        <v>1</v>
+      </c>
+      <c r="R316" s="3">
+        <v>0</v>
+      </c>
+      <c r="S316" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T316" s="3">
+        <v>0</v>
+      </c>
+      <c r="U316" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317" s="3">
+        <v>1</v>
+      </c>
+      <c r="F317" s="3">
+        <v>1</v>
+      </c>
+      <c r="G317" s="3">
+        <v>0</v>
+      </c>
+      <c r="H317" s="3">
+        <v>0</v>
+      </c>
+      <c r="I317" s="3">
+        <v>1</v>
+      </c>
+      <c r="J317" s="3">
+        <v>0</v>
+      </c>
+      <c r="K317" s="3">
+        <v>1</v>
+      </c>
+      <c r="L317" s="3">
+        <v>1</v>
+      </c>
+      <c r="M317" s="3">
+        <v>0</v>
+      </c>
+      <c r="N317" s="3">
+        <v>0</v>
+      </c>
+      <c r="O317" s="3">
+        <v>1</v>
+      </c>
+      <c r="P317" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q317" s="3">
+        <v>1</v>
+      </c>
+      <c r="R317" s="3">
+        <v>0</v>
+      </c>
+      <c r="S317" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T317" s="3">
+        <v>0</v>
+      </c>
+      <c r="U317" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E318" s="3">
+        <v>1</v>
+      </c>
+      <c r="F318" s="3">
+        <v>1</v>
+      </c>
+      <c r="G318" s="3">
+        <v>1</v>
+      </c>
+      <c r="H318" s="3">
+        <v>1</v>
+      </c>
+      <c r="I318" s="3">
+        <v>1</v>
+      </c>
+      <c r="J318" s="3">
+        <v>0</v>
+      </c>
+      <c r="K318" s="3">
+        <v>1</v>
+      </c>
+      <c r="L318" s="3">
+        <v>0</v>
+      </c>
+      <c r="M318" s="3">
+        <v>1</v>
+      </c>
+      <c r="N318" s="3">
+        <v>0</v>
+      </c>
+      <c r="O318" s="3">
+        <v>0</v>
+      </c>
+      <c r="P318" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q318" s="3">
+        <v>1</v>
+      </c>
+      <c r="R318" s="3">
+        <v>0</v>
+      </c>
+      <c r="S318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T318" s="3">
+        <v>0</v>
+      </c>
+      <c r="U318" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E319" s="3">
+        <v>1</v>
+      </c>
+      <c r="F319" s="3">
+        <v>1</v>
+      </c>
+      <c r="G319" s="3">
+        <v>1</v>
+      </c>
+      <c r="H319" s="3">
+        <v>0</v>
+      </c>
+      <c r="I319" s="3">
+        <v>1</v>
+      </c>
+      <c r="J319" s="3">
+        <v>1</v>
+      </c>
+      <c r="K319" s="3">
+        <v>1</v>
+      </c>
+      <c r="L319" s="3">
+        <v>1</v>
+      </c>
+      <c r="M319" s="3">
+        <v>1</v>
+      </c>
+      <c r="N319" s="3">
+        <v>0</v>
+      </c>
+      <c r="O319" s="3">
+        <v>0</v>
+      </c>
+      <c r="P319" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q319" s="3">
+        <v>1</v>
+      </c>
+      <c r="R319" s="3">
+        <v>0</v>
+      </c>
+      <c r="S319" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T319" s="3">
+        <v>1</v>
+      </c>
+      <c r="U319" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E320" s="3">
+        <v>1</v>
+      </c>
+      <c r="F320" s="3">
+        <v>1</v>
+      </c>
+      <c r="G320" s="3">
+        <v>1</v>
+      </c>
+      <c r="H320" s="3">
+        <v>1</v>
+      </c>
+      <c r="I320" s="3">
+        <v>1</v>
+      </c>
+      <c r="J320" s="3">
+        <v>0</v>
+      </c>
+      <c r="K320" s="3">
+        <v>1</v>
+      </c>
+      <c r="L320" s="3">
+        <v>0</v>
+      </c>
+      <c r="M320" s="3">
+        <v>0</v>
+      </c>
+      <c r="N320" s="3">
+        <v>1</v>
+      </c>
+      <c r="O320" s="3">
+        <v>1</v>
+      </c>
+      <c r="P320" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q320" s="3">
+        <v>0</v>
+      </c>
+      <c r="R320" s="3">
+        <v>0</v>
+      </c>
+      <c r="S320" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T320" s="3">
+        <v>0</v>
+      </c>
+      <c r="U320" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E321" s="3">
+        <v>1</v>
+      </c>
+      <c r="F321" s="3">
+        <v>1</v>
+      </c>
+      <c r="G321" s="3">
+        <v>0</v>
+      </c>
+      <c r="H321" s="3">
+        <v>0</v>
+      </c>
+      <c r="I321" s="3">
+        <v>1</v>
+      </c>
+      <c r="J321" s="3">
+        <v>0</v>
+      </c>
+      <c r="K321" s="3">
+        <v>1</v>
+      </c>
+      <c r="L321" s="3">
+        <v>1</v>
+      </c>
+      <c r="M321" s="3">
+        <v>0</v>
+      </c>
+      <c r="N321" s="3">
+        <v>0</v>
+      </c>
+      <c r="O321" s="3">
+        <v>0</v>
+      </c>
+      <c r="P321" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q321" s="3">
+        <v>0</v>
+      </c>
+      <c r="R321" s="3">
+        <v>0</v>
+      </c>
+      <c r="S321" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T321" s="3">
+        <v>0</v>
+      </c>
+      <c r="U321" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="3">
+        <v>1</v>
+      </c>
+      <c r="F322" s="3">
+        <v>1</v>
+      </c>
+      <c r="G322" s="3">
+        <v>0</v>
+      </c>
+      <c r="H322" s="3">
+        <v>0</v>
+      </c>
+      <c r="I322" s="3">
+        <v>0</v>
+      </c>
+      <c r="J322" s="3">
+        <v>0</v>
+      </c>
+      <c r="K322" s="3">
+        <v>1</v>
+      </c>
+      <c r="L322" s="3">
+        <v>0</v>
+      </c>
+      <c r="M322" s="3">
+        <v>1</v>
+      </c>
+      <c r="N322" s="3">
+        <v>0</v>
+      </c>
+      <c r="O322" s="3">
+        <v>0</v>
+      </c>
+      <c r="P322" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q322" s="3">
+        <v>0</v>
+      </c>
+      <c r="R322" s="3">
+        <v>0</v>
+      </c>
+      <c r="S322" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T322" s="3">
+        <v>0</v>
+      </c>
+      <c r="U322" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E323" s="3">
+        <v>1</v>
+      </c>
+      <c r="F323" s="3">
+        <v>1</v>
+      </c>
+      <c r="G323" s="3">
+        <v>1</v>
+      </c>
+      <c r="H323" s="3">
+        <v>1</v>
+      </c>
+      <c r="I323" s="3">
+        <v>1</v>
+      </c>
+      <c r="J323" s="3">
+        <v>0</v>
+      </c>
+      <c r="K323" s="3">
+        <v>1</v>
+      </c>
+      <c r="L323" s="3">
+        <v>0</v>
+      </c>
+      <c r="M323" s="3">
+        <v>0</v>
+      </c>
+      <c r="N323" s="3">
+        <v>1</v>
+      </c>
+      <c r="O323" s="3">
+        <v>1</v>
+      </c>
+      <c r="P323" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q323" s="3">
+        <v>0</v>
+      </c>
+      <c r="R323" s="3">
+        <v>0</v>
+      </c>
+      <c r="S323" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T323" s="3">
+        <v>0</v>
+      </c>
+      <c r="U323" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E324" s="3">
+        <v>1</v>
+      </c>
+      <c r="F324" s="3">
+        <v>1</v>
+      </c>
+      <c r="G324" s="3">
+        <v>1</v>
+      </c>
+      <c r="H324" s="3">
+        <v>0</v>
+      </c>
+      <c r="I324" s="3">
+        <v>1</v>
+      </c>
+      <c r="J324" s="3">
+        <v>1</v>
+      </c>
+      <c r="K324" s="3">
+        <v>1</v>
+      </c>
+      <c r="L324" s="3">
+        <v>1</v>
+      </c>
+      <c r="M324" s="3">
+        <v>0</v>
+      </c>
+      <c r="N324" s="3">
+        <v>0</v>
+      </c>
+      <c r="O324" s="3">
+        <v>0</v>
+      </c>
+      <c r="P324" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q324" s="3">
+        <v>0</v>
+      </c>
+      <c r="R324" s="3">
+        <v>0</v>
+      </c>
+      <c r="S324" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T324" s="3">
+        <v>0</v>
+      </c>
+      <c r="U324" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E325" s="3">
+        <v>1</v>
+      </c>
+      <c r="F325" s="3">
+        <v>1</v>
+      </c>
+      <c r="G325" s="3">
+        <v>1</v>
+      </c>
+      <c r="H325" s="3">
+        <v>1</v>
+      </c>
+      <c r="I325" s="3">
+        <v>0</v>
+      </c>
+      <c r="J325" s="3">
+        <v>0</v>
+      </c>
+      <c r="K325" s="3">
+        <v>1</v>
+      </c>
+      <c r="L325" s="3">
+        <v>0</v>
+      </c>
+      <c r="M325" s="3">
+        <v>0</v>
+      </c>
+      <c r="N325" s="3">
+        <v>0</v>
+      </c>
+      <c r="O325" s="3">
+        <v>1</v>
+      </c>
+      <c r="P325" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q325" s="3">
+        <v>0</v>
+      </c>
+      <c r="R325" s="3">
+        <v>0</v>
+      </c>
+      <c r="S325" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T325" s="3">
+        <v>0</v>
+      </c>
+      <c r="U325" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E326" s="3">
+        <v>1</v>
+      </c>
+      <c r="F326" s="3">
+        <v>1</v>
+      </c>
+      <c r="G326" s="3">
+        <v>1</v>
+      </c>
+      <c r="H326" s="3">
+        <v>0</v>
+      </c>
+      <c r="I326" s="3">
+        <v>1</v>
+      </c>
+      <c r="J326" s="3">
+        <v>0</v>
+      </c>
+      <c r="K326" s="3">
+        <v>1</v>
+      </c>
+      <c r="L326" s="3">
+        <v>0</v>
+      </c>
+      <c r="M326" s="3">
+        <v>1</v>
+      </c>
+      <c r="N326" s="3">
+        <v>0</v>
+      </c>
+      <c r="O326" s="3">
+        <v>1</v>
+      </c>
+      <c r="P326" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>1</v>
+      </c>
+      <c r="R326" s="3">
+        <v>0</v>
+      </c>
+      <c r="S326" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T326" s="3">
+        <v>1</v>
+      </c>
+      <c r="U326" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="3">
+        <v>1</v>
+      </c>
+      <c r="F327" s="3">
+        <v>1</v>
+      </c>
+      <c r="G327" s="3">
+        <v>0</v>
+      </c>
+      <c r="H327" s="3">
+        <v>1</v>
+      </c>
+      <c r="I327" s="3">
+        <v>1</v>
+      </c>
+      <c r="J327" s="3">
+        <v>0</v>
+      </c>
+      <c r="K327" s="3">
+        <v>1</v>
+      </c>
+      <c r="L327" s="3">
+        <v>0</v>
+      </c>
+      <c r="M327" s="3">
+        <v>0</v>
+      </c>
+      <c r="N327" s="3">
+        <v>1</v>
+      </c>
+      <c r="O327" s="3">
+        <v>1</v>
+      </c>
+      <c r="P327" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q327" s="3">
+        <v>0</v>
+      </c>
+      <c r="R327" s="3">
+        <v>0</v>
+      </c>
+      <c r="S327" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T327" s="3">
+        <v>0</v>
+      </c>
+      <c r="U327" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="3">
+        <v>1</v>
+      </c>
+      <c r="F328" s="3">
+        <v>1</v>
+      </c>
+      <c r="G328" s="3">
+        <v>0</v>
+      </c>
+      <c r="H328" s="3">
+        <v>0</v>
+      </c>
+      <c r="I328" s="3">
+        <v>1</v>
+      </c>
+      <c r="J328" s="3">
+        <v>0</v>
+      </c>
+      <c r="K328" s="3">
+        <v>1</v>
+      </c>
+      <c r="L328" s="3">
+        <v>1</v>
+      </c>
+      <c r="M328" s="3">
+        <v>0</v>
+      </c>
+      <c r="N328" s="3">
+        <v>0</v>
+      </c>
+      <c r="O328" s="3">
+        <v>1</v>
+      </c>
+      <c r="P328" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q328" s="3">
+        <v>0</v>
+      </c>
+      <c r="R328" s="3">
+        <v>0</v>
+      </c>
+      <c r="S328" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T328" s="3">
+        <v>0</v>
+      </c>
+      <c r="U328" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E329" s="3">
+        <v>1</v>
+      </c>
+      <c r="F329" s="3">
+        <v>0</v>
+      </c>
+      <c r="G329" s="3">
+        <v>1</v>
+      </c>
+      <c r="H329" s="3">
+        <v>1</v>
+      </c>
+      <c r="I329" s="3">
+        <v>0</v>
+      </c>
+      <c r="J329" s="3">
+        <v>1</v>
+      </c>
+      <c r="K329" s="3">
+        <v>1</v>
+      </c>
+      <c r="L329" s="3">
+        <v>0</v>
+      </c>
+      <c r="M329" s="3">
+        <v>0</v>
+      </c>
+      <c r="N329" s="3">
+        <v>0</v>
+      </c>
+      <c r="O329" s="3">
+        <v>0</v>
+      </c>
+      <c r="P329" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q329" s="3">
+        <v>0</v>
+      </c>
+      <c r="R329" s="3">
+        <v>0</v>
+      </c>
+      <c r="S329" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T329" s="3">
+        <v>0</v>
+      </c>
+      <c r="U329" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E330" s="3">
+        <v>1</v>
+      </c>
+      <c r="F330" s="3">
+        <v>1</v>
+      </c>
+      <c r="G330" s="3">
+        <v>1</v>
+      </c>
+      <c r="H330" s="3">
+        <v>0</v>
+      </c>
+      <c r="I330" s="3">
+        <v>1</v>
+      </c>
+      <c r="J330" s="3">
+        <v>1</v>
+      </c>
+      <c r="K330" s="3">
+        <v>1</v>
+      </c>
+      <c r="L330" s="3">
+        <v>1</v>
+      </c>
+      <c r="M330" s="3">
+        <v>0</v>
+      </c>
+      <c r="N330" s="3">
+        <v>0</v>
+      </c>
+      <c r="O330" s="3">
+        <v>0</v>
+      </c>
+      <c r="P330" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q330" s="3">
+        <v>1</v>
+      </c>
+      <c r="R330" s="3">
+        <v>0</v>
+      </c>
+      <c r="S330" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T330" s="3">
+        <v>0</v>
+      </c>
+      <c r="U330" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E331" s="3">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3">
+        <v>1</v>
+      </c>
+      <c r="G331" s="3">
+        <v>1</v>
+      </c>
+      <c r="H331" s="3">
+        <v>1</v>
+      </c>
+      <c r="I331" s="3">
+        <v>1</v>
+      </c>
+      <c r="J331" s="3">
+        <v>1</v>
+      </c>
+      <c r="K331" s="3">
+        <v>1</v>
+      </c>
+      <c r="L331" s="3">
+        <v>0</v>
+      </c>
+      <c r="M331" s="3">
+        <v>0</v>
+      </c>
+      <c r="N331" s="3">
+        <v>1</v>
+      </c>
+      <c r="O331" s="3">
+        <v>1</v>
+      </c>
+      <c r="P331" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q331" s="3">
+        <v>0</v>
+      </c>
+      <c r="R331" s="3">
+        <v>0</v>
+      </c>
+      <c r="S331" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T331" s="3">
+        <v>0</v>
+      </c>
+      <c r="U331" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E332" s="3">
+        <v>1</v>
+      </c>
+      <c r="F332" s="3">
+        <v>1</v>
+      </c>
+      <c r="G332" s="3">
+        <v>1</v>
+      </c>
+      <c r="H332" s="3">
+        <v>0</v>
+      </c>
+      <c r="I332" s="3">
+        <v>0</v>
+      </c>
+      <c r="J332" s="3">
+        <v>1</v>
+      </c>
+      <c r="K332" s="3">
+        <v>1</v>
+      </c>
+      <c r="L332" s="3">
+        <v>0</v>
+      </c>
+      <c r="M332" s="3">
+        <v>1</v>
+      </c>
+      <c r="N332" s="3">
+        <v>0</v>
+      </c>
+      <c r="O332" s="3">
+        <v>0</v>
+      </c>
+      <c r="P332" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q332" s="3">
+        <v>1</v>
+      </c>
+      <c r="R332" s="3">
+        <v>0</v>
+      </c>
+      <c r="S332" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T332" s="3">
+        <v>0</v>
+      </c>
+      <c r="U332" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E333" s="3">
+        <v>1</v>
+      </c>
+      <c r="F333" s="3">
+        <v>1</v>
+      </c>
+      <c r="G333" s="3">
+        <v>1</v>
+      </c>
+      <c r="H333" s="3">
+        <v>0</v>
+      </c>
+      <c r="I333" s="3">
+        <v>1</v>
+      </c>
+      <c r="J333" s="3">
+        <v>0</v>
+      </c>
+      <c r="K333" s="3">
+        <v>1</v>
+      </c>
+      <c r="L333" s="3">
+        <v>1</v>
+      </c>
+      <c r="M333" s="3">
+        <v>0</v>
+      </c>
+      <c r="N333" s="3">
+        <v>0</v>
+      </c>
+      <c r="O333" s="3">
+        <v>0</v>
+      </c>
+      <c r="P333" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q333" s="3">
+        <v>1</v>
+      </c>
+      <c r="R333" s="3">
+        <v>0</v>
+      </c>
+      <c r="S333" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T333" s="3">
+        <v>1</v>
+      </c>
+      <c r="U333" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E334" s="3">
+        <v>1</v>
+      </c>
+      <c r="F334" s="3">
+        <v>1</v>
+      </c>
+      <c r="G334" s="3">
+        <v>1</v>
+      </c>
+      <c r="H334" s="3">
+        <v>1</v>
+      </c>
+      <c r="I334" s="3">
+        <v>1</v>
+      </c>
+      <c r="J334" s="3">
+        <v>0</v>
+      </c>
+      <c r="K334" s="3">
+        <v>1</v>
+      </c>
+      <c r="L334" s="3">
+        <v>0</v>
+      </c>
+      <c r="M334" s="3">
+        <v>0</v>
+      </c>
+      <c r="N334" s="3">
+        <v>1</v>
+      </c>
+      <c r="O334" s="3">
+        <v>0</v>
+      </c>
+      <c r="P334" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q334" s="3">
+        <v>0</v>
+      </c>
+      <c r="R334" s="3">
+        <v>0</v>
+      </c>
+      <c r="S334" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T334" s="3">
+        <v>0</v>
+      </c>
+      <c r="U334" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E335" s="3">
+        <v>1</v>
+      </c>
+      <c r="F335" s="3">
+        <v>1</v>
+      </c>
+      <c r="G335" s="3">
+        <v>1</v>
+      </c>
+      <c r="H335" s="3">
+        <v>0</v>
+      </c>
+      <c r="I335" s="3">
+        <v>1</v>
+      </c>
+      <c r="J335" s="3">
+        <v>1</v>
+      </c>
+      <c r="K335" s="3">
+        <v>1</v>
+      </c>
+      <c r="L335" s="3">
+        <v>1</v>
+      </c>
+      <c r="M335" s="3">
+        <v>0</v>
+      </c>
+      <c r="N335" s="3">
+        <v>0</v>
+      </c>
+      <c r="O335" s="3">
+        <v>0</v>
+      </c>
+      <c r="P335" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q335" s="3">
+        <v>0</v>
+      </c>
+      <c r="R335" s="3">
+        <v>0</v>
+      </c>
+      <c r="S335" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T335" s="3">
+        <v>0</v>
+      </c>
+      <c r="U335" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E336" s="3">
+        <v>1</v>
+      </c>
+      <c r="F336" s="3">
+        <v>0</v>
+      </c>
+      <c r="G336" s="3">
+        <v>0</v>
+      </c>
+      <c r="H336" s="3">
+        <v>0</v>
+      </c>
+      <c r="I336" s="3">
+        <v>0</v>
+      </c>
+      <c r="J336" s="3">
+        <v>1</v>
+      </c>
+      <c r="K336" s="3">
+        <v>0</v>
+      </c>
+      <c r="L336" s="3">
+        <v>0</v>
+      </c>
+      <c r="M336" s="3">
+        <v>0</v>
+      </c>
+      <c r="N336" s="3">
+        <v>0</v>
+      </c>
+      <c r="O336" s="3">
+        <v>0</v>
+      </c>
+      <c r="P336" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q336" s="3">
+        <v>0</v>
+      </c>
+      <c r="R336" s="3">
+        <v>0</v>
+      </c>
+      <c r="S336" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T336" s="3">
+        <v>0</v>
+      </c>
+      <c r="U336" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E337" s="3">
+        <v>1</v>
+      </c>
+      <c r="F337" s="3">
+        <v>1</v>
+      </c>
+      <c r="G337" s="3">
+        <v>1</v>
+      </c>
+      <c r="H337" s="3">
+        <v>1</v>
+      </c>
+      <c r="I337" s="3">
+        <v>1</v>
+      </c>
+      <c r="J337" s="3">
+        <v>1</v>
+      </c>
+      <c r="K337" s="3">
+        <v>1</v>
+      </c>
+      <c r="L337" s="3">
+        <v>0</v>
+      </c>
+      <c r="M337" s="3">
+        <v>0</v>
+      </c>
+      <c r="N337" s="3">
+        <v>1</v>
+      </c>
+      <c r="O337" s="3">
+        <v>0</v>
+      </c>
+      <c r="P337" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q337" s="3">
+        <v>0</v>
+      </c>
+      <c r="R337" s="3">
+        <v>0</v>
+      </c>
+      <c r="S337" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T337" s="3">
+        <v>0</v>
+      </c>
+      <c r="U337" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E338" s="3">
+        <v>1</v>
+      </c>
+      <c r="F338" s="3">
+        <v>1</v>
+      </c>
+      <c r="G338" s="3">
+        <v>1</v>
+      </c>
+      <c r="H338" s="3">
+        <v>0</v>
+      </c>
+      <c r="I338" s="3">
+        <v>0</v>
+      </c>
+      <c r="J338" s="3">
+        <v>0</v>
+      </c>
+      <c r="K338" s="3">
+        <v>1</v>
+      </c>
+      <c r="L338" s="3">
+        <v>1</v>
+      </c>
+      <c r="M338" s="3">
+        <v>0</v>
+      </c>
+      <c r="N338" s="3">
+        <v>0</v>
+      </c>
+      <c r="O338" s="3">
+        <v>0</v>
+      </c>
+      <c r="P338" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q338" s="3">
+        <v>0</v>
+      </c>
+      <c r="R338" s="3">
+        <v>0</v>
+      </c>
+      <c r="S338" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T338" s="3">
+        <v>0</v>
+      </c>
+      <c r="U338" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E339" s="3">
+        <v>1</v>
+      </c>
+      <c r="F339" s="3">
+        <v>1</v>
+      </c>
+      <c r="G339" s="3">
+        <v>1</v>
+      </c>
+      <c r="H339" s="3">
+        <v>1</v>
+      </c>
+      <c r="I339" s="3">
+        <v>0</v>
+      </c>
+      <c r="J339" s="3">
+        <v>0</v>
+      </c>
+      <c r="K339" s="3">
+        <v>1</v>
+      </c>
+      <c r="L339" s="3">
+        <v>0</v>
+      </c>
+      <c r="M339" s="3">
+        <v>0</v>
+      </c>
+      <c r="N339" s="3">
+        <v>0</v>
+      </c>
+      <c r="O339" s="3">
+        <v>0</v>
+      </c>
+      <c r="P339" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q339" s="3">
+        <v>0</v>
+      </c>
+      <c r="R339" s="3">
+        <v>0</v>
+      </c>
+      <c r="S339" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T339" s="3">
+        <v>0</v>
+      </c>
+      <c r="U339" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E340" s="3">
+        <v>1</v>
+      </c>
+      <c r="F340" s="3">
+        <v>1</v>
+      </c>
+      <c r="G340" s="3">
+        <v>1</v>
+      </c>
+      <c r="H340" s="3">
+        <v>0</v>
+      </c>
+      <c r="I340" s="3">
+        <v>0</v>
+      </c>
+      <c r="J340" s="3">
+        <v>1</v>
+      </c>
+      <c r="K340" s="3">
+        <v>1</v>
+      </c>
+      <c r="L340" s="3">
+        <v>1</v>
+      </c>
+      <c r="M340" s="3">
+        <v>0</v>
+      </c>
+      <c r="N340" s="3">
+        <v>0</v>
+      </c>
+      <c r="O340" s="3">
+        <v>0</v>
+      </c>
+      <c r="P340" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q340" s="3">
+        <v>1</v>
+      </c>
+      <c r="R340" s="3">
+        <v>0</v>
+      </c>
+      <c r="S340" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T340" s="3">
+        <v>1</v>
+      </c>
+      <c r="U340" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E341" s="3">
+        <v>1</v>
+      </c>
+      <c r="F341" s="3">
+        <v>1</v>
+      </c>
+      <c r="G341" s="3">
+        <v>1</v>
+      </c>
+      <c r="H341" s="3">
+        <v>1</v>
+      </c>
+      <c r="I341" s="3">
+        <v>0</v>
+      </c>
+      <c r="J341" s="3">
+        <v>1</v>
+      </c>
+      <c r="K341" s="3">
+        <v>1</v>
+      </c>
+      <c r="L341" s="3">
+        <v>0</v>
+      </c>
+      <c r="M341" s="3">
+        <v>0</v>
+      </c>
+      <c r="N341" s="3">
+        <v>1</v>
+      </c>
+      <c r="O341" s="3">
+        <v>0</v>
+      </c>
+      <c r="P341" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q341" s="3">
+        <v>0</v>
+      </c>
+      <c r="R341" s="3">
+        <v>0</v>
+      </c>
+      <c r="S341" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T341" s="3">
+        <v>0</v>
+      </c>
+      <c r="U341" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E342" s="3">
+        <v>1</v>
+      </c>
+      <c r="F342" s="3">
+        <v>1</v>
+      </c>
+      <c r="G342" s="3">
+        <v>1</v>
+      </c>
+      <c r="H342" s="3">
+        <v>0</v>
+      </c>
+      <c r="I342" s="3">
+        <v>1</v>
+      </c>
+      <c r="J342" s="3">
+        <v>1</v>
+      </c>
+      <c r="K342" s="3">
+        <v>1</v>
+      </c>
+      <c r="L342" s="3">
+        <v>1</v>
+      </c>
+      <c r="M342" s="3">
+        <v>0</v>
+      </c>
+      <c r="N342" s="3">
+        <v>0</v>
+      </c>
+      <c r="O342" s="3">
+        <v>0</v>
+      </c>
+      <c r="P342" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q342" s="3">
+        <v>1</v>
+      </c>
+      <c r="R342" s="3">
+        <v>0</v>
+      </c>
+      <c r="S342" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T342" s="3">
+        <v>0</v>
+      </c>
+      <c r="U342" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E343" s="3">
+        <v>1</v>
+      </c>
+      <c r="F343" s="3">
+        <v>1</v>
+      </c>
+      <c r="G343" s="3">
+        <v>1</v>
+      </c>
+      <c r="H343" s="3">
+        <v>1</v>
+      </c>
+      <c r="I343" s="3">
+        <v>0</v>
+      </c>
+      <c r="J343" s="3">
+        <v>0</v>
+      </c>
+      <c r="K343" s="3">
+        <v>1</v>
+      </c>
+      <c r="L343" s="3">
+        <v>0</v>
+      </c>
+      <c r="M343" s="3">
+        <v>1</v>
+      </c>
+      <c r="N343" s="3">
+        <v>1</v>
+      </c>
+      <c r="O343" s="3">
+        <v>0</v>
+      </c>
+      <c r="P343" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q343" s="3">
+        <v>0</v>
+      </c>
+      <c r="R343" s="3">
+        <v>0</v>
+      </c>
+      <c r="S343" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T343" s="3">
+        <v>0</v>
+      </c>
+      <c r="U343" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344" s="3">
+        <v>1</v>
+      </c>
+      <c r="F344" s="3">
+        <v>1</v>
+      </c>
+      <c r="G344" s="3">
+        <v>0</v>
+      </c>
+      <c r="H344" s="3">
+        <v>0</v>
+      </c>
+      <c r="I344" s="3">
+        <v>1</v>
+      </c>
+      <c r="J344" s="3">
+        <v>1</v>
+      </c>
+      <c r="K344" s="3">
+        <v>1</v>
+      </c>
+      <c r="L344" s="3">
+        <v>0</v>
+      </c>
+      <c r="M344" s="3">
+        <v>1</v>
+      </c>
+      <c r="N344" s="3">
+        <v>0</v>
+      </c>
+      <c r="O344" s="3">
+        <v>0</v>
+      </c>
+      <c r="P344" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q344" s="3">
+        <v>0</v>
+      </c>
+      <c r="R344" s="3">
+        <v>0</v>
+      </c>
+      <c r="S344" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T344" s="3">
+        <v>0</v>
+      </c>
+      <c r="U344" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" s="3">
+        <v>1</v>
+      </c>
+      <c r="F345" s="3">
+        <v>1</v>
+      </c>
+      <c r="G345" s="3">
+        <v>0</v>
+      </c>
+      <c r="H345" s="3">
+        <v>1</v>
+      </c>
+      <c r="I345" s="3">
+        <v>0</v>
+      </c>
+      <c r="J345" s="3">
+        <v>0</v>
+      </c>
+      <c r="K345" s="3">
+        <v>1</v>
+      </c>
+      <c r="L345" s="3">
+        <v>0</v>
+      </c>
+      <c r="M345" s="3">
+        <v>0</v>
+      </c>
+      <c r="N345" s="3">
+        <v>0</v>
+      </c>
+      <c r="O345" s="3">
+        <v>0</v>
+      </c>
+      <c r="P345" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q345" s="3">
+        <v>0</v>
+      </c>
+      <c r="R345" s="3">
+        <v>0</v>
+      </c>
+      <c r="S345" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T345" s="3">
+        <v>0</v>
+      </c>
+      <c r="U345" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E346" s="3">
+        <v>1</v>
+      </c>
+      <c r="F346" s="3">
+        <v>1</v>
+      </c>
+      <c r="G346" s="3">
+        <v>1</v>
+      </c>
+      <c r="H346" s="3">
+        <v>0</v>
+      </c>
+      <c r="I346" s="3">
+        <v>1</v>
+      </c>
+      <c r="J346" s="3">
+        <v>1</v>
+      </c>
+      <c r="K346" s="3">
+        <v>1</v>
+      </c>
+      <c r="L346" s="3">
+        <v>0</v>
+      </c>
+      <c r="M346" s="3">
+        <v>0</v>
+      </c>
+      <c r="N346" s="3">
+        <v>0</v>
+      </c>
+      <c r="O346" s="3">
+        <v>0</v>
+      </c>
+      <c r="P346" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q346" s="3">
+        <v>0</v>
+      </c>
+      <c r="R346" s="3">
+        <v>0</v>
+      </c>
+      <c r="S346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T346" s="3">
+        <v>0</v>
+      </c>
+      <c r="U346" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E347" s="3">
+        <v>1</v>
+      </c>
+      <c r="F347" s="3">
+        <v>1</v>
+      </c>
+      <c r="G347" s="3">
+        <v>1</v>
+      </c>
+      <c r="H347" s="3">
+        <v>0</v>
+      </c>
+      <c r="I347" s="3">
+        <v>1</v>
+      </c>
+      <c r="J347" s="3">
+        <v>1</v>
+      </c>
+      <c r="K347" s="3">
+        <v>1</v>
+      </c>
+      <c r="L347" s="3">
+        <v>0</v>
+      </c>
+      <c r="M347" s="3">
+        <v>1</v>
+      </c>
+      <c r="N347" s="3">
+        <v>0</v>
+      </c>
+      <c r="O347" s="3">
+        <v>0</v>
+      </c>
+      <c r="P347" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q347" s="3">
+        <v>0</v>
+      </c>
+      <c r="R347" s="3">
+        <v>0</v>
+      </c>
+      <c r="S347" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T347" s="3">
+        <v>1</v>
+      </c>
+      <c r="U347" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E348" s="3">
+        <v>1</v>
+      </c>
+      <c r="F348" s="3">
+        <v>1</v>
+      </c>
+      <c r="G348" s="3">
+        <v>1</v>
+      </c>
+      <c r="H348" s="3">
+        <v>1</v>
+      </c>
+      <c r="I348" s="3">
+        <v>1</v>
+      </c>
+      <c r="J348" s="3">
+        <v>1</v>
+      </c>
+      <c r="K348" s="3">
+        <v>1</v>
+      </c>
+      <c r="L348" s="3">
+        <v>0</v>
+      </c>
+      <c r="M348" s="3">
+        <v>0</v>
+      </c>
+      <c r="N348" s="3">
+        <v>1</v>
+      </c>
+      <c r="O348" s="3">
+        <v>0</v>
+      </c>
+      <c r="P348" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q348" s="3">
+        <v>0</v>
+      </c>
+      <c r="R348" s="3">
+        <v>0</v>
+      </c>
+      <c r="S348" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T348" s="3">
+        <v>0</v>
+      </c>
+      <c r="U348" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E349" s="3">
+        <v>1</v>
+      </c>
+      <c r="F349" s="3">
+        <v>1</v>
+      </c>
+      <c r="G349" s="3">
+        <v>1</v>
+      </c>
+      <c r="H349" s="3">
+        <v>0</v>
+      </c>
+      <c r="I349" s="3">
+        <v>1</v>
+      </c>
+      <c r="J349" s="3">
+        <v>0</v>
+      </c>
+      <c r="K349" s="3">
+        <v>1</v>
+      </c>
+      <c r="L349" s="3">
+        <v>0</v>
+      </c>
+      <c r="M349" s="3">
+        <v>0</v>
+      </c>
+      <c r="N349" s="3">
+        <v>0</v>
+      </c>
+      <c r="O349" s="3">
+        <v>0</v>
+      </c>
+      <c r="P349" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q349" s="3">
+        <v>0</v>
+      </c>
+      <c r="R349" s="3">
+        <v>0</v>
+      </c>
+      <c r="S349" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T349" s="3">
+        <v>0</v>
+      </c>
+      <c r="U349" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E350" s="3">
+        <v>1</v>
+      </c>
+      <c r="F350" s="3">
+        <v>0</v>
+      </c>
+      <c r="G350" s="3">
+        <v>1</v>
+      </c>
+      <c r="H350" s="3">
+        <v>1</v>
+      </c>
+      <c r="I350" s="3">
+        <v>1</v>
+      </c>
+      <c r="J350" s="3">
+        <v>1</v>
+      </c>
+      <c r="K350" s="3">
+        <v>1</v>
+      </c>
+      <c r="L350" s="3">
+        <v>0</v>
+      </c>
+      <c r="M350" s="3">
+        <v>0</v>
+      </c>
+      <c r="N350" s="3">
+        <v>0</v>
+      </c>
+      <c r="O350" s="3">
+        <v>0</v>
+      </c>
+      <c r="P350" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q350" s="3">
+        <v>1</v>
+      </c>
+      <c r="R350" s="3">
+        <v>0</v>
+      </c>
+      <c r="S350" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T350" s="3">
+        <v>0</v>
+      </c>
+      <c r="U350" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E351" s="3">
+        <v>1</v>
+      </c>
+      <c r="F351" s="3">
+        <v>1</v>
+      </c>
+      <c r="G351" s="3">
+        <v>1</v>
+      </c>
+      <c r="H351" s="3">
+        <v>0</v>
+      </c>
+      <c r="I351" s="3">
+        <v>1</v>
+      </c>
+      <c r="J351" s="3">
+        <v>0</v>
+      </c>
+      <c r="K351" s="3">
+        <v>1</v>
+      </c>
+      <c r="L351" s="3">
+        <v>0</v>
+      </c>
+      <c r="M351" s="3">
+        <v>0</v>
+      </c>
+      <c r="N351" s="3">
+        <v>1</v>
+      </c>
+      <c r="O351" s="3">
+        <v>0</v>
+      </c>
+      <c r="P351" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q351" s="3">
+        <v>0</v>
+      </c>
+      <c r="R351" s="3">
+        <v>0</v>
+      </c>
+      <c r="S351" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T351" s="3">
+        <v>0</v>
+      </c>
+      <c r="U351" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352" s="3">
+        <v>1</v>
+      </c>
+      <c r="F352" s="3">
+        <v>1</v>
+      </c>
+      <c r="G352" s="3">
+        <v>0</v>
+      </c>
+      <c r="H352" s="3">
+        <v>0</v>
+      </c>
+      <c r="I352" s="3">
+        <v>0</v>
+      </c>
+      <c r="J352" s="3">
+        <v>1</v>
+      </c>
+      <c r="K352" s="3">
+        <v>1</v>
+      </c>
+      <c r="L352" s="3">
+        <v>1</v>
+      </c>
+      <c r="M352" s="3">
+        <v>0</v>
+      </c>
+      <c r="N352" s="3">
+        <v>0</v>
+      </c>
+      <c r="O352" s="3">
+        <v>0</v>
+      </c>
+      <c r="P352" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q352" s="3">
+        <v>0</v>
+      </c>
+      <c r="R352" s="3">
+        <v>0</v>
+      </c>
+      <c r="S352" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T352" s="3">
+        <v>0</v>
+      </c>
+      <c r="U352" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E353" s="3">
+        <v>1</v>
+      </c>
+      <c r="F353" s="3">
+        <v>1</v>
+      </c>
+      <c r="G353" s="3">
+        <v>1</v>
+      </c>
+      <c r="H353" s="3">
+        <v>1</v>
+      </c>
+      <c r="I353" s="3">
+        <v>1</v>
+      </c>
+      <c r="J353" s="3">
+        <v>0</v>
+      </c>
+      <c r="K353" s="3">
+        <v>1</v>
+      </c>
+      <c r="L353" s="3">
+        <v>0</v>
+      </c>
+      <c r="M353" s="3">
+        <v>1</v>
+      </c>
+      <c r="N353" s="3">
+        <v>0</v>
+      </c>
+      <c r="O353" s="3">
+        <v>0</v>
+      </c>
+      <c r="P353" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q353" s="3">
+        <v>0</v>
+      </c>
+      <c r="R353" s="3">
+        <v>0</v>
+      </c>
+      <c r="S353" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T353" s="3">
+        <v>0</v>
+      </c>
+      <c r="U353" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E354" s="3">
+        <v>1</v>
+      </c>
+      <c r="F354" s="3">
+        <v>0</v>
+      </c>
+      <c r="G354" s="3">
+        <v>1</v>
+      </c>
+      <c r="H354" s="3">
+        <v>0</v>
+      </c>
+      <c r="I354" s="3">
+        <v>1</v>
+      </c>
+      <c r="J354" s="3">
+        <v>1</v>
+      </c>
+      <c r="K354" s="3">
+        <v>1</v>
+      </c>
+      <c r="L354" s="3">
+        <v>0</v>
+      </c>
+      <c r="M354" s="3">
+        <v>0</v>
+      </c>
+      <c r="N354" s="3">
+        <v>1</v>
+      </c>
+      <c r="O354" s="3">
+        <v>0</v>
+      </c>
+      <c r="P354" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q354" s="3">
+        <v>0</v>
+      </c>
+      <c r="R354" s="3">
+        <v>0</v>
+      </c>
+      <c r="S354" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T354" s="3">
+        <v>1</v>
+      </c>
+      <c r="U354" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E355" s="3">
+        <v>1</v>
+      </c>
+      <c r="F355" s="3">
+        <v>1</v>
+      </c>
+      <c r="G355" s="3">
+        <v>1</v>
+      </c>
+      <c r="H355" s="3">
+        <v>1</v>
+      </c>
+      <c r="I355" s="3">
+        <v>1</v>
+      </c>
+      <c r="J355" s="3">
+        <v>0</v>
+      </c>
+      <c r="K355" s="3">
+        <v>1</v>
+      </c>
+      <c r="L355" s="3">
+        <v>0</v>
+      </c>
+      <c r="M355" s="3">
+        <v>0</v>
+      </c>
+      <c r="N355" s="3">
+        <v>1</v>
+      </c>
+      <c r="O355" s="3">
+        <v>0</v>
+      </c>
+      <c r="P355" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q355" s="3">
+        <v>0</v>
+      </c>
+      <c r="R355" s="3">
+        <v>0</v>
+      </c>
+      <c r="S355" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T355" s="3">
+        <v>0</v>
+      </c>
+      <c r="U355" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E356" s="3">
+        <v>1</v>
+      </c>
+      <c r="F356" s="3">
+        <v>1</v>
+      </c>
+      <c r="G356" s="3">
+        <v>1</v>
+      </c>
+      <c r="H356" s="3">
+        <v>0</v>
+      </c>
+      <c r="I356" s="3">
+        <v>1</v>
+      </c>
+      <c r="J356" s="3">
+        <v>1</v>
+      </c>
+      <c r="K356" s="3">
+        <v>1</v>
+      </c>
+      <c r="L356" s="3">
+        <v>1</v>
+      </c>
+      <c r="M356" s="3">
+        <v>0</v>
+      </c>
+      <c r="N356" s="3">
+        <v>0</v>
+      </c>
+      <c r="O356" s="3">
+        <v>0</v>
+      </c>
+      <c r="P356" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q356" s="3">
+        <v>1</v>
+      </c>
+      <c r="R356" s="3">
+        <v>0</v>
+      </c>
+      <c r="S356" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T356" s="3">
+        <v>0</v>
+      </c>
+      <c r="U356" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="3">
+        <v>1</v>
+      </c>
+      <c r="F357" s="3">
+        <v>1</v>
+      </c>
+      <c r="G357" s="3">
+        <v>0</v>
+      </c>
+      <c r="H357" s="3">
+        <v>1</v>
+      </c>
+      <c r="I357" s="3">
+        <v>1</v>
+      </c>
+      <c r="J357" s="3">
+        <v>1</v>
+      </c>
+      <c r="K357" s="3">
+        <v>1</v>
+      </c>
+      <c r="L357" s="3">
+        <v>0</v>
+      </c>
+      <c r="M357" s="3">
+        <v>0</v>
+      </c>
+      <c r="N357" s="3">
+        <v>0</v>
+      </c>
+      <c r="O357" s="3">
+        <v>0</v>
+      </c>
+      <c r="P357" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q357" s="3">
+        <v>0</v>
+      </c>
+      <c r="R357" s="3">
+        <v>0</v>
+      </c>
+      <c r="S357" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T357" s="3">
+        <v>0</v>
+      </c>
+      <c r="U357" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="3">
+        <v>1</v>
+      </c>
+      <c r="F358" s="3">
+        <v>1</v>
+      </c>
+      <c r="G358" s="3">
+        <v>0</v>
+      </c>
+      <c r="H358" s="3">
+        <v>0</v>
+      </c>
+      <c r="I358" s="3">
+        <v>0</v>
+      </c>
+      <c r="J358" s="3">
+        <v>0</v>
+      </c>
+      <c r="K358" s="3">
+        <v>1</v>
+      </c>
+      <c r="L358" s="3">
+        <v>1</v>
+      </c>
+      <c r="M358" s="3">
+        <v>1</v>
+      </c>
+      <c r="N358" s="3">
+        <v>0</v>
+      </c>
+      <c r="O358" s="3">
+        <v>0</v>
+      </c>
+      <c r="P358" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q358" s="3">
+        <v>1</v>
+      </c>
+      <c r="R358" s="3">
+        <v>0</v>
+      </c>
+      <c r="S358" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T358" s="3">
+        <v>0</v>
+      </c>
+      <c r="U358" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E359" s="3">
+        <v>1</v>
+      </c>
+      <c r="F359" s="3">
+        <v>1</v>
+      </c>
+      <c r="G359" s="3">
+        <v>1</v>
+      </c>
+      <c r="H359" s="3">
+        <v>1</v>
+      </c>
+      <c r="I359" s="3">
+        <v>1</v>
+      </c>
+      <c r="J359" s="3">
+        <v>0</v>
+      </c>
+      <c r="K359" s="3">
+        <v>1</v>
+      </c>
+      <c r="L359" s="3">
+        <v>0</v>
+      </c>
+      <c r="M359" s="3">
+        <v>0</v>
+      </c>
+      <c r="N359" s="3">
+        <v>0</v>
+      </c>
+      <c r="O359" s="3">
+        <v>0</v>
+      </c>
+      <c r="P359" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q359" s="3">
+        <v>0</v>
+      </c>
+      <c r="R359" s="3">
+        <v>0</v>
+      </c>
+      <c r="S359" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T359" s="3">
+        <v>0</v>
+      </c>
+      <c r="U359" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E360" s="3">
+        <v>1</v>
+      </c>
+      <c r="F360" s="3">
+        <v>0</v>
+      </c>
+      <c r="G360" s="3">
+        <v>1</v>
+      </c>
+      <c r="H360" s="3">
+        <v>0</v>
+      </c>
+      <c r="I360" s="3">
+        <v>1</v>
+      </c>
+      <c r="J360" s="3">
+        <v>0</v>
+      </c>
+      <c r="K360" s="3">
+        <v>1</v>
+      </c>
+      <c r="L360" s="3">
+        <v>0</v>
+      </c>
+      <c r="M360" s="3">
+        <v>0</v>
+      </c>
+      <c r="N360" s="3">
+        <v>0</v>
+      </c>
+      <c r="O360" s="3">
+        <v>0</v>
+      </c>
+      <c r="P360" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q360" s="3">
+        <v>0</v>
+      </c>
+      <c r="R360" s="3">
+        <v>0</v>
+      </c>
+      <c r="S360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T360" s="3">
+        <v>0</v>
+      </c>
+      <c r="U360" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E361" s="3">
+        <v>1</v>
+      </c>
+      <c r="F361" s="3">
+        <v>1</v>
+      </c>
+      <c r="G361" s="3">
+        <v>1</v>
+      </c>
+      <c r="H361" s="3">
+        <v>1</v>
+      </c>
+      <c r="I361" s="3">
+        <v>1</v>
+      </c>
+      <c r="J361" s="3">
+        <v>1</v>
+      </c>
+      <c r="K361" s="3">
+        <v>1</v>
+      </c>
+      <c r="L361" s="3">
+        <v>1</v>
+      </c>
+      <c r="M361" s="3">
+        <v>1</v>
+      </c>
+      <c r="N361" s="3">
+        <v>0</v>
+      </c>
+      <c r="O361" s="3">
+        <v>0</v>
+      </c>
+      <c r="P361" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q361" s="3">
+        <v>1</v>
+      </c>
+      <c r="R361" s="3">
+        <v>0</v>
+      </c>
+      <c r="S361" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T361" s="3">
+        <v>1</v>
+      </c>
+      <c r="U361" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E362" s="3">
+        <v>1</v>
+      </c>
+      <c r="F362" s="3">
+        <v>1</v>
+      </c>
+      <c r="G362" s="3">
+        <v>1</v>
+      </c>
+      <c r="H362" s="3">
+        <v>0</v>
+      </c>
+      <c r="I362" s="3">
+        <v>1</v>
+      </c>
+      <c r="J362" s="3">
+        <v>1</v>
+      </c>
+      <c r="K362" s="3">
+        <v>1</v>
+      </c>
+      <c r="L362" s="3">
+        <v>0</v>
+      </c>
+      <c r="M362" s="3">
+        <v>0</v>
+      </c>
+      <c r="N362" s="3">
+        <v>1</v>
+      </c>
+      <c r="O362" s="3">
+        <v>0</v>
+      </c>
+      <c r="P362" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q362" s="3">
+        <v>0</v>
+      </c>
+      <c r="R362" s="3">
+        <v>0</v>
+      </c>
+      <c r="S362" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T362" s="3">
+        <v>0</v>
+      </c>
+      <c r="U362" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" s="3">
+        <v>1</v>
+      </c>
+      <c r="F363" s="3">
+        <v>1</v>
+      </c>
+      <c r="G363" s="3">
+        <v>0</v>
+      </c>
+      <c r="H363" s="3">
+        <v>1</v>
+      </c>
+      <c r="I363" s="3">
+        <v>1</v>
+      </c>
+      <c r="J363" s="3">
+        <v>0</v>
+      </c>
+      <c r="K363" s="3">
+        <v>1</v>
+      </c>
+      <c r="L363" s="3">
+        <v>1</v>
+      </c>
+      <c r="M363" s="3">
+        <v>0</v>
+      </c>
+      <c r="N363" s="3">
+        <v>0</v>
+      </c>
+      <c r="O363" s="3">
+        <v>0</v>
+      </c>
+      <c r="P363" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q363" s="3">
+        <v>0</v>
+      </c>
+      <c r="R363" s="3">
+        <v>0</v>
+      </c>
+      <c r="S363" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T363" s="3">
+        <v>0</v>
+      </c>
+      <c r="U363" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E364" s="3">
+        <v>1</v>
+      </c>
+      <c r="F364" s="3">
+        <v>0</v>
+      </c>
+      <c r="G364" s="3">
+        <v>1</v>
+      </c>
+      <c r="H364" s="3">
+        <v>0</v>
+      </c>
+      <c r="I364" s="3">
+        <v>1</v>
+      </c>
+      <c r="J364" s="3">
+        <v>1</v>
+      </c>
+      <c r="K364" s="3">
+        <v>1</v>
+      </c>
+      <c r="L364" s="3">
+        <v>0</v>
+      </c>
+      <c r="M364" s="3">
+        <v>0</v>
+      </c>
+      <c r="N364" s="3">
+        <v>1</v>
+      </c>
+      <c r="O364" s="3">
+        <v>1</v>
+      </c>
+      <c r="P364" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q364" s="3">
+        <v>1</v>
+      </c>
+      <c r="R364" s="3">
+        <v>0</v>
+      </c>
+      <c r="S364" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T364" s="3">
+        <v>0</v>
+      </c>
+      <c r="U364" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E365" s="3">
+        <v>1</v>
+      </c>
+      <c r="F365" s="3">
+        <v>1</v>
+      </c>
+      <c r="G365" s="3">
+        <v>1</v>
+      </c>
+      <c r="H365" s="3">
+        <v>1</v>
+      </c>
+      <c r="I365" s="3">
+        <v>1</v>
+      </c>
+      <c r="J365" s="3">
+        <v>1</v>
+      </c>
+      <c r="K365" s="3">
+        <v>1</v>
+      </c>
+      <c r="L365" s="3">
+        <v>0</v>
+      </c>
+      <c r="M365" s="3">
+        <v>0</v>
+      </c>
+      <c r="N365" s="3">
+        <v>1</v>
+      </c>
+      <c r="O365" s="3">
+        <v>0</v>
+      </c>
+      <c r="P365" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q365" s="3">
+        <v>0</v>
+      </c>
+      <c r="R365" s="3">
+        <v>0</v>
+      </c>
+      <c r="S365" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T365" s="3">
+        <v>0</v>
+      </c>
+      <c r="U365" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E366" s="3">
+        <v>1</v>
+      </c>
+      <c r="F366" s="3">
+        <v>1</v>
+      </c>
+      <c r="G366" s="3">
+        <v>1</v>
+      </c>
+      <c r="H366" s="3">
+        <v>0</v>
+      </c>
+      <c r="I366" s="3">
+        <v>0</v>
+      </c>
+      <c r="J366" s="3">
+        <v>0</v>
+      </c>
+      <c r="K366" s="3">
+        <v>1</v>
+      </c>
+      <c r="L366" s="3">
+        <v>1</v>
+      </c>
+      <c r="M366" s="3">
+        <v>0</v>
+      </c>
+      <c r="N366" s="3">
+        <v>0</v>
+      </c>
+      <c r="O366" s="3">
+        <v>0</v>
+      </c>
+      <c r="P366" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q366" s="3">
+        <v>0</v>
+      </c>
+      <c r="R366" s="3">
+        <v>0</v>
+      </c>
+      <c r="S366" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T366" s="3">
+        <v>0</v>
+      </c>
+      <c r="U366" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E367" s="3">
+        <v>1</v>
+      </c>
+      <c r="F367" s="3">
+        <v>1</v>
+      </c>
+      <c r="G367" s="3">
+        <v>1</v>
+      </c>
+      <c r="H367" s="3">
+        <v>0</v>
+      </c>
+      <c r="I367" s="3">
+        <v>0</v>
+      </c>
+      <c r="J367" s="3">
+        <v>0</v>
+      </c>
+      <c r="K367" s="3">
+        <v>1</v>
+      </c>
+      <c r="L367" s="3">
+        <v>0</v>
+      </c>
+      <c r="M367" s="3">
+        <v>1</v>
+      </c>
+      <c r="N367" s="3">
+        <v>0</v>
+      </c>
+      <c r="O367" s="3">
+        <v>1</v>
+      </c>
+      <c r="P367" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q367" s="3">
+        <v>0</v>
+      </c>
+      <c r="R367" s="3">
+        <v>0</v>
+      </c>
+      <c r="S367" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T367" s="3">
+        <v>0</v>
+      </c>
+      <c r="U367" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E368" s="3">
+        <v>1</v>
+      </c>
+      <c r="F368" s="3">
+        <v>1</v>
+      </c>
+      <c r="G368" s="3">
+        <v>1</v>
+      </c>
+      <c r="H368" s="3">
+        <v>1</v>
+      </c>
+      <c r="I368" s="3">
+        <v>1</v>
+      </c>
+      <c r="J368" s="3">
+        <v>1</v>
+      </c>
+      <c r="K368" s="3">
+        <v>1</v>
+      </c>
+      <c r="L368" s="3">
+        <v>0</v>
+      </c>
+      <c r="M368" s="3">
+        <v>0</v>
+      </c>
+      <c r="N368" s="3">
+        <v>0</v>
+      </c>
+      <c r="O368" s="3">
+        <v>0</v>
+      </c>
+      <c r="P368" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="3">
+        <v>0</v>
+      </c>
+      <c r="R368" s="3">
+        <v>0</v>
+      </c>
+      <c r="S368" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T368" s="3">
+        <v>1</v>
+      </c>
+      <c r="U368" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="3">
+        <v>1</v>
+      </c>
+      <c r="F369" s="3">
+        <v>1</v>
+      </c>
+      <c r="G369" s="3">
+        <v>0</v>
+      </c>
+      <c r="H369" s="3">
+        <v>0</v>
+      </c>
+      <c r="I369" s="3">
+        <v>1</v>
+      </c>
+      <c r="J369" s="3">
+        <v>1</v>
+      </c>
+      <c r="K369" s="3">
+        <v>1</v>
+      </c>
+      <c r="L369" s="3">
+        <v>0</v>
+      </c>
+      <c r="M369" s="3">
+        <v>0</v>
+      </c>
+      <c r="N369" s="3">
+        <v>0</v>
+      </c>
+      <c r="O369" s="3">
+        <v>0</v>
+      </c>
+      <c r="P369" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q369" s="3">
+        <v>0</v>
+      </c>
+      <c r="R369" s="3">
+        <v>0</v>
+      </c>
+      <c r="S369" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T369" s="3">
+        <v>0</v>
+      </c>
+      <c r="U369" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" s="3">
+        <v>1</v>
+      </c>
+      <c r="F370" s="3">
+        <v>1</v>
+      </c>
+      <c r="G370" s="3">
+        <v>0</v>
+      </c>
+      <c r="H370" s="3">
+        <v>1</v>
+      </c>
+      <c r="I370" s="3">
+        <v>1</v>
+      </c>
+      <c r="J370" s="3">
+        <v>1</v>
+      </c>
+      <c r="K370" s="3">
+        <v>1</v>
+      </c>
+      <c r="L370" s="3">
+        <v>0</v>
+      </c>
+      <c r="M370" s="3">
+        <v>0</v>
+      </c>
+      <c r="N370" s="3">
+        <v>0</v>
+      </c>
+      <c r="O370" s="3">
+        <v>0</v>
+      </c>
+      <c r="P370" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q370" s="3">
+        <v>0</v>
+      </c>
+      <c r="R370" s="3">
+        <v>0</v>
+      </c>
+      <c r="S370" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T370" s="3">
+        <v>0</v>
+      </c>
+      <c r="U370" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E371" s="3">
+        <v>1</v>
+      </c>
+      <c r="F371" s="3">
+        <v>0</v>
+      </c>
+      <c r="G371" s="3">
+        <v>1</v>
+      </c>
+      <c r="H371" s="3">
+        <v>1</v>
+      </c>
+      <c r="I371" s="3">
+        <v>1</v>
+      </c>
+      <c r="J371" s="3">
+        <v>0</v>
+      </c>
+      <c r="K371" s="3">
+        <v>1</v>
+      </c>
+      <c r="L371" s="3">
+        <v>0</v>
+      </c>
+      <c r="M371" s="3">
+        <v>0</v>
+      </c>
+      <c r="N371" s="3">
+        <v>0</v>
+      </c>
+      <c r="O371" s="3">
+        <v>0</v>
+      </c>
+      <c r="P371" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="3">
+        <v>0</v>
+      </c>
+      <c r="R371" s="3">
+        <v>0</v>
+      </c>
+      <c r="S371" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T371" s="3">
+        <v>0</v>
+      </c>
+      <c r="U371" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E372" s="3">
+        <v>1</v>
+      </c>
+      <c r="F372" s="3">
+        <v>1</v>
+      </c>
+      <c r="G372" s="3">
+        <v>1</v>
+      </c>
+      <c r="H372" s="3">
+        <v>0</v>
+      </c>
+      <c r="I372" s="3">
+        <v>1</v>
+      </c>
+      <c r="J372" s="3">
+        <v>0</v>
+      </c>
+      <c r="K372" s="3">
+        <v>1</v>
+      </c>
+      <c r="L372" s="3">
+        <v>0</v>
+      </c>
+      <c r="M372" s="3">
+        <v>0</v>
+      </c>
+      <c r="N372" s="3">
+        <v>0</v>
+      </c>
+      <c r="O372" s="3">
+        <v>0</v>
+      </c>
+      <c r="P372" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="3">
+        <v>0</v>
+      </c>
+      <c r="R372" s="3">
+        <v>0</v>
+      </c>
+      <c r="S372" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T372" s="3">
+        <v>0</v>
+      </c>
+      <c r="U372" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E373" s="3">
+        <v>1</v>
+      </c>
+      <c r="F373" s="3">
+        <v>0</v>
+      </c>
+      <c r="G373" s="3">
+        <v>1</v>
+      </c>
+      <c r="H373" s="3">
+        <v>0</v>
+      </c>
+      <c r="I373" s="3">
+        <v>0</v>
+      </c>
+      <c r="J373" s="3">
+        <v>1</v>
+      </c>
+      <c r="K373" s="3">
+        <v>1</v>
+      </c>
+      <c r="L373" s="3">
+        <v>0</v>
+      </c>
+      <c r="M373" s="3">
+        <v>0</v>
+      </c>
+      <c r="N373" s="3">
+        <v>0</v>
+      </c>
+      <c r="O373" s="3">
+        <v>0</v>
+      </c>
+      <c r="P373" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q373" s="3">
+        <v>1</v>
+      </c>
+      <c r="R373" s="3">
+        <v>0</v>
+      </c>
+      <c r="S373" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T373" s="3">
+        <v>0</v>
+      </c>
+      <c r="U373" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E374" s="3">
+        <v>1</v>
+      </c>
+      <c r="F374" s="3">
+        <v>0</v>
+      </c>
+      <c r="G374" s="3">
+        <v>1</v>
+      </c>
+      <c r="H374" s="3">
+        <v>1</v>
+      </c>
+      <c r="I374" s="3">
+        <v>0</v>
+      </c>
+      <c r="J374" s="3">
+        <v>1</v>
+      </c>
+      <c r="K374" s="3">
+        <v>1</v>
+      </c>
+      <c r="L374" s="3">
+        <v>0</v>
+      </c>
+      <c r="M374" s="3">
+        <v>0</v>
+      </c>
+      <c r="N374" s="3">
+        <v>0</v>
+      </c>
+      <c r="O374" s="3">
+        <v>0</v>
+      </c>
+      <c r="P374" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q374" s="3">
+        <v>0</v>
+      </c>
+      <c r="R374" s="3">
+        <v>0</v>
+      </c>
+      <c r="S374" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T374" s="3">
+        <v>0</v>
+      </c>
+      <c r="U374" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E375" s="3">
+        <v>1</v>
+      </c>
+      <c r="F375" s="3">
+        <v>1</v>
+      </c>
+      <c r="G375" s="3">
+        <v>1</v>
+      </c>
+      <c r="H375" s="3">
+        <v>0</v>
+      </c>
+      <c r="I375" s="3">
+        <v>0</v>
+      </c>
+      <c r="J375" s="3">
+        <v>0</v>
+      </c>
+      <c r="K375" s="3">
+        <v>1</v>
+      </c>
+      <c r="L375" s="3">
+        <v>0</v>
+      </c>
+      <c r="M375" s="3">
+        <v>0</v>
+      </c>
+      <c r="N375" s="3">
+        <v>0</v>
+      </c>
+      <c r="O375" s="3">
+        <v>0</v>
+      </c>
+      <c r="P375" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q375" s="3">
+        <v>0</v>
+      </c>
+      <c r="R375" s="3">
+        <v>0</v>
+      </c>
+      <c r="S375" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T375" s="3">
+        <v>1</v>
+      </c>
+      <c r="U375" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E376" s="3">
+        <v>1</v>
+      </c>
+      <c r="F376" s="3">
+        <v>1</v>
+      </c>
+      <c r="G376" s="3">
+        <v>1</v>
+      </c>
+      <c r="H376" s="3">
+        <v>1</v>
+      </c>
+      <c r="I376" s="3">
+        <v>0</v>
+      </c>
+      <c r="J376" s="3">
+        <v>1</v>
+      </c>
+      <c r="K376" s="3">
+        <v>1</v>
+      </c>
+      <c r="L376" s="3">
+        <v>0</v>
+      </c>
+      <c r="M376" s="3">
+        <v>0</v>
+      </c>
+      <c r="N376" s="3">
+        <v>0</v>
+      </c>
+      <c r="O376" s="3">
+        <v>0</v>
+      </c>
+      <c r="P376" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q376" s="3">
+        <v>0</v>
+      </c>
+      <c r="R376" s="3">
+        <v>0</v>
+      </c>
+      <c r="S376" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T376" s="3">
+        <v>0</v>
+      </c>
+      <c r="U376" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E377" s="3">
+        <v>1</v>
+      </c>
+      <c r="F377" s="3">
+        <v>1</v>
+      </c>
+      <c r="G377" s="3">
+        <v>1</v>
+      </c>
+      <c r="H377" s="3">
+        <v>0</v>
+      </c>
+      <c r="I377" s="3">
+        <v>0</v>
+      </c>
+      <c r="J377" s="3">
+        <v>1</v>
+      </c>
+      <c r="K377" s="3">
+        <v>1</v>
+      </c>
+      <c r="L377" s="3">
+        <v>0</v>
+      </c>
+      <c r="M377" s="3">
+        <v>0</v>
+      </c>
+      <c r="N377" s="3">
+        <v>0</v>
+      </c>
+      <c r="O377" s="3">
+        <v>0</v>
+      </c>
+      <c r="P377" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q377" s="3">
+        <v>1</v>
+      </c>
+      <c r="R377" s="3">
+        <v>0</v>
+      </c>
+      <c r="S377" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T377" s="3">
+        <v>0</v>
+      </c>
+      <c r="U377" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E378" s="3">
+        <v>1</v>
+      </c>
+      <c r="F378" s="3">
+        <v>0</v>
+      </c>
+      <c r="G378" s="3">
+        <v>1</v>
+      </c>
+      <c r="H378" s="3">
+        <v>1</v>
+      </c>
+      <c r="I378" s="3">
+        <v>0</v>
+      </c>
+      <c r="J378" s="3">
+        <v>0</v>
+      </c>
+      <c r="K378" s="3">
+        <v>1</v>
+      </c>
+      <c r="L378" s="3">
+        <v>0</v>
+      </c>
+      <c r="M378" s="3">
+        <v>0</v>
+      </c>
+      <c r="N378" s="3">
+        <v>0</v>
+      </c>
+      <c r="O378" s="3">
+        <v>0</v>
+      </c>
+      <c r="P378" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q378" s="3">
+        <v>1</v>
+      </c>
+      <c r="R378" s="3">
+        <v>0</v>
+      </c>
+      <c r="S378" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T378" s="3">
+        <v>0</v>
+      </c>
+      <c r="U378" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E379" s="3">
+        <v>1</v>
+      </c>
+      <c r="F379" s="3">
+        <v>1</v>
+      </c>
+      <c r="G379" s="3">
+        <v>1</v>
+      </c>
+      <c r="H379" s="3">
+        <v>0</v>
+      </c>
+      <c r="I379" s="3">
+        <v>0</v>
+      </c>
+      <c r="J379" s="3">
+        <v>0</v>
+      </c>
+      <c r="K379" s="3">
+        <v>1</v>
+      </c>
+      <c r="L379" s="3">
+        <v>0</v>
+      </c>
+      <c r="M379" s="3">
+        <v>0</v>
+      </c>
+      <c r="N379" s="3">
+        <v>0</v>
+      </c>
+      <c r="O379" s="3">
+        <v>0</v>
+      </c>
+      <c r="P379" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q379" s="3">
+        <v>0</v>
+      </c>
+      <c r="R379" s="3">
+        <v>0</v>
+      </c>
+      <c r="S379" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T379" s="3">
+        <v>0</v>
+      </c>
+      <c r="U379" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E380" s="3">
+        <v>1</v>
+      </c>
+      <c r="F380" s="3">
+        <v>0</v>
+      </c>
+      <c r="G380" s="3">
+        <v>0</v>
+      </c>
+      <c r="H380" s="3">
+        <v>0</v>
+      </c>
+      <c r="I380" s="3">
+        <v>0</v>
+      </c>
+      <c r="J380" s="3">
+        <v>0</v>
+      </c>
+      <c r="K380" s="3">
+        <v>1</v>
+      </c>
+      <c r="L380" s="3">
+        <v>0</v>
+      </c>
+      <c r="M380" s="3">
+        <v>0</v>
+      </c>
+      <c r="N380" s="3">
+        <v>0</v>
+      </c>
+      <c r="O380" s="3">
+        <v>1</v>
+      </c>
+      <c r="P380" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q380" s="3">
+        <v>0</v>
+      </c>
+      <c r="R380" s="3">
+        <v>0</v>
+      </c>
+      <c r="S380" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T380" s="3">
+        <v>0</v>
+      </c>
+      <c r="U380" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E381" s="3">
+        <v>1</v>
+      </c>
+      <c r="F381" s="3">
+        <v>1</v>
+      </c>
+      <c r="G381" s="3">
+        <v>1</v>
+      </c>
+      <c r="H381" s="3">
+        <v>1</v>
+      </c>
+      <c r="I381" s="3">
+        <v>0</v>
+      </c>
+      <c r="J381" s="3">
+        <v>1</v>
+      </c>
+      <c r="K381" s="3">
+        <v>1</v>
+      </c>
+      <c r="L381" s="3">
+        <v>0</v>
+      </c>
+      <c r="M381" s="3">
+        <v>0</v>
+      </c>
+      <c r="N381" s="3">
+        <v>0</v>
+      </c>
+      <c r="O381" s="3">
+        <v>0</v>
+      </c>
+      <c r="P381" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q381" s="3">
+        <v>0</v>
+      </c>
+      <c r="R381" s="3">
+        <v>0</v>
+      </c>
+      <c r="S381" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T381" s="3">
+        <v>0</v>
+      </c>
+      <c r="U381" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E382" s="3">
+        <v>1</v>
+      </c>
+      <c r="F382" s="3">
+        <v>1</v>
+      </c>
+      <c r="G382" s="3">
+        <v>1</v>
+      </c>
+      <c r="H382" s="3">
+        <v>1</v>
+      </c>
+      <c r="I382" s="3">
+        <v>0</v>
+      </c>
+      <c r="J382" s="3">
+        <v>0</v>
+      </c>
+      <c r="K382" s="3">
+        <v>1</v>
+      </c>
+      <c r="L382" s="3">
+        <v>0</v>
+      </c>
+      <c r="M382" s="3">
+        <v>0</v>
+      </c>
+      <c r="N382" s="3">
+        <v>0</v>
+      </c>
+      <c r="O382" s="3">
+        <v>0</v>
+      </c>
+      <c r="P382" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q382" s="3">
+        <v>1</v>
+      </c>
+      <c r="R382" s="3">
+        <v>0</v>
+      </c>
+      <c r="S382" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T382" s="3">
+        <v>1</v>
+      </c>
+      <c r="U382" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E383" s="3">
+        <v>1</v>
+      </c>
+      <c r="F383" s="3">
+        <v>1</v>
+      </c>
+      <c r="G383" s="3">
+        <v>1</v>
+      </c>
+      <c r="H383" s="3">
+        <v>0</v>
+      </c>
+      <c r="I383" s="3">
+        <v>0</v>
+      </c>
+      <c r="J383" s="3">
+        <v>1</v>
+      </c>
+      <c r="K383" s="3">
+        <v>1</v>
+      </c>
+      <c r="L383" s="3">
+        <v>0</v>
+      </c>
+      <c r="M383" s="3">
+        <v>0</v>
+      </c>
+      <c r="N383" s="3">
+        <v>0</v>
+      </c>
+      <c r="O383" s="3">
+        <v>1</v>
+      </c>
+      <c r="P383" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q383" s="3">
+        <v>0</v>
+      </c>
+      <c r="R383" s="3">
+        <v>0</v>
+      </c>
+      <c r="S383" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T383" s="3">
+        <v>0</v>
+      </c>
+      <c r="U383" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E384" s="3">
+        <v>1</v>
+      </c>
+      <c r="F384" s="3">
+        <v>1</v>
+      </c>
+      <c r="G384" s="3">
+        <v>1</v>
+      </c>
+      <c r="H384" s="3">
+        <v>1</v>
+      </c>
+      <c r="I384" s="3">
+        <v>1</v>
+      </c>
+      <c r="J384" s="3">
+        <v>1</v>
+      </c>
+      <c r="K384" s="3">
+        <v>1</v>
+      </c>
+      <c r="L384" s="3">
+        <v>0</v>
+      </c>
+      <c r="M384" s="3">
+        <v>0</v>
+      </c>
+      <c r="N384" s="3">
+        <v>0</v>
+      </c>
+      <c r="O384" s="3">
+        <v>1</v>
+      </c>
+      <c r="P384" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q384" s="3">
+        <v>1</v>
+      </c>
+      <c r="R384" s="3">
+        <v>0</v>
+      </c>
+      <c r="S384" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T384" s="3">
+        <v>0</v>
+      </c>
+      <c r="U384" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E385" s="3">
+        <v>1</v>
+      </c>
+      <c r="F385" s="3">
+        <v>1</v>
+      </c>
+      <c r="G385" s="3">
+        <v>1</v>
+      </c>
+      <c r="H385" s="3">
+        <v>0</v>
+      </c>
+      <c r="I385" s="3">
+        <v>1</v>
+      </c>
+      <c r="J385" s="3">
+        <v>1</v>
+      </c>
+      <c r="K385" s="3">
+        <v>1</v>
+      </c>
+      <c r="L385" s="3">
+        <v>0</v>
+      </c>
+      <c r="M385" s="3">
+        <v>0</v>
+      </c>
+      <c r="N385" s="3">
+        <v>0</v>
+      </c>
+      <c r="O385" s="3">
+        <v>1</v>
+      </c>
+      <c r="P385" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q385" s="3">
+        <v>1</v>
+      </c>
+      <c r="R385" s="3">
+        <v>0</v>
+      </c>
+      <c r="S385" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T385" s="3">
+        <v>0</v>
+      </c>
+      <c r="U385" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E386" s="3">
+        <v>1</v>
+      </c>
+      <c r="F386" s="3">
+        <v>1</v>
+      </c>
+      <c r="G386" s="3">
+        <v>1</v>
+      </c>
+      <c r="H386" s="3">
+        <v>0</v>
+      </c>
+      <c r="I386" s="3">
+        <v>1</v>
+      </c>
+      <c r="J386" s="3">
+        <v>0</v>
+      </c>
+      <c r="K386" s="3">
+        <v>1</v>
+      </c>
+      <c r="L386" s="3">
+        <v>0</v>
+      </c>
+      <c r="M386" s="3">
+        <v>0</v>
+      </c>
+      <c r="N386" s="3">
+        <v>0</v>
+      </c>
+      <c r="O386" s="3">
+        <v>0</v>
+      </c>
+      <c r="P386" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q386" s="3">
+        <v>0</v>
+      </c>
+      <c r="R386" s="3">
+        <v>0</v>
+      </c>
+      <c r="S386" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T386" s="3">
+        <v>0</v>
+      </c>
+      <c r="U386" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E387" s="3">
+        <v>1</v>
+      </c>
+      <c r="F387" s="3">
+        <v>1</v>
+      </c>
+      <c r="G387" s="3">
+        <v>1</v>
+      </c>
+      <c r="H387" s="3">
+        <v>1</v>
+      </c>
+      <c r="I387" s="3">
+        <v>1</v>
+      </c>
+      <c r="J387" s="3">
+        <v>0</v>
+      </c>
+      <c r="K387" s="3">
+        <v>1</v>
+      </c>
+      <c r="L387" s="3">
+        <v>0</v>
+      </c>
+      <c r="M387" s="3">
+        <v>0</v>
+      </c>
+      <c r="N387" s="3">
+        <v>0</v>
+      </c>
+      <c r="O387" s="3">
+        <v>1</v>
+      </c>
+      <c r="P387" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q387" s="3">
+        <v>0</v>
+      </c>
+      <c r="R387" s="3">
+        <v>0</v>
+      </c>
+      <c r="S387" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T387" s="3">
+        <v>0</v>
+      </c>
+      <c r="U387" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="3">
+        <v>1</v>
+      </c>
+      <c r="F388" s="3">
+        <v>1</v>
+      </c>
+      <c r="G388" s="3">
+        <v>0</v>
+      </c>
+      <c r="H388" s="3">
+        <v>0</v>
+      </c>
+      <c r="I388" s="3">
+        <v>1</v>
+      </c>
+      <c r="J388" s="3">
+        <v>0</v>
+      </c>
+      <c r="K388" s="3">
+        <v>1</v>
+      </c>
+      <c r="L388" s="3">
+        <v>0</v>
+      </c>
+      <c r="M388" s="3">
+        <v>0</v>
+      </c>
+      <c r="N388" s="3">
+        <v>0</v>
+      </c>
+      <c r="O388" s="3">
+        <v>0</v>
+      </c>
+      <c r="P388" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q388" s="3">
+        <v>0</v>
+      </c>
+      <c r="R388" s="3">
+        <v>0</v>
+      </c>
+      <c r="S388" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T388" s="3">
+        <v>0</v>
+      </c>
+      <c r="U388" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E389" s="3">
+        <v>1</v>
+      </c>
+      <c r="F389" s="3">
+        <v>0</v>
+      </c>
+      <c r="G389" s="3">
+        <v>1</v>
+      </c>
+      <c r="H389" s="3">
+        <v>1</v>
+      </c>
+      <c r="I389" s="3">
+        <v>1</v>
+      </c>
+      <c r="J389" s="3">
+        <v>1</v>
+      </c>
+      <c r="K389" s="3">
+        <v>1</v>
+      </c>
+      <c r="L389" s="3">
+        <v>1</v>
+      </c>
+      <c r="M389" s="3">
+        <v>0</v>
+      </c>
+      <c r="N389" s="3">
+        <v>0</v>
+      </c>
+      <c r="O389" s="3">
+        <v>1</v>
+      </c>
+      <c r="P389" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q389" s="3">
+        <v>1</v>
+      </c>
+      <c r="R389" s="3">
+        <v>0</v>
+      </c>
+      <c r="S389" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T389" s="3">
+        <v>1</v>
+      </c>
+      <c r="U389" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E390" s="3">
+        <v>1</v>
+      </c>
+      <c r="F390" s="3">
+        <v>1</v>
+      </c>
+      <c r="G390" s="3">
+        <v>1</v>
+      </c>
+      <c r="H390" s="3">
+        <v>0</v>
+      </c>
+      <c r="I390" s="3">
+        <v>1</v>
+      </c>
+      <c r="J390" s="3">
+        <v>0</v>
+      </c>
+      <c r="K390" s="3">
+        <v>1</v>
+      </c>
+      <c r="L390" s="3">
+        <v>0</v>
+      </c>
+      <c r="M390" s="3">
+        <v>0</v>
+      </c>
+      <c r="N390" s="3">
+        <v>0</v>
+      </c>
+      <c r="O390" s="3">
+        <v>1</v>
+      </c>
+      <c r="P390" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q390" s="3">
+        <v>0</v>
+      </c>
+      <c r="R390" s="3">
+        <v>0</v>
+      </c>
+      <c r="S390" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T390" s="3">
+        <v>0</v>
+      </c>
+      <c r="U390" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E391" s="3">
+        <v>1</v>
+      </c>
+      <c r="F391" s="3">
+        <v>1</v>
+      </c>
+      <c r="G391" s="3">
+        <v>1</v>
+      </c>
+      <c r="H391" s="3">
+        <v>1</v>
+      </c>
+      <c r="I391" s="3">
+        <v>1</v>
+      </c>
+      <c r="J391" s="3">
+        <v>1</v>
+      </c>
+      <c r="K391" s="3">
+        <v>1</v>
+      </c>
+      <c r="L391" s="3">
+        <v>0</v>
+      </c>
+      <c r="M391" s="3">
+        <v>0</v>
+      </c>
+      <c r="N391" s="3">
+        <v>0</v>
+      </c>
+      <c r="O391" s="3">
+        <v>1</v>
+      </c>
+      <c r="P391" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q391" s="3">
+        <v>1</v>
+      </c>
+      <c r="R391" s="3">
+        <v>0</v>
+      </c>
+      <c r="S391" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T391" s="3">
+        <v>0</v>
+      </c>
+      <c r="U391" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E392" s="3">
+        <v>1</v>
+      </c>
+      <c r="F392" s="3">
+        <v>0</v>
+      </c>
+      <c r="G392" s="3">
+        <v>1</v>
+      </c>
+      <c r="H392" s="3">
+        <v>0</v>
+      </c>
+      <c r="I392" s="3">
+        <v>1</v>
+      </c>
+      <c r="J392" s="3">
+        <v>1</v>
+      </c>
+      <c r="K392" s="3">
+        <v>1</v>
+      </c>
+      <c r="L392" s="3">
+        <v>0</v>
+      </c>
+      <c r="M392" s="3">
+        <v>0</v>
+      </c>
+      <c r="N392" s="3">
+        <v>0</v>
+      </c>
+      <c r="O392" s="3">
+        <v>0</v>
+      </c>
+      <c r="P392" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q392" s="3">
+        <v>1</v>
+      </c>
+      <c r="R392" s="3">
+        <v>0</v>
+      </c>
+      <c r="S392" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T392" s="3">
+        <v>0</v>
+      </c>
+      <c r="U392" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E393" s="3">
+        <v>1</v>
+      </c>
+      <c r="F393" s="3">
+        <v>1</v>
+      </c>
+      <c r="G393" s="3">
+        <v>1</v>
+      </c>
+      <c r="H393" s="3">
+        <v>1</v>
+      </c>
+      <c r="I393" s="3">
+        <v>1</v>
+      </c>
+      <c r="J393" s="3">
+        <v>0</v>
+      </c>
+      <c r="K393" s="3">
+        <v>1</v>
+      </c>
+      <c r="L393" s="3">
+        <v>0</v>
+      </c>
+      <c r="M393" s="3">
+        <v>0</v>
+      </c>
+      <c r="N393" s="3">
+        <v>0</v>
+      </c>
+      <c r="O393" s="3">
+        <v>1</v>
+      </c>
+      <c r="P393" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q393" s="3">
+        <v>0</v>
+      </c>
+      <c r="R393" s="3">
+        <v>0</v>
+      </c>
+      <c r="S393" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T393" s="3">
+        <v>0</v>
+      </c>
+      <c r="U393" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E394" s="3">
+        <v>1</v>
+      </c>
+      <c r="F394" s="3">
+        <v>1</v>
+      </c>
+      <c r="G394" s="3">
+        <v>1</v>
+      </c>
+      <c r="H394" s="3">
+        <v>0</v>
+      </c>
+      <c r="I394" s="3">
+        <v>1</v>
+      </c>
+      <c r="J394" s="3">
+        <v>1</v>
+      </c>
+      <c r="K394" s="3">
+        <v>1</v>
+      </c>
+      <c r="L394" s="3">
+        <v>0</v>
+      </c>
+      <c r="M394" s="3">
+        <v>0</v>
+      </c>
+      <c r="N394" s="3">
+        <v>0</v>
+      </c>
+      <c r="O394" s="3">
+        <v>0</v>
+      </c>
+      <c r="P394" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q394" s="3">
+        <v>0</v>
+      </c>
+      <c r="R394" s="3">
+        <v>0</v>
+      </c>
+      <c r="S394" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T394" s="3">
+        <v>0</v>
+      </c>
+      <c r="U394" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E395" s="3">
+        <v>1</v>
+      </c>
+      <c r="F395" s="3">
+        <v>1</v>
+      </c>
+      <c r="G395" s="3">
+        <v>1</v>
+      </c>
+      <c r="H395" s="3">
+        <v>1</v>
+      </c>
+      <c r="I395" s="3">
+        <v>1</v>
+      </c>
+      <c r="J395" s="3">
+        <v>0</v>
+      </c>
+      <c r="K395" s="3">
+        <v>1</v>
+      </c>
+      <c r="L395" s="3">
+        <v>0</v>
+      </c>
+      <c r="M395" s="3">
+        <v>0</v>
+      </c>
+      <c r="N395" s="3">
+        <v>0</v>
+      </c>
+      <c r="O395" s="3">
+        <v>0</v>
+      </c>
+      <c r="P395" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q395" s="3">
+        <v>1</v>
+      </c>
+      <c r="R395" s="3">
+        <v>0</v>
+      </c>
+      <c r="S395" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T395" s="3">
+        <v>0</v>
+      </c>
+      <c r="U395" s="3">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Dailies Final.xlsx
+++ b/Data/Dailies Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F20AF9-164A-4B8C-B911-96AA800980E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAFE921-5AC8-4E87-8F69-5C92E1CBA6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -168,13 +168,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,16 +480,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U395"/>
+  <dimension ref="A1:U444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -25444,6 +25464,3113 @@
         <v>57</v>
       </c>
     </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E396" s="3">
+        <v>1</v>
+      </c>
+      <c r="F396" s="3">
+        <v>1</v>
+      </c>
+      <c r="G396" s="3">
+        <v>1</v>
+      </c>
+      <c r="H396" s="3">
+        <v>0</v>
+      </c>
+      <c r="I396" s="3">
+        <v>1</v>
+      </c>
+      <c r="J396" s="3">
+        <v>1</v>
+      </c>
+      <c r="K396" s="3">
+        <v>1</v>
+      </c>
+      <c r="L396" s="3">
+        <v>0</v>
+      </c>
+      <c r="M396" s="3">
+        <v>0</v>
+      </c>
+      <c r="N396" s="3">
+        <v>0</v>
+      </c>
+      <c r="O396" s="3">
+        <v>0</v>
+      </c>
+      <c r="P396" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q396" s="3">
+        <v>1</v>
+      </c>
+      <c r="R396" s="3">
+        <v>0</v>
+      </c>
+      <c r="S396" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T396" s="3">
+        <v>1</v>
+      </c>
+      <c r="U396" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A397" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E397" s="3">
+        <v>1</v>
+      </c>
+      <c r="F397" s="3">
+        <v>1</v>
+      </c>
+      <c r="G397" s="3">
+        <v>1</v>
+      </c>
+      <c r="H397" s="3">
+        <v>1</v>
+      </c>
+      <c r="I397" s="3">
+        <v>1</v>
+      </c>
+      <c r="J397" s="3">
+        <v>0</v>
+      </c>
+      <c r="K397" s="3">
+        <v>1</v>
+      </c>
+      <c r="L397" s="3">
+        <v>0</v>
+      </c>
+      <c r="M397" s="3">
+        <v>0</v>
+      </c>
+      <c r="N397" s="3">
+        <v>0</v>
+      </c>
+      <c r="O397" s="3">
+        <v>0</v>
+      </c>
+      <c r="P397" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q397" s="3">
+        <v>0</v>
+      </c>
+      <c r="R397" s="3">
+        <v>0</v>
+      </c>
+      <c r="S397" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T397" s="3">
+        <v>0</v>
+      </c>
+      <c r="U397" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E398" s="3">
+        <v>1</v>
+      </c>
+      <c r="F398" s="3">
+        <v>1</v>
+      </c>
+      <c r="G398" s="3">
+        <v>1</v>
+      </c>
+      <c r="H398" s="3">
+        <v>0</v>
+      </c>
+      <c r="I398" s="3">
+        <v>1</v>
+      </c>
+      <c r="J398" s="3">
+        <v>0</v>
+      </c>
+      <c r="K398" s="3">
+        <v>1</v>
+      </c>
+      <c r="L398" s="3">
+        <v>1</v>
+      </c>
+      <c r="M398" s="3">
+        <v>0</v>
+      </c>
+      <c r="N398" s="3">
+        <v>0</v>
+      </c>
+      <c r="O398" s="3">
+        <v>0</v>
+      </c>
+      <c r="P398" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q398" s="3">
+        <v>0</v>
+      </c>
+      <c r="R398" s="3">
+        <v>0</v>
+      </c>
+      <c r="S398" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T398" s="3">
+        <v>0</v>
+      </c>
+      <c r="U398" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A399" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E399" s="3">
+        <v>1</v>
+      </c>
+      <c r="F399" s="3">
+        <v>1</v>
+      </c>
+      <c r="G399" s="3">
+        <v>1</v>
+      </c>
+      <c r="H399" s="3">
+        <v>1</v>
+      </c>
+      <c r="I399" s="3">
+        <v>1</v>
+      </c>
+      <c r="J399" s="3">
+        <v>1</v>
+      </c>
+      <c r="K399" s="3">
+        <v>1</v>
+      </c>
+      <c r="L399" s="3">
+        <v>1</v>
+      </c>
+      <c r="M399" s="3">
+        <v>0</v>
+      </c>
+      <c r="N399" s="3">
+        <v>0</v>
+      </c>
+      <c r="O399" s="3">
+        <v>0</v>
+      </c>
+      <c r="P399" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="3">
+        <v>1</v>
+      </c>
+      <c r="R399" s="3">
+        <v>0</v>
+      </c>
+      <c r="S399" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T399" s="3">
+        <v>0</v>
+      </c>
+      <c r="U399" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A400" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E400" s="3">
+        <v>1</v>
+      </c>
+      <c r="F400" s="3">
+        <v>1</v>
+      </c>
+      <c r="G400" s="3">
+        <v>1</v>
+      </c>
+      <c r="H400" s="3">
+        <v>0</v>
+      </c>
+      <c r="I400" s="3">
+        <v>1</v>
+      </c>
+      <c r="J400" s="3">
+        <v>1</v>
+      </c>
+      <c r="K400" s="3">
+        <v>1</v>
+      </c>
+      <c r="L400" s="3">
+        <v>0</v>
+      </c>
+      <c r="M400" s="3">
+        <v>0</v>
+      </c>
+      <c r="N400" s="3">
+        <v>0</v>
+      </c>
+      <c r="O400" s="3">
+        <v>0</v>
+      </c>
+      <c r="P400" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q400" s="3">
+        <v>0</v>
+      </c>
+      <c r="R400" s="3">
+        <v>0</v>
+      </c>
+      <c r="S400" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T400" s="3">
+        <v>0</v>
+      </c>
+      <c r="U400" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E401" s="3">
+        <v>1</v>
+      </c>
+      <c r="F401" s="3">
+        <v>1</v>
+      </c>
+      <c r="G401" s="3">
+        <v>1</v>
+      </c>
+      <c r="H401" s="3">
+        <v>1</v>
+      </c>
+      <c r="I401" s="3">
+        <v>1</v>
+      </c>
+      <c r="J401" s="3">
+        <v>1</v>
+      </c>
+      <c r="K401" s="3">
+        <v>1</v>
+      </c>
+      <c r="L401" s="3">
+        <v>0</v>
+      </c>
+      <c r="M401" s="3">
+        <v>0</v>
+      </c>
+      <c r="N401" s="3">
+        <v>1</v>
+      </c>
+      <c r="O401" s="3">
+        <v>0</v>
+      </c>
+      <c r="P401" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q401" s="3">
+        <v>0</v>
+      </c>
+      <c r="R401" s="3">
+        <v>0</v>
+      </c>
+      <c r="S401" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T401" s="3">
+        <v>0</v>
+      </c>
+      <c r="U401" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A402" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E402" s="3">
+        <v>1</v>
+      </c>
+      <c r="F402" s="3">
+        <v>1</v>
+      </c>
+      <c r="G402" s="3">
+        <v>1</v>
+      </c>
+      <c r="H402" s="3">
+        <v>0</v>
+      </c>
+      <c r="I402" s="3">
+        <v>1</v>
+      </c>
+      <c r="J402" s="3">
+        <v>0</v>
+      </c>
+      <c r="K402" s="3">
+        <v>1</v>
+      </c>
+      <c r="L402" s="3">
+        <v>1</v>
+      </c>
+      <c r="M402" s="3">
+        <v>0</v>
+      </c>
+      <c r="N402" s="3">
+        <v>1</v>
+      </c>
+      <c r="O402" s="3">
+        <v>0</v>
+      </c>
+      <c r="P402" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q402" s="3">
+        <v>0</v>
+      </c>
+      <c r="R402" s="3">
+        <v>0</v>
+      </c>
+      <c r="S402" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T402" s="3">
+        <v>0</v>
+      </c>
+      <c r="U402" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A403" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E403" s="3">
+        <v>1</v>
+      </c>
+      <c r="F403" s="3">
+        <v>1</v>
+      </c>
+      <c r="G403" s="3">
+        <v>1</v>
+      </c>
+      <c r="H403" s="3">
+        <v>1</v>
+      </c>
+      <c r="I403" s="3">
+        <v>1</v>
+      </c>
+      <c r="J403" s="3">
+        <v>1</v>
+      </c>
+      <c r="K403" s="3">
+        <v>1</v>
+      </c>
+      <c r="L403" s="3">
+        <v>1</v>
+      </c>
+      <c r="M403" s="3">
+        <v>0</v>
+      </c>
+      <c r="N403" s="3">
+        <v>0</v>
+      </c>
+      <c r="O403" s="3">
+        <v>0</v>
+      </c>
+      <c r="P403" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q403" s="3">
+        <v>0</v>
+      </c>
+      <c r="R403" s="3">
+        <v>0</v>
+      </c>
+      <c r="S403" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T403" s="3">
+        <v>1</v>
+      </c>
+      <c r="U403" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E404" s="3">
+        <v>1</v>
+      </c>
+      <c r="F404" s="3">
+        <v>1</v>
+      </c>
+      <c r="G404" s="3">
+        <v>1</v>
+      </c>
+      <c r="H404" s="3">
+        <v>0</v>
+      </c>
+      <c r="I404" s="3">
+        <v>1</v>
+      </c>
+      <c r="J404" s="3">
+        <v>0</v>
+      </c>
+      <c r="K404" s="3">
+        <v>1</v>
+      </c>
+      <c r="L404" s="3">
+        <v>0</v>
+      </c>
+      <c r="M404" s="3">
+        <v>0</v>
+      </c>
+      <c r="N404" s="3">
+        <v>0</v>
+      </c>
+      <c r="O404" s="3">
+        <v>0</v>
+      </c>
+      <c r="P404" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q404" s="3">
+        <v>0</v>
+      </c>
+      <c r="R404" s="3">
+        <v>0</v>
+      </c>
+      <c r="S404" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T404" s="3">
+        <v>0</v>
+      </c>
+      <c r="U404" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E405" s="3">
+        <v>1</v>
+      </c>
+      <c r="F405" s="3">
+        <v>1</v>
+      </c>
+      <c r="G405" s="3">
+        <v>1</v>
+      </c>
+      <c r="H405" s="3">
+        <v>1</v>
+      </c>
+      <c r="I405" s="3">
+        <v>1</v>
+      </c>
+      <c r="J405" s="3">
+        <v>0</v>
+      </c>
+      <c r="K405" s="3">
+        <v>1</v>
+      </c>
+      <c r="L405" s="3">
+        <v>1</v>
+      </c>
+      <c r="M405" s="3">
+        <v>0</v>
+      </c>
+      <c r="N405" s="3">
+        <v>0</v>
+      </c>
+      <c r="O405" s="3">
+        <v>1</v>
+      </c>
+      <c r="P405" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q405" s="3">
+        <v>1</v>
+      </c>
+      <c r="R405" s="3">
+        <v>0</v>
+      </c>
+      <c r="S405" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T405" s="3">
+        <v>0</v>
+      </c>
+      <c r="U405" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E406" s="3">
+        <v>1</v>
+      </c>
+      <c r="F406" s="3">
+        <v>0</v>
+      </c>
+      <c r="G406" s="3">
+        <v>1</v>
+      </c>
+      <c r="H406" s="3">
+        <v>0</v>
+      </c>
+      <c r="I406" s="3">
+        <v>0</v>
+      </c>
+      <c r="J406" s="3">
+        <v>0</v>
+      </c>
+      <c r="K406" s="3">
+        <v>1</v>
+      </c>
+      <c r="L406" s="3">
+        <v>0</v>
+      </c>
+      <c r="M406" s="3">
+        <v>0</v>
+      </c>
+      <c r="N406" s="3">
+        <v>0</v>
+      </c>
+      <c r="O406" s="3">
+        <v>0</v>
+      </c>
+      <c r="P406" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q406" s="3">
+        <v>0</v>
+      </c>
+      <c r="R406" s="3">
+        <v>0</v>
+      </c>
+      <c r="S406" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T406" s="3">
+        <v>0</v>
+      </c>
+      <c r="U406" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E407" s="3">
+        <v>1</v>
+      </c>
+      <c r="F407" s="3">
+        <v>1</v>
+      </c>
+      <c r="G407" s="3">
+        <v>1</v>
+      </c>
+      <c r="H407" s="3">
+        <v>1</v>
+      </c>
+      <c r="I407" s="3">
+        <v>1</v>
+      </c>
+      <c r="J407" s="3">
+        <v>0</v>
+      </c>
+      <c r="K407" s="3">
+        <v>1</v>
+      </c>
+      <c r="L407" s="3">
+        <v>0</v>
+      </c>
+      <c r="M407" s="3">
+        <v>0</v>
+      </c>
+      <c r="N407" s="3">
+        <v>0</v>
+      </c>
+      <c r="O407" s="3">
+        <v>0</v>
+      </c>
+      <c r="P407" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q407" s="3">
+        <v>0</v>
+      </c>
+      <c r="R407" s="3">
+        <v>0</v>
+      </c>
+      <c r="S407" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T407" s="3">
+        <v>0</v>
+      </c>
+      <c r="U407" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E408" s="3">
+        <v>1</v>
+      </c>
+      <c r="F408" s="3">
+        <v>1</v>
+      </c>
+      <c r="G408" s="3">
+        <v>1</v>
+      </c>
+      <c r="H408" s="3">
+        <v>0</v>
+      </c>
+      <c r="I408" s="3">
+        <v>1</v>
+      </c>
+      <c r="J408" s="3">
+        <v>1</v>
+      </c>
+      <c r="K408" s="3">
+        <v>1</v>
+      </c>
+      <c r="L408" s="3">
+        <v>1</v>
+      </c>
+      <c r="M408" s="3">
+        <v>0</v>
+      </c>
+      <c r="N408" s="3">
+        <v>0</v>
+      </c>
+      <c r="O408" s="3">
+        <v>0</v>
+      </c>
+      <c r="P408" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q408" s="3">
+        <v>0</v>
+      </c>
+      <c r="R408" s="3">
+        <v>0</v>
+      </c>
+      <c r="S408" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T408" s="3">
+        <v>0</v>
+      </c>
+      <c r="U408" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E409" s="3">
+        <v>1</v>
+      </c>
+      <c r="F409" s="3">
+        <v>0</v>
+      </c>
+      <c r="G409" s="3">
+        <v>0</v>
+      </c>
+      <c r="H409" s="3">
+        <v>1</v>
+      </c>
+      <c r="I409" s="3">
+        <v>1</v>
+      </c>
+      <c r="J409" s="3">
+        <v>1</v>
+      </c>
+      <c r="K409" s="3">
+        <v>1</v>
+      </c>
+      <c r="L409" s="3">
+        <v>0</v>
+      </c>
+      <c r="M409" s="3">
+        <v>0</v>
+      </c>
+      <c r="N409" s="3">
+        <v>0</v>
+      </c>
+      <c r="O409" s="3">
+        <v>0</v>
+      </c>
+      <c r="P409" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q409" s="3">
+        <v>1</v>
+      </c>
+      <c r="R409" s="3">
+        <v>0</v>
+      </c>
+      <c r="S409" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T409" s="3">
+        <v>0</v>
+      </c>
+      <c r="U409" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E410" s="3">
+        <v>1</v>
+      </c>
+      <c r="F410" s="3">
+        <v>1</v>
+      </c>
+      <c r="G410" s="3">
+        <v>1</v>
+      </c>
+      <c r="H410" s="3">
+        <v>0</v>
+      </c>
+      <c r="I410" s="3">
+        <v>1</v>
+      </c>
+      <c r="J410" s="3">
+        <v>1</v>
+      </c>
+      <c r="K410" s="3">
+        <v>1</v>
+      </c>
+      <c r="L410" s="3">
+        <v>1</v>
+      </c>
+      <c r="M410" s="3">
+        <v>0</v>
+      </c>
+      <c r="N410" s="3">
+        <v>0</v>
+      </c>
+      <c r="O410" s="3">
+        <v>0</v>
+      </c>
+      <c r="P410" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q410" s="3">
+        <v>1</v>
+      </c>
+      <c r="R410" s="3">
+        <v>0</v>
+      </c>
+      <c r="S410" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T410" s="3">
+        <v>1</v>
+      </c>
+      <c r="U410" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E411" s="3">
+        <v>1</v>
+      </c>
+      <c r="F411" s="3">
+        <v>1</v>
+      </c>
+      <c r="G411" s="3">
+        <v>1</v>
+      </c>
+      <c r="H411" s="3">
+        <v>1</v>
+      </c>
+      <c r="I411" s="3">
+        <v>1</v>
+      </c>
+      <c r="J411" s="3">
+        <v>1</v>
+      </c>
+      <c r="K411" s="3">
+        <v>1</v>
+      </c>
+      <c r="L411" s="3">
+        <v>0</v>
+      </c>
+      <c r="M411" s="3">
+        <v>0</v>
+      </c>
+      <c r="N411" s="3">
+        <v>0</v>
+      </c>
+      <c r="O411" s="3">
+        <v>0</v>
+      </c>
+      <c r="P411" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q411" s="3">
+        <v>0</v>
+      </c>
+      <c r="R411" s="3">
+        <v>0</v>
+      </c>
+      <c r="S411" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T411" s="3">
+        <v>0</v>
+      </c>
+      <c r="U411" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A412" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412" s="3">
+        <v>1</v>
+      </c>
+      <c r="F412" s="3">
+        <v>1</v>
+      </c>
+      <c r="G412" s="3">
+        <v>0</v>
+      </c>
+      <c r="H412" s="3">
+        <v>0</v>
+      </c>
+      <c r="I412" s="3">
+        <v>1</v>
+      </c>
+      <c r="J412" s="3">
+        <v>0</v>
+      </c>
+      <c r="K412" s="3">
+        <v>1</v>
+      </c>
+      <c r="L412" s="3">
+        <v>1</v>
+      </c>
+      <c r="M412" s="3">
+        <v>0</v>
+      </c>
+      <c r="N412" s="3">
+        <v>0</v>
+      </c>
+      <c r="O412" s="3">
+        <v>0</v>
+      </c>
+      <c r="P412" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q412" s="3">
+        <v>0</v>
+      </c>
+      <c r="R412" s="3">
+        <v>0</v>
+      </c>
+      <c r="S412" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T412" s="3">
+        <v>0</v>
+      </c>
+      <c r="U412" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E413" s="3">
+        <v>1</v>
+      </c>
+      <c r="F413" s="3">
+        <v>0</v>
+      </c>
+      <c r="G413" s="3">
+        <v>0</v>
+      </c>
+      <c r="H413" s="3">
+        <v>1</v>
+      </c>
+      <c r="I413" s="3">
+        <v>1</v>
+      </c>
+      <c r="J413" s="3">
+        <v>1</v>
+      </c>
+      <c r="K413" s="3">
+        <v>1</v>
+      </c>
+      <c r="L413" s="3">
+        <v>0</v>
+      </c>
+      <c r="M413" s="3">
+        <v>0</v>
+      </c>
+      <c r="N413" s="3">
+        <v>0</v>
+      </c>
+      <c r="O413" s="3">
+        <v>0</v>
+      </c>
+      <c r="P413" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q413" s="3">
+        <v>1</v>
+      </c>
+      <c r="R413" s="3">
+        <v>0</v>
+      </c>
+      <c r="S413" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T413" s="3">
+        <v>0</v>
+      </c>
+      <c r="U413" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E414" s="3">
+        <v>1</v>
+      </c>
+      <c r="F414" s="3">
+        <v>1</v>
+      </c>
+      <c r="G414" s="3">
+        <v>1</v>
+      </c>
+      <c r="H414" s="3">
+        <v>0</v>
+      </c>
+      <c r="I414" s="3">
+        <v>1</v>
+      </c>
+      <c r="J414" s="3">
+        <v>1</v>
+      </c>
+      <c r="K414" s="3">
+        <v>1</v>
+      </c>
+      <c r="L414" s="3">
+        <v>1</v>
+      </c>
+      <c r="M414" s="3">
+        <v>0</v>
+      </c>
+      <c r="N414" s="3">
+        <v>0</v>
+      </c>
+      <c r="O414" s="3">
+        <v>0</v>
+      </c>
+      <c r="P414" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q414" s="3">
+        <v>0</v>
+      </c>
+      <c r="R414" s="3">
+        <v>0</v>
+      </c>
+      <c r="S414" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T414" s="3">
+        <v>0</v>
+      </c>
+      <c r="U414" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A415" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E415" s="3">
+        <v>1</v>
+      </c>
+      <c r="F415" s="3">
+        <v>1</v>
+      </c>
+      <c r="G415" s="3">
+        <v>1</v>
+      </c>
+      <c r="H415" s="3">
+        <v>1</v>
+      </c>
+      <c r="I415" s="3">
+        <v>1</v>
+      </c>
+      <c r="J415" s="3">
+        <v>0</v>
+      </c>
+      <c r="K415" s="3">
+        <v>1</v>
+      </c>
+      <c r="L415" s="3">
+        <v>0</v>
+      </c>
+      <c r="M415" s="3">
+        <v>0</v>
+      </c>
+      <c r="N415" s="3">
+        <v>0</v>
+      </c>
+      <c r="O415" s="3">
+        <v>0</v>
+      </c>
+      <c r="P415" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q415" s="3">
+        <v>0</v>
+      </c>
+      <c r="R415" s="3">
+        <v>0</v>
+      </c>
+      <c r="S415" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T415" s="3">
+        <v>0</v>
+      </c>
+      <c r="U415" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E416" s="3">
+        <v>1</v>
+      </c>
+      <c r="F416" s="3">
+        <v>1</v>
+      </c>
+      <c r="G416" s="3">
+        <v>1</v>
+      </c>
+      <c r="H416" s="3">
+        <v>0</v>
+      </c>
+      <c r="I416" s="3">
+        <v>1</v>
+      </c>
+      <c r="J416" s="3">
+        <v>0</v>
+      </c>
+      <c r="K416" s="3">
+        <v>1</v>
+      </c>
+      <c r="L416" s="3">
+        <v>1</v>
+      </c>
+      <c r="M416" s="3">
+        <v>0</v>
+      </c>
+      <c r="N416" s="3">
+        <v>0</v>
+      </c>
+      <c r="O416" s="3">
+        <v>0</v>
+      </c>
+      <c r="P416" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q416" s="3">
+        <v>0</v>
+      </c>
+      <c r="R416" s="3">
+        <v>0</v>
+      </c>
+      <c r="S416" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T416" s="3">
+        <v>0</v>
+      </c>
+      <c r="U416" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A417" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E417" s="3">
+        <v>1</v>
+      </c>
+      <c r="F417" s="3">
+        <v>0</v>
+      </c>
+      <c r="G417" s="3">
+        <v>1</v>
+      </c>
+      <c r="H417" s="3">
+        <v>1</v>
+      </c>
+      <c r="I417" s="3">
+        <v>1</v>
+      </c>
+      <c r="J417" s="3">
+        <v>1</v>
+      </c>
+      <c r="K417" s="3">
+        <v>1</v>
+      </c>
+      <c r="L417" s="3">
+        <v>0</v>
+      </c>
+      <c r="M417" s="3">
+        <v>0</v>
+      </c>
+      <c r="N417" s="3">
+        <v>0</v>
+      </c>
+      <c r="O417" s="3">
+        <v>0</v>
+      </c>
+      <c r="P417" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q417" s="3">
+        <v>1</v>
+      </c>
+      <c r="R417" s="3">
+        <v>0</v>
+      </c>
+      <c r="S417" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T417" s="3">
+        <v>1</v>
+      </c>
+      <c r="U417" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A418" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E418" s="3">
+        <v>1</v>
+      </c>
+      <c r="F418" s="3">
+        <v>1</v>
+      </c>
+      <c r="G418" s="3">
+        <v>1</v>
+      </c>
+      <c r="H418" s="3">
+        <v>0</v>
+      </c>
+      <c r="I418" s="3">
+        <v>1</v>
+      </c>
+      <c r="J418" s="3">
+        <v>1</v>
+      </c>
+      <c r="K418" s="3">
+        <v>1</v>
+      </c>
+      <c r="L418" s="3">
+        <v>0</v>
+      </c>
+      <c r="M418" s="3">
+        <v>1</v>
+      </c>
+      <c r="N418" s="3">
+        <v>0</v>
+      </c>
+      <c r="O418" s="3">
+        <v>0</v>
+      </c>
+      <c r="P418" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q418" s="3">
+        <v>0</v>
+      </c>
+      <c r="R418" s="3">
+        <v>0</v>
+      </c>
+      <c r="S418" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T418" s="3">
+        <v>0</v>
+      </c>
+      <c r="U418" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" s="3">
+        <v>1</v>
+      </c>
+      <c r="F419" s="3">
+        <v>1</v>
+      </c>
+      <c r="G419" s="3">
+        <v>0</v>
+      </c>
+      <c r="H419" s="3">
+        <v>1</v>
+      </c>
+      <c r="I419" s="3">
+        <v>1</v>
+      </c>
+      <c r="J419" s="3">
+        <v>0</v>
+      </c>
+      <c r="K419" s="3">
+        <v>1</v>
+      </c>
+      <c r="L419" s="3">
+        <v>0</v>
+      </c>
+      <c r="M419" s="3">
+        <v>0</v>
+      </c>
+      <c r="N419" s="3">
+        <v>0</v>
+      </c>
+      <c r="O419" s="3">
+        <v>0</v>
+      </c>
+      <c r="P419" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q419" s="3">
+        <v>0</v>
+      </c>
+      <c r="R419" s="3">
+        <v>0</v>
+      </c>
+      <c r="S419" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T419" s="3">
+        <v>0</v>
+      </c>
+      <c r="U419" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A420" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" s="3">
+        <v>1</v>
+      </c>
+      <c r="F420" s="3">
+        <v>1</v>
+      </c>
+      <c r="G420" s="3">
+        <v>0</v>
+      </c>
+      <c r="H420" s="3">
+        <v>0</v>
+      </c>
+      <c r="I420" s="3">
+        <v>0</v>
+      </c>
+      <c r="J420" s="3">
+        <v>0</v>
+      </c>
+      <c r="K420" s="3">
+        <v>1</v>
+      </c>
+      <c r="L420" s="3">
+        <v>0</v>
+      </c>
+      <c r="M420" s="3">
+        <v>1</v>
+      </c>
+      <c r="N420" s="3">
+        <v>0</v>
+      </c>
+      <c r="O420" s="3">
+        <v>0</v>
+      </c>
+      <c r="P420" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q420" s="3">
+        <v>0</v>
+      </c>
+      <c r="R420" s="3">
+        <v>0</v>
+      </c>
+      <c r="S420" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T420" s="3">
+        <v>0</v>
+      </c>
+      <c r="U420" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E421" s="3">
+        <v>1</v>
+      </c>
+      <c r="F421" s="3">
+        <v>1</v>
+      </c>
+      <c r="G421" s="3">
+        <v>1</v>
+      </c>
+      <c r="H421" s="3">
+        <v>1</v>
+      </c>
+      <c r="I421" s="3">
+        <v>1</v>
+      </c>
+      <c r="J421" s="3">
+        <v>1</v>
+      </c>
+      <c r="K421" s="3">
+        <v>1</v>
+      </c>
+      <c r="L421" s="3">
+        <v>0</v>
+      </c>
+      <c r="M421" s="3">
+        <v>0</v>
+      </c>
+      <c r="N421" s="3">
+        <v>0</v>
+      </c>
+      <c r="O421" s="3">
+        <v>0</v>
+      </c>
+      <c r="P421" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q421" s="3">
+        <v>0</v>
+      </c>
+      <c r="R421" s="3">
+        <v>0</v>
+      </c>
+      <c r="S421" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T421" s="3">
+        <v>0</v>
+      </c>
+      <c r="U421" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E422" s="3">
+        <v>1</v>
+      </c>
+      <c r="F422" s="3">
+        <v>0</v>
+      </c>
+      <c r="G422" s="3">
+        <v>1</v>
+      </c>
+      <c r="H422" s="3">
+        <v>0</v>
+      </c>
+      <c r="I422" s="3">
+        <v>0</v>
+      </c>
+      <c r="J422" s="3">
+        <v>0</v>
+      </c>
+      <c r="K422" s="3">
+        <v>1</v>
+      </c>
+      <c r="L422" s="3">
+        <v>1</v>
+      </c>
+      <c r="M422" s="3">
+        <v>0</v>
+      </c>
+      <c r="N422" s="3">
+        <v>0</v>
+      </c>
+      <c r="O422" s="3">
+        <v>0</v>
+      </c>
+      <c r="P422" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q422" s="3">
+        <v>1</v>
+      </c>
+      <c r="R422" s="3">
+        <v>0</v>
+      </c>
+      <c r="S422" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T422" s="3">
+        <v>0</v>
+      </c>
+      <c r="U422" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E423" s="3">
+        <v>1</v>
+      </c>
+      <c r="F423" s="3">
+        <v>0</v>
+      </c>
+      <c r="G423" s="3">
+        <v>0</v>
+      </c>
+      <c r="H423" s="3">
+        <v>0</v>
+      </c>
+      <c r="I423" s="3">
+        <v>0</v>
+      </c>
+      <c r="J423" s="3">
+        <v>0</v>
+      </c>
+      <c r="K423" s="3">
+        <v>1</v>
+      </c>
+      <c r="L423" s="3">
+        <v>0</v>
+      </c>
+      <c r="M423" s="3">
+        <v>0</v>
+      </c>
+      <c r="N423" s="3">
+        <v>0</v>
+      </c>
+      <c r="O423" s="3">
+        <v>0</v>
+      </c>
+      <c r="P423" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q423" s="3">
+        <v>1</v>
+      </c>
+      <c r="R423" s="3">
+        <v>0</v>
+      </c>
+      <c r="S423" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T423" s="3">
+        <v>0</v>
+      </c>
+      <c r="U423" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E424" s="3">
+        <v>1</v>
+      </c>
+      <c r="F424" s="3">
+        <v>1</v>
+      </c>
+      <c r="G424" s="3">
+        <v>1</v>
+      </c>
+      <c r="H424" s="3">
+        <v>1</v>
+      </c>
+      <c r="I424" s="3">
+        <v>1</v>
+      </c>
+      <c r="J424" s="3">
+        <v>1</v>
+      </c>
+      <c r="K424" s="3">
+        <v>1</v>
+      </c>
+      <c r="L424" s="3">
+        <v>0</v>
+      </c>
+      <c r="M424" s="3">
+        <v>0</v>
+      </c>
+      <c r="N424" s="3">
+        <v>0</v>
+      </c>
+      <c r="O424" s="3">
+        <v>0</v>
+      </c>
+      <c r="P424" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q424" s="3">
+        <v>1</v>
+      </c>
+      <c r="R424" s="3">
+        <v>0</v>
+      </c>
+      <c r="S424" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T424" s="3">
+        <v>1</v>
+      </c>
+      <c r="U424" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E425" s="3">
+        <v>1</v>
+      </c>
+      <c r="F425" s="3">
+        <v>1</v>
+      </c>
+      <c r="G425" s="3">
+        <v>1</v>
+      </c>
+      <c r="H425" s="3">
+        <v>0</v>
+      </c>
+      <c r="I425" s="3">
+        <v>1</v>
+      </c>
+      <c r="J425" s="3">
+        <v>1</v>
+      </c>
+      <c r="K425" s="3">
+        <v>1</v>
+      </c>
+      <c r="L425" s="3">
+        <v>0</v>
+      </c>
+      <c r="M425" s="3">
+        <v>0</v>
+      </c>
+      <c r="N425" s="3">
+        <v>0</v>
+      </c>
+      <c r="O425" s="3">
+        <v>0</v>
+      </c>
+      <c r="P425" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q425" s="3">
+        <v>0</v>
+      </c>
+      <c r="R425" s="3">
+        <v>0</v>
+      </c>
+      <c r="S425" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T425" s="3">
+        <v>0</v>
+      </c>
+      <c r="U425" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E426" s="3">
+        <v>1</v>
+      </c>
+      <c r="F426" s="3">
+        <v>1</v>
+      </c>
+      <c r="G426" s="3">
+        <v>0</v>
+      </c>
+      <c r="H426" s="3">
+        <v>1</v>
+      </c>
+      <c r="I426" s="3">
+        <v>1</v>
+      </c>
+      <c r="J426" s="3">
+        <v>1</v>
+      </c>
+      <c r="K426" s="3">
+        <v>1</v>
+      </c>
+      <c r="L426" s="3">
+        <v>1</v>
+      </c>
+      <c r="M426" s="3">
+        <v>0</v>
+      </c>
+      <c r="N426" s="3">
+        <v>0</v>
+      </c>
+      <c r="O426" s="3">
+        <v>1</v>
+      </c>
+      <c r="P426" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q426" s="3">
+        <v>0</v>
+      </c>
+      <c r="R426" s="3">
+        <v>0</v>
+      </c>
+      <c r="S426" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T426" s="3">
+        <v>0</v>
+      </c>
+      <c r="U426" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E427" s="3">
+        <v>1</v>
+      </c>
+      <c r="F427" s="3">
+        <v>1</v>
+      </c>
+      <c r="G427" s="3">
+        <v>0</v>
+      </c>
+      <c r="H427" s="3">
+        <v>0</v>
+      </c>
+      <c r="I427" s="3">
+        <v>1</v>
+      </c>
+      <c r="J427" s="3">
+        <v>1</v>
+      </c>
+      <c r="K427" s="3">
+        <v>1</v>
+      </c>
+      <c r="L427" s="3">
+        <v>1</v>
+      </c>
+      <c r="M427" s="3">
+        <v>0</v>
+      </c>
+      <c r="N427" s="3">
+        <v>0</v>
+      </c>
+      <c r="O427" s="3">
+        <v>1</v>
+      </c>
+      <c r="P427" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q427" s="3">
+        <v>0</v>
+      </c>
+      <c r="R427" s="3">
+        <v>0</v>
+      </c>
+      <c r="S427" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T427" s="3">
+        <v>0</v>
+      </c>
+      <c r="U427" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A428" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E428" s="3">
+        <v>1</v>
+      </c>
+      <c r="F428" s="3">
+        <v>1</v>
+      </c>
+      <c r="G428" s="3">
+        <v>1</v>
+      </c>
+      <c r="H428" s="3">
+        <v>1</v>
+      </c>
+      <c r="I428" s="3">
+        <v>1</v>
+      </c>
+      <c r="J428" s="3">
+        <v>0</v>
+      </c>
+      <c r="K428" s="3">
+        <v>1</v>
+      </c>
+      <c r="L428" s="3">
+        <v>0</v>
+      </c>
+      <c r="M428" s="3">
+        <v>0</v>
+      </c>
+      <c r="N428" s="3">
+        <v>0</v>
+      </c>
+      <c r="O428" s="3">
+        <v>1</v>
+      </c>
+      <c r="P428" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q428" s="3">
+        <v>0</v>
+      </c>
+      <c r="R428" s="3">
+        <v>0</v>
+      </c>
+      <c r="S428" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T428" s="3">
+        <v>0</v>
+      </c>
+      <c r="U428" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A429" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E429" s="3">
+        <v>1</v>
+      </c>
+      <c r="F429" s="3">
+        <v>1</v>
+      </c>
+      <c r="G429" s="3">
+        <v>0</v>
+      </c>
+      <c r="H429" s="3">
+        <v>0</v>
+      </c>
+      <c r="I429" s="3">
+        <v>1</v>
+      </c>
+      <c r="J429" s="3">
+        <v>1</v>
+      </c>
+      <c r="K429" s="3">
+        <v>1</v>
+      </c>
+      <c r="L429" s="3">
+        <v>1</v>
+      </c>
+      <c r="M429" s="3">
+        <v>0</v>
+      </c>
+      <c r="N429" s="3">
+        <v>0</v>
+      </c>
+      <c r="O429" s="3">
+        <v>1</v>
+      </c>
+      <c r="P429" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q429" s="3">
+        <v>0</v>
+      </c>
+      <c r="R429" s="3">
+        <v>0</v>
+      </c>
+      <c r="S429" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T429" s="3">
+        <v>0</v>
+      </c>
+      <c r="U429" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A430" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E430" s="3">
+        <v>1</v>
+      </c>
+      <c r="F430" s="3">
+        <v>0</v>
+      </c>
+      <c r="G430" s="3">
+        <v>0</v>
+      </c>
+      <c r="H430" s="3">
+        <v>1</v>
+      </c>
+      <c r="I430" s="3">
+        <v>1</v>
+      </c>
+      <c r="J430" s="3">
+        <v>1</v>
+      </c>
+      <c r="K430" s="3">
+        <v>1</v>
+      </c>
+      <c r="L430" s="3">
+        <v>0</v>
+      </c>
+      <c r="M430" s="3">
+        <v>0</v>
+      </c>
+      <c r="N430" s="3">
+        <v>0</v>
+      </c>
+      <c r="O430" s="3">
+        <v>0</v>
+      </c>
+      <c r="P430" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q430" s="3">
+        <v>1</v>
+      </c>
+      <c r="R430" s="3">
+        <v>0</v>
+      </c>
+      <c r="S430" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T430" s="3">
+        <v>0</v>
+      </c>
+      <c r="U430" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E431" s="3">
+        <v>1</v>
+      </c>
+      <c r="F431" s="3">
+        <v>1</v>
+      </c>
+      <c r="G431" s="3">
+        <v>0</v>
+      </c>
+      <c r="H431" s="3">
+        <v>0</v>
+      </c>
+      <c r="I431" s="3">
+        <v>1</v>
+      </c>
+      <c r="J431" s="3">
+        <v>1</v>
+      </c>
+      <c r="K431" s="3">
+        <v>1</v>
+      </c>
+      <c r="L431" s="3">
+        <v>0</v>
+      </c>
+      <c r="M431" s="3">
+        <v>0</v>
+      </c>
+      <c r="N431" s="3">
+        <v>0</v>
+      </c>
+      <c r="O431" s="3">
+        <v>1</v>
+      </c>
+      <c r="P431" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q431" s="3">
+        <v>0</v>
+      </c>
+      <c r="R431" s="3">
+        <v>0</v>
+      </c>
+      <c r="S431" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T431" s="3">
+        <v>1</v>
+      </c>
+      <c r="U431" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A432" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" s="3">
+        <v>1</v>
+      </c>
+      <c r="F432" s="3">
+        <v>1</v>
+      </c>
+      <c r="G432" s="3">
+        <v>0</v>
+      </c>
+      <c r="H432" s="3">
+        <v>1</v>
+      </c>
+      <c r="I432" s="3">
+        <v>1</v>
+      </c>
+      <c r="J432" s="3">
+        <v>1</v>
+      </c>
+      <c r="K432" s="3">
+        <v>0</v>
+      </c>
+      <c r="L432" s="3">
+        <v>0</v>
+      </c>
+      <c r="M432" s="3">
+        <v>0</v>
+      </c>
+      <c r="N432" s="3">
+        <v>0</v>
+      </c>
+      <c r="O432" s="3">
+        <v>0</v>
+      </c>
+      <c r="P432" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q432" s="3">
+        <v>0</v>
+      </c>
+      <c r="R432" s="3">
+        <v>0</v>
+      </c>
+      <c r="S432" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T432" s="3">
+        <v>0</v>
+      </c>
+      <c r="U432" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A433" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E433" s="3">
+        <v>1</v>
+      </c>
+      <c r="F433" s="3">
+        <v>1</v>
+      </c>
+      <c r="G433" s="3">
+        <v>0</v>
+      </c>
+      <c r="H433" s="3">
+        <v>0</v>
+      </c>
+      <c r="I433" s="3">
+        <v>1</v>
+      </c>
+      <c r="J433" s="3">
+        <v>0</v>
+      </c>
+      <c r="K433" s="3">
+        <v>1</v>
+      </c>
+      <c r="L433" s="3">
+        <v>1</v>
+      </c>
+      <c r="M433" s="3">
+        <v>0</v>
+      </c>
+      <c r="N433" s="3">
+        <v>0</v>
+      </c>
+      <c r="O433" s="3">
+        <v>1</v>
+      </c>
+      <c r="P433" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q433" s="3">
+        <v>0</v>
+      </c>
+      <c r="R433" s="3">
+        <v>0</v>
+      </c>
+      <c r="S433" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T433" s="3">
+        <v>0</v>
+      </c>
+      <c r="U433" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A434" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E434" s="3">
+        <v>1</v>
+      </c>
+      <c r="F434" s="3">
+        <v>1</v>
+      </c>
+      <c r="G434" s="3">
+        <v>1</v>
+      </c>
+      <c r="H434" s="3">
+        <v>0</v>
+      </c>
+      <c r="I434" s="3">
+        <v>1</v>
+      </c>
+      <c r="J434" s="3">
+        <v>0</v>
+      </c>
+      <c r="K434" s="3">
+        <v>1</v>
+      </c>
+      <c r="L434" s="3">
+        <v>1</v>
+      </c>
+      <c r="M434" s="3">
+        <v>0</v>
+      </c>
+      <c r="N434" s="3">
+        <v>0</v>
+      </c>
+      <c r="O434" s="3">
+        <v>0</v>
+      </c>
+      <c r="P434" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q434" s="3">
+        <v>1</v>
+      </c>
+      <c r="R434" s="3">
+        <v>0</v>
+      </c>
+      <c r="S434" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T434" s="3">
+        <v>0</v>
+      </c>
+      <c r="U434" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E435" s="3">
+        <v>1</v>
+      </c>
+      <c r="F435" s="3">
+        <v>1</v>
+      </c>
+      <c r="G435" s="3">
+        <v>0</v>
+      </c>
+      <c r="H435" s="3">
+        <v>1</v>
+      </c>
+      <c r="I435" s="3">
+        <v>1</v>
+      </c>
+      <c r="J435" s="3">
+        <v>1</v>
+      </c>
+      <c r="K435" s="3">
+        <v>1</v>
+      </c>
+      <c r="L435" s="3">
+        <v>0</v>
+      </c>
+      <c r="M435" s="3">
+        <v>0</v>
+      </c>
+      <c r="N435" s="3">
+        <v>0</v>
+      </c>
+      <c r="O435" s="3">
+        <v>0</v>
+      </c>
+      <c r="P435" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q435" s="3">
+        <v>0</v>
+      </c>
+      <c r="R435" s="3">
+        <v>0</v>
+      </c>
+      <c r="S435" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T435" s="3">
+        <v>0</v>
+      </c>
+      <c r="U435" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E436" s="3">
+        <v>1</v>
+      </c>
+      <c r="F436" s="3">
+        <v>0</v>
+      </c>
+      <c r="G436" s="3">
+        <v>0</v>
+      </c>
+      <c r="H436" s="3">
+        <v>0</v>
+      </c>
+      <c r="I436" s="3">
+        <v>1</v>
+      </c>
+      <c r="J436" s="3">
+        <v>1</v>
+      </c>
+      <c r="K436" s="3">
+        <v>0</v>
+      </c>
+      <c r="L436" s="3">
+        <v>0</v>
+      </c>
+      <c r="M436" s="3">
+        <v>0</v>
+      </c>
+      <c r="N436" s="3">
+        <v>0</v>
+      </c>
+      <c r="O436" s="3">
+        <v>0</v>
+      </c>
+      <c r="P436" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q436" s="3">
+        <v>0</v>
+      </c>
+      <c r="R436" s="3">
+        <v>0</v>
+      </c>
+      <c r="S436" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T436" s="3">
+        <v>0</v>
+      </c>
+      <c r="U436" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A437" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E437" s="3">
+        <v>1</v>
+      </c>
+      <c r="F437" s="3">
+        <v>1</v>
+      </c>
+      <c r="G437" s="3">
+        <v>0</v>
+      </c>
+      <c r="H437" s="3">
+        <v>1</v>
+      </c>
+      <c r="I437" s="3">
+        <v>0</v>
+      </c>
+      <c r="J437" s="3">
+        <v>0</v>
+      </c>
+      <c r="K437" s="3">
+        <v>1</v>
+      </c>
+      <c r="L437" s="3">
+        <v>0</v>
+      </c>
+      <c r="M437" s="3">
+        <v>0</v>
+      </c>
+      <c r="N437" s="3">
+        <v>0</v>
+      </c>
+      <c r="O437" s="3">
+        <v>0</v>
+      </c>
+      <c r="P437" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q437" s="3">
+        <v>1</v>
+      </c>
+      <c r="R437" s="3">
+        <v>0</v>
+      </c>
+      <c r="S437" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T437" s="3">
+        <v>0</v>
+      </c>
+      <c r="U437" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A438" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E438" s="3">
+        <v>1</v>
+      </c>
+      <c r="F438" s="3">
+        <v>1</v>
+      </c>
+      <c r="G438" s="3">
+        <v>1</v>
+      </c>
+      <c r="H438" s="3">
+        <v>0</v>
+      </c>
+      <c r="I438" s="3">
+        <v>1</v>
+      </c>
+      <c r="J438" s="3">
+        <v>1</v>
+      </c>
+      <c r="K438" s="3">
+        <v>1</v>
+      </c>
+      <c r="L438" s="3">
+        <v>1</v>
+      </c>
+      <c r="M438" s="3">
+        <v>0</v>
+      </c>
+      <c r="N438" s="3">
+        <v>0</v>
+      </c>
+      <c r="O438" s="3">
+        <v>0</v>
+      </c>
+      <c r="P438" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q438" s="3">
+        <v>1</v>
+      </c>
+      <c r="R438" s="3">
+        <v>0</v>
+      </c>
+      <c r="S438" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T438" s="3">
+        <v>1</v>
+      </c>
+      <c r="U438" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A439" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E439" s="3">
+        <v>1</v>
+      </c>
+      <c r="F439" s="3">
+        <v>1</v>
+      </c>
+      <c r="G439" s="3">
+        <v>1</v>
+      </c>
+      <c r="H439" s="3">
+        <v>1</v>
+      </c>
+      <c r="I439" s="3">
+        <v>1</v>
+      </c>
+      <c r="J439" s="3">
+        <v>1</v>
+      </c>
+      <c r="K439" s="3">
+        <v>1</v>
+      </c>
+      <c r="L439" s="3">
+        <v>0</v>
+      </c>
+      <c r="M439" s="3">
+        <v>0</v>
+      </c>
+      <c r="N439" s="3">
+        <v>0</v>
+      </c>
+      <c r="O439" s="3">
+        <v>0</v>
+      </c>
+      <c r="P439" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q439" s="3">
+        <v>0</v>
+      </c>
+      <c r="R439" s="3">
+        <v>0</v>
+      </c>
+      <c r="S439" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T439" s="3">
+        <v>0</v>
+      </c>
+      <c r="U439" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A440" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E440" s="3">
+        <v>1</v>
+      </c>
+      <c r="F440" s="3">
+        <v>1</v>
+      </c>
+      <c r="G440" s="3">
+        <v>0</v>
+      </c>
+      <c r="H440" s="3">
+        <v>0</v>
+      </c>
+      <c r="I440" s="3">
+        <v>1</v>
+      </c>
+      <c r="J440" s="3">
+        <v>0</v>
+      </c>
+      <c r="K440" s="3">
+        <v>1</v>
+      </c>
+      <c r="L440" s="3">
+        <v>1</v>
+      </c>
+      <c r="M440" s="3">
+        <v>0</v>
+      </c>
+      <c r="N440" s="3">
+        <v>0</v>
+      </c>
+      <c r="O440" s="3">
+        <v>0</v>
+      </c>
+      <c r="P440" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q440" s="3">
+        <v>1</v>
+      </c>
+      <c r="R440" s="3">
+        <v>0</v>
+      </c>
+      <c r="S440" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T440" s="3">
+        <v>0</v>
+      </c>
+      <c r="U440" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E441" s="3">
+        <v>1</v>
+      </c>
+      <c r="F441" s="3">
+        <v>1</v>
+      </c>
+      <c r="G441" s="3">
+        <v>1</v>
+      </c>
+      <c r="H441" s="3">
+        <v>1</v>
+      </c>
+      <c r="I441" s="3">
+        <v>0</v>
+      </c>
+      <c r="J441" s="3">
+        <v>0</v>
+      </c>
+      <c r="K441" s="3">
+        <v>1</v>
+      </c>
+      <c r="L441" s="3">
+        <v>1</v>
+      </c>
+      <c r="M441" s="3">
+        <v>0</v>
+      </c>
+      <c r="N441" s="3">
+        <v>0</v>
+      </c>
+      <c r="O441" s="3">
+        <v>1</v>
+      </c>
+      <c r="P441" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q441" s="3">
+        <v>1</v>
+      </c>
+      <c r="R441" s="3">
+        <v>0</v>
+      </c>
+      <c r="S441" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T441" s="3">
+        <v>0</v>
+      </c>
+      <c r="U441" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A442" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E442" s="3">
+        <v>1</v>
+      </c>
+      <c r="F442" s="3">
+        <v>1</v>
+      </c>
+      <c r="G442" s="3">
+        <v>0</v>
+      </c>
+      <c r="H442" s="3">
+        <v>0</v>
+      </c>
+      <c r="I442" s="3">
+        <v>1</v>
+      </c>
+      <c r="J442" s="3">
+        <v>1</v>
+      </c>
+      <c r="K442" s="3">
+        <v>1</v>
+      </c>
+      <c r="L442" s="3">
+        <v>1</v>
+      </c>
+      <c r="M442" s="3">
+        <v>0</v>
+      </c>
+      <c r="N442" s="3">
+        <v>0</v>
+      </c>
+      <c r="O442" s="3">
+        <v>0</v>
+      </c>
+      <c r="P442" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q442" s="3">
+        <v>1</v>
+      </c>
+      <c r="R442" s="3">
+        <v>0</v>
+      </c>
+      <c r="S442" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T442" s="3">
+        <v>0</v>
+      </c>
+      <c r="U442" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E443" s="3">
+        <v>1</v>
+      </c>
+      <c r="F443" s="3">
+        <v>1</v>
+      </c>
+      <c r="G443" s="3">
+        <v>1</v>
+      </c>
+      <c r="H443" s="3">
+        <v>1</v>
+      </c>
+      <c r="I443" s="3">
+        <v>1</v>
+      </c>
+      <c r="J443" s="3">
+        <v>1</v>
+      </c>
+      <c r="K443" s="3">
+        <v>1</v>
+      </c>
+      <c r="L443" s="3">
+        <v>0</v>
+      </c>
+      <c r="M443" s="3">
+        <v>0</v>
+      </c>
+      <c r="N443" s="3">
+        <v>0</v>
+      </c>
+      <c r="O443" s="3">
+        <v>0</v>
+      </c>
+      <c r="P443" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q443" s="3">
+        <v>0</v>
+      </c>
+      <c r="R443" s="3">
+        <v>0</v>
+      </c>
+      <c r="S443" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T443" s="3">
+        <v>0</v>
+      </c>
+      <c r="U443" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A444" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E444" s="3">
+        <v>1</v>
+      </c>
+      <c r="F444" s="3">
+        <v>1</v>
+      </c>
+      <c r="G444" s="3">
+        <v>1</v>
+      </c>
+      <c r="H444" s="3">
+        <v>0</v>
+      </c>
+      <c r="I444" s="3">
+        <v>1</v>
+      </c>
+      <c r="J444" s="3">
+        <v>1</v>
+      </c>
+      <c r="K444" s="3">
+        <v>1</v>
+      </c>
+      <c r="L444" s="3">
+        <v>0</v>
+      </c>
+      <c r="M444" s="3">
+        <v>0</v>
+      </c>
+      <c r="N444" s="3">
+        <v>0</v>
+      </c>
+      <c r="O444" s="3">
+        <v>0</v>
+      </c>
+      <c r="P444" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q444" s="3">
+        <v>0</v>
+      </c>
+      <c r="R444" s="3">
+        <v>0</v>
+      </c>
+      <c r="S444" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T444" s="3">
+        <v>0</v>
+      </c>
+      <c r="U444" s="3">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Dailies Final.xlsx
+++ b/Data/Dailies Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAFE921-5AC8-4E87-8F69-5C92E1CBA6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155383D-73CA-4962-9C2A-CA4F76AD6083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -168,13 +168,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,35 +480,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U444"/>
+  <dimension ref="A1:U479"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -28571,6 +28571,2218 @@
         <v>64</v>
       </c>
     </row>
+    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A445" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E445" s="3">
+        <v>1</v>
+      </c>
+      <c r="F445" s="3">
+        <v>1</v>
+      </c>
+      <c r="G445" s="3">
+        <v>1</v>
+      </c>
+      <c r="H445" s="3">
+        <v>1</v>
+      </c>
+      <c r="I445" s="3">
+        <v>0</v>
+      </c>
+      <c r="J445" s="3">
+        <v>1</v>
+      </c>
+      <c r="K445" s="3">
+        <v>1</v>
+      </c>
+      <c r="L445" s="3">
+        <v>1</v>
+      </c>
+      <c r="M445" s="3">
+        <v>0</v>
+      </c>
+      <c r="N445" s="3">
+        <v>0</v>
+      </c>
+      <c r="O445" s="3">
+        <v>0</v>
+      </c>
+      <c r="P445" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q445" s="3">
+        <v>0</v>
+      </c>
+      <c r="R445" s="3">
+        <v>0</v>
+      </c>
+      <c r="S445" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T445" s="3">
+        <v>1</v>
+      </c>
+      <c r="U445" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E446" s="3">
+        <v>1</v>
+      </c>
+      <c r="F446" s="3">
+        <v>1</v>
+      </c>
+      <c r="G446" s="3">
+        <v>1</v>
+      </c>
+      <c r="H446" s="3">
+        <v>0</v>
+      </c>
+      <c r="I446" s="3">
+        <v>1</v>
+      </c>
+      <c r="J446" s="3">
+        <v>1</v>
+      </c>
+      <c r="K446" s="3">
+        <v>1</v>
+      </c>
+      <c r="L446" s="3">
+        <v>0</v>
+      </c>
+      <c r="M446" s="3">
+        <v>0</v>
+      </c>
+      <c r="N446" s="3">
+        <v>0</v>
+      </c>
+      <c r="O446" s="3">
+        <v>0</v>
+      </c>
+      <c r="P446" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q446" s="3">
+        <v>0</v>
+      </c>
+      <c r="R446" s="3">
+        <v>0</v>
+      </c>
+      <c r="S446" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T446" s="3">
+        <v>0</v>
+      </c>
+      <c r="U446" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="447" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A447" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E447" s="3">
+        <v>1</v>
+      </c>
+      <c r="F447" s="3">
+        <v>1</v>
+      </c>
+      <c r="G447" s="3">
+        <v>1</v>
+      </c>
+      <c r="H447" s="3">
+        <v>1</v>
+      </c>
+      <c r="I447" s="3">
+        <v>1</v>
+      </c>
+      <c r="J447" s="3">
+        <v>0</v>
+      </c>
+      <c r="K447" s="3">
+        <v>1</v>
+      </c>
+      <c r="L447" s="3">
+        <v>1</v>
+      </c>
+      <c r="M447" s="3">
+        <v>0</v>
+      </c>
+      <c r="N447" s="3">
+        <v>0</v>
+      </c>
+      <c r="O447" s="3">
+        <v>0</v>
+      </c>
+      <c r="P447" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q447" s="3">
+        <v>0</v>
+      </c>
+      <c r="R447" s="3">
+        <v>0</v>
+      </c>
+      <c r="S447" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T447" s="3">
+        <v>0</v>
+      </c>
+      <c r="U447" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="448" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A448" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E448" s="3">
+        <v>1</v>
+      </c>
+      <c r="F448" s="3">
+        <v>0</v>
+      </c>
+      <c r="G448" s="3">
+        <v>0</v>
+      </c>
+      <c r="H448" s="3">
+        <v>0</v>
+      </c>
+      <c r="I448" s="3">
+        <v>1</v>
+      </c>
+      <c r="J448" s="3">
+        <v>0</v>
+      </c>
+      <c r="K448" s="3">
+        <v>1</v>
+      </c>
+      <c r="L448" s="3">
+        <v>0</v>
+      </c>
+      <c r="M448" s="3">
+        <v>0</v>
+      </c>
+      <c r="N448" s="3">
+        <v>0</v>
+      </c>
+      <c r="O448" s="3">
+        <v>0</v>
+      </c>
+      <c r="P448" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q448" s="3">
+        <v>0</v>
+      </c>
+      <c r="R448" s="3">
+        <v>0</v>
+      </c>
+      <c r="S448" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T448" s="3">
+        <v>0</v>
+      </c>
+      <c r="U448" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A449" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E449" s="3">
+        <v>1</v>
+      </c>
+      <c r="F449" s="3">
+        <v>1</v>
+      </c>
+      <c r="G449" s="3">
+        <v>0</v>
+      </c>
+      <c r="H449" s="3">
+        <v>1</v>
+      </c>
+      <c r="I449" s="3">
+        <v>1</v>
+      </c>
+      <c r="J449" s="3">
+        <v>1</v>
+      </c>
+      <c r="K449" s="3">
+        <v>1</v>
+      </c>
+      <c r="L449" s="3">
+        <v>0</v>
+      </c>
+      <c r="M449" s="3">
+        <v>0</v>
+      </c>
+      <c r="N449" s="3">
+        <v>0</v>
+      </c>
+      <c r="O449" s="3">
+        <v>0</v>
+      </c>
+      <c r="P449" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q449" s="3">
+        <v>0</v>
+      </c>
+      <c r="R449" s="3">
+        <v>0</v>
+      </c>
+      <c r="S449" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T449" s="3">
+        <v>0</v>
+      </c>
+      <c r="U449" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A450" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E450" s="3">
+        <v>1</v>
+      </c>
+      <c r="F450" s="3">
+        <v>1</v>
+      </c>
+      <c r="G450" s="3">
+        <v>1</v>
+      </c>
+      <c r="H450" s="3">
+        <v>0</v>
+      </c>
+      <c r="I450" s="3">
+        <v>0</v>
+      </c>
+      <c r="J450" s="3">
+        <v>0</v>
+      </c>
+      <c r="K450" s="3">
+        <v>1</v>
+      </c>
+      <c r="L450" s="3">
+        <v>1</v>
+      </c>
+      <c r="M450" s="3">
+        <v>0</v>
+      </c>
+      <c r="N450" s="3">
+        <v>0</v>
+      </c>
+      <c r="O450" s="3">
+        <v>1</v>
+      </c>
+      <c r="P450" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q450" s="3">
+        <v>1</v>
+      </c>
+      <c r="R450" s="3">
+        <v>0</v>
+      </c>
+      <c r="S450" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T450" s="3">
+        <v>0</v>
+      </c>
+      <c r="U450" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E451" s="3">
+        <v>1</v>
+      </c>
+      <c r="F451" s="3">
+        <v>1</v>
+      </c>
+      <c r="G451" s="3">
+        <v>1</v>
+      </c>
+      <c r="H451" s="3">
+        <v>1</v>
+      </c>
+      <c r="I451" s="3">
+        <v>1</v>
+      </c>
+      <c r="J451" s="3">
+        <v>1</v>
+      </c>
+      <c r="K451" s="3">
+        <v>1</v>
+      </c>
+      <c r="L451" s="3">
+        <v>0</v>
+      </c>
+      <c r="M451" s="3">
+        <v>0</v>
+      </c>
+      <c r="N451" s="3">
+        <v>1</v>
+      </c>
+      <c r="O451" s="3">
+        <v>0</v>
+      </c>
+      <c r="P451" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q451" s="3">
+        <v>1</v>
+      </c>
+      <c r="R451" s="3">
+        <v>0</v>
+      </c>
+      <c r="S451" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T451" s="3">
+        <v>0</v>
+      </c>
+      <c r="U451" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A452" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E452" s="3">
+        <v>1</v>
+      </c>
+      <c r="F452" s="3">
+        <v>1</v>
+      </c>
+      <c r="G452" s="3">
+        <v>0</v>
+      </c>
+      <c r="H452" s="3">
+        <v>0</v>
+      </c>
+      <c r="I452" s="3">
+        <v>1</v>
+      </c>
+      <c r="J452" s="3">
+        <v>1</v>
+      </c>
+      <c r="K452" s="3">
+        <v>1</v>
+      </c>
+      <c r="L452" s="3">
+        <v>1</v>
+      </c>
+      <c r="M452" s="3">
+        <v>0</v>
+      </c>
+      <c r="N452" s="3">
+        <v>0</v>
+      </c>
+      <c r="O452" s="3">
+        <v>0</v>
+      </c>
+      <c r="P452" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q452" s="3">
+        <v>1</v>
+      </c>
+      <c r="R452" s="3">
+        <v>0</v>
+      </c>
+      <c r="S452" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T452" s="3">
+        <v>1</v>
+      </c>
+      <c r="U452" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A453" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E453" s="3">
+        <v>1</v>
+      </c>
+      <c r="F453" s="3">
+        <v>1</v>
+      </c>
+      <c r="G453" s="3">
+        <v>0</v>
+      </c>
+      <c r="H453" s="3">
+        <v>1</v>
+      </c>
+      <c r="I453" s="3">
+        <v>0</v>
+      </c>
+      <c r="J453" s="3">
+        <v>1</v>
+      </c>
+      <c r="K453" s="3">
+        <v>1</v>
+      </c>
+      <c r="L453" s="3">
+        <v>0</v>
+      </c>
+      <c r="M453" s="3">
+        <v>0</v>
+      </c>
+      <c r="N453" s="3">
+        <v>1</v>
+      </c>
+      <c r="O453" s="3">
+        <v>1</v>
+      </c>
+      <c r="P453" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q453" s="3">
+        <v>0</v>
+      </c>
+      <c r="R453" s="3">
+        <v>0</v>
+      </c>
+      <c r="S453" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T453" s="3">
+        <v>0</v>
+      </c>
+      <c r="U453" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A454" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E454" s="3">
+        <v>1</v>
+      </c>
+      <c r="F454" s="3">
+        <v>1</v>
+      </c>
+      <c r="G454" s="3">
+        <v>0</v>
+      </c>
+      <c r="H454" s="3">
+        <v>0</v>
+      </c>
+      <c r="I454" s="3">
+        <v>1</v>
+      </c>
+      <c r="J454" s="3">
+        <v>1</v>
+      </c>
+      <c r="K454" s="3">
+        <v>1</v>
+      </c>
+      <c r="L454" s="3">
+        <v>1</v>
+      </c>
+      <c r="M454" s="3">
+        <v>0</v>
+      </c>
+      <c r="N454" s="3">
+        <v>0</v>
+      </c>
+      <c r="O454" s="3">
+        <v>1</v>
+      </c>
+      <c r="P454" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q454" s="3">
+        <v>0</v>
+      </c>
+      <c r="R454" s="3">
+        <v>0</v>
+      </c>
+      <c r="S454" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T454" s="3">
+        <v>0</v>
+      </c>
+      <c r="U454" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A455" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E455" s="3">
+        <v>1</v>
+      </c>
+      <c r="F455" s="3">
+        <v>0</v>
+      </c>
+      <c r="G455" s="3">
+        <v>0</v>
+      </c>
+      <c r="H455" s="3">
+        <v>1</v>
+      </c>
+      <c r="I455" s="3">
+        <v>1</v>
+      </c>
+      <c r="J455" s="3">
+        <v>1</v>
+      </c>
+      <c r="K455" s="3">
+        <v>1</v>
+      </c>
+      <c r="L455" s="3">
+        <v>0</v>
+      </c>
+      <c r="M455" s="3">
+        <v>0</v>
+      </c>
+      <c r="N455" s="3">
+        <v>1</v>
+      </c>
+      <c r="O455" s="3">
+        <v>0</v>
+      </c>
+      <c r="P455" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q455" s="3">
+        <v>0</v>
+      </c>
+      <c r="R455" s="3">
+        <v>0</v>
+      </c>
+      <c r="S455" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T455" s="3">
+        <v>0</v>
+      </c>
+      <c r="U455" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E456" s="3">
+        <v>1</v>
+      </c>
+      <c r="F456" s="3">
+        <v>1</v>
+      </c>
+      <c r="G456" s="3">
+        <v>0</v>
+      </c>
+      <c r="H456" s="3">
+        <v>0</v>
+      </c>
+      <c r="I456" s="3">
+        <v>1</v>
+      </c>
+      <c r="J456" s="3">
+        <v>0</v>
+      </c>
+      <c r="K456" s="3">
+        <v>1</v>
+      </c>
+      <c r="L456" s="3">
+        <v>0</v>
+      </c>
+      <c r="M456" s="3">
+        <v>0</v>
+      </c>
+      <c r="N456" s="3">
+        <v>0</v>
+      </c>
+      <c r="O456" s="3">
+        <v>0</v>
+      </c>
+      <c r="P456" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q456" s="3">
+        <v>0</v>
+      </c>
+      <c r="R456" s="3">
+        <v>0</v>
+      </c>
+      <c r="S456" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T456" s="3">
+        <v>0</v>
+      </c>
+      <c r="U456" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E457" s="3">
+        <v>1</v>
+      </c>
+      <c r="F457" s="3">
+        <v>0</v>
+      </c>
+      <c r="G457" s="3">
+        <v>0</v>
+      </c>
+      <c r="H457" s="3">
+        <v>1</v>
+      </c>
+      <c r="I457" s="3">
+        <v>1</v>
+      </c>
+      <c r="J457" s="3">
+        <v>0</v>
+      </c>
+      <c r="K457" s="3">
+        <v>1</v>
+      </c>
+      <c r="L457" s="3">
+        <v>0</v>
+      </c>
+      <c r="M457" s="3">
+        <v>0</v>
+      </c>
+      <c r="N457" s="3">
+        <v>1</v>
+      </c>
+      <c r="O457" s="3">
+        <v>0</v>
+      </c>
+      <c r="P457" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q457" s="3">
+        <v>0</v>
+      </c>
+      <c r="R457" s="3">
+        <v>0</v>
+      </c>
+      <c r="S457" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T457" s="3">
+        <v>0</v>
+      </c>
+      <c r="U457" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E458" s="3">
+        <v>1</v>
+      </c>
+      <c r="F458" s="3">
+        <v>1</v>
+      </c>
+      <c r="G458" s="3">
+        <v>0</v>
+      </c>
+      <c r="H458" s="3">
+        <v>0</v>
+      </c>
+      <c r="I458" s="3">
+        <v>1</v>
+      </c>
+      <c r="J458" s="3">
+        <v>1</v>
+      </c>
+      <c r="K458" s="3">
+        <v>1</v>
+      </c>
+      <c r="L458" s="3">
+        <v>1</v>
+      </c>
+      <c r="M458" s="3">
+        <v>0</v>
+      </c>
+      <c r="N458" s="3">
+        <v>0</v>
+      </c>
+      <c r="O458" s="3">
+        <v>0</v>
+      </c>
+      <c r="P458" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q458" s="3">
+        <v>0</v>
+      </c>
+      <c r="R458" s="3">
+        <v>0</v>
+      </c>
+      <c r="S458" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T458" s="3">
+        <v>0</v>
+      </c>
+      <c r="U458" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E459" s="3">
+        <v>1</v>
+      </c>
+      <c r="F459" s="3">
+        <v>1</v>
+      </c>
+      <c r="G459" s="3">
+        <v>0</v>
+      </c>
+      <c r="H459" s="3">
+        <v>1</v>
+      </c>
+      <c r="I459" s="3">
+        <v>1</v>
+      </c>
+      <c r="J459" s="3">
+        <v>0</v>
+      </c>
+      <c r="K459" s="3">
+        <v>1</v>
+      </c>
+      <c r="L459" s="3">
+        <v>1</v>
+      </c>
+      <c r="M459" s="3">
+        <v>0</v>
+      </c>
+      <c r="N459" s="3">
+        <v>0</v>
+      </c>
+      <c r="O459" s="3">
+        <v>0</v>
+      </c>
+      <c r="P459" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q459" s="3">
+        <v>0</v>
+      </c>
+      <c r="R459" s="3">
+        <v>0</v>
+      </c>
+      <c r="S459" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T459" s="3">
+        <v>1</v>
+      </c>
+      <c r="U459" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E460" s="3">
+        <v>1</v>
+      </c>
+      <c r="F460" s="3">
+        <v>1</v>
+      </c>
+      <c r="G460" s="3">
+        <v>0</v>
+      </c>
+      <c r="H460" s="3">
+        <v>0</v>
+      </c>
+      <c r="I460" s="3">
+        <v>1</v>
+      </c>
+      <c r="J460" s="3">
+        <v>1</v>
+      </c>
+      <c r="K460" s="3">
+        <v>1</v>
+      </c>
+      <c r="L460" s="3">
+        <v>0</v>
+      </c>
+      <c r="M460" s="3">
+        <v>0</v>
+      </c>
+      <c r="N460" s="3">
+        <v>0</v>
+      </c>
+      <c r="O460" s="3">
+        <v>1</v>
+      </c>
+      <c r="P460" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q460" s="3">
+        <v>0</v>
+      </c>
+      <c r="R460" s="3">
+        <v>0</v>
+      </c>
+      <c r="S460" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T460" s="3">
+        <v>0</v>
+      </c>
+      <c r="U460" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E461" s="3">
+        <v>1</v>
+      </c>
+      <c r="F461" s="3">
+        <v>1</v>
+      </c>
+      <c r="G461" s="3">
+        <v>1</v>
+      </c>
+      <c r="H461" s="3">
+        <v>1</v>
+      </c>
+      <c r="I461" s="3">
+        <v>1</v>
+      </c>
+      <c r="J461" s="3">
+        <v>1</v>
+      </c>
+      <c r="K461" s="3">
+        <v>1</v>
+      </c>
+      <c r="L461" s="3">
+        <v>1</v>
+      </c>
+      <c r="M461" s="3">
+        <v>0</v>
+      </c>
+      <c r="N461" s="3">
+        <v>0</v>
+      </c>
+      <c r="O461" s="3">
+        <v>1</v>
+      </c>
+      <c r="P461" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q461" s="3">
+        <v>0</v>
+      </c>
+      <c r="R461" s="3">
+        <v>0</v>
+      </c>
+      <c r="S461" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T461" s="3">
+        <v>0</v>
+      </c>
+      <c r="U461" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E462" s="3">
+        <v>1</v>
+      </c>
+      <c r="F462" s="3">
+        <v>0</v>
+      </c>
+      <c r="G462" s="3">
+        <v>0</v>
+      </c>
+      <c r="H462" s="3">
+        <v>0</v>
+      </c>
+      <c r="I462" s="3">
+        <v>0</v>
+      </c>
+      <c r="J462" s="3">
+        <v>0</v>
+      </c>
+      <c r="K462" s="3">
+        <v>1</v>
+      </c>
+      <c r="L462" s="3">
+        <v>0</v>
+      </c>
+      <c r="M462" s="3">
+        <v>0</v>
+      </c>
+      <c r="N462" s="3">
+        <v>0</v>
+      </c>
+      <c r="O462" s="3">
+        <v>0</v>
+      </c>
+      <c r="P462" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q462" s="3">
+        <v>1</v>
+      </c>
+      <c r="R462" s="3">
+        <v>0</v>
+      </c>
+      <c r="S462" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T462" s="3">
+        <v>0</v>
+      </c>
+      <c r="U462" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A463" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E463" s="3">
+        <v>1</v>
+      </c>
+      <c r="F463" s="3">
+        <v>1</v>
+      </c>
+      <c r="G463" s="3">
+        <v>0</v>
+      </c>
+      <c r="H463" s="3">
+        <v>1</v>
+      </c>
+      <c r="I463" s="3">
+        <v>1</v>
+      </c>
+      <c r="J463" s="3">
+        <v>1</v>
+      </c>
+      <c r="K463" s="3">
+        <v>1</v>
+      </c>
+      <c r="L463" s="3">
+        <v>0</v>
+      </c>
+      <c r="M463" s="3">
+        <v>0</v>
+      </c>
+      <c r="N463" s="3">
+        <v>0</v>
+      </c>
+      <c r="O463" s="3">
+        <v>0</v>
+      </c>
+      <c r="P463" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q463" s="3">
+        <v>0</v>
+      </c>
+      <c r="R463" s="3">
+        <v>0</v>
+      </c>
+      <c r="S463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T463" s="3">
+        <v>0</v>
+      </c>
+      <c r="U463" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A464" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E464" s="3">
+        <v>1</v>
+      </c>
+      <c r="F464" s="3">
+        <v>1</v>
+      </c>
+      <c r="G464" s="3">
+        <v>1</v>
+      </c>
+      <c r="H464" s="3">
+        <v>0</v>
+      </c>
+      <c r="I464" s="3">
+        <v>1</v>
+      </c>
+      <c r="J464" s="3">
+        <v>0</v>
+      </c>
+      <c r="K464" s="3">
+        <v>1</v>
+      </c>
+      <c r="L464" s="3">
+        <v>1</v>
+      </c>
+      <c r="M464" s="3">
+        <v>0</v>
+      </c>
+      <c r="N464" s="3">
+        <v>0</v>
+      </c>
+      <c r="O464" s="3">
+        <v>0</v>
+      </c>
+      <c r="P464" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q464" s="3">
+        <v>0</v>
+      </c>
+      <c r="R464" s="3">
+        <v>0</v>
+      </c>
+      <c r="S464" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T464" s="3">
+        <v>0</v>
+      </c>
+      <c r="U464" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A465" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E465" s="3">
+        <v>1</v>
+      </c>
+      <c r="F465" s="3">
+        <v>1</v>
+      </c>
+      <c r="G465" s="3">
+        <v>1</v>
+      </c>
+      <c r="H465" s="3">
+        <v>1</v>
+      </c>
+      <c r="I465" s="3">
+        <v>1</v>
+      </c>
+      <c r="J465" s="3">
+        <v>1</v>
+      </c>
+      <c r="K465" s="3">
+        <v>1</v>
+      </c>
+      <c r="L465" s="3">
+        <v>0</v>
+      </c>
+      <c r="M465" s="3">
+        <v>0</v>
+      </c>
+      <c r="N465" s="3">
+        <v>0</v>
+      </c>
+      <c r="O465" s="3">
+        <v>0</v>
+      </c>
+      <c r="P465" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q465" s="3">
+        <v>0</v>
+      </c>
+      <c r="R465" s="3">
+        <v>0</v>
+      </c>
+      <c r="S465" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T465" s="3">
+        <v>0</v>
+      </c>
+      <c r="U465" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A466" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E466" s="3">
+        <v>1</v>
+      </c>
+      <c r="F466" s="3">
+        <v>1</v>
+      </c>
+      <c r="G466" s="3">
+        <v>1</v>
+      </c>
+      <c r="H466" s="3">
+        <v>0</v>
+      </c>
+      <c r="I466" s="3">
+        <v>0</v>
+      </c>
+      <c r="J466" s="3">
+        <v>0</v>
+      </c>
+      <c r="K466" s="3">
+        <v>1</v>
+      </c>
+      <c r="L466" s="3">
+        <v>1</v>
+      </c>
+      <c r="M466" s="3">
+        <v>0</v>
+      </c>
+      <c r="N466" s="3">
+        <v>0</v>
+      </c>
+      <c r="O466" s="3">
+        <v>0</v>
+      </c>
+      <c r="P466" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q466" s="3">
+        <v>1</v>
+      </c>
+      <c r="R466" s="3">
+        <v>0</v>
+      </c>
+      <c r="S466" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T466" s="3">
+        <v>1</v>
+      </c>
+      <c r="U466" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A467" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E467" s="3">
+        <v>1</v>
+      </c>
+      <c r="F467" s="3">
+        <v>0</v>
+      </c>
+      <c r="G467" s="3">
+        <v>1</v>
+      </c>
+      <c r="H467" s="3">
+        <v>1</v>
+      </c>
+      <c r="I467" s="3">
+        <v>1</v>
+      </c>
+      <c r="J467" s="3">
+        <v>1</v>
+      </c>
+      <c r="K467" s="3">
+        <v>1</v>
+      </c>
+      <c r="L467" s="3">
+        <v>0</v>
+      </c>
+      <c r="M467" s="3">
+        <v>0</v>
+      </c>
+      <c r="N467" s="3">
+        <v>0</v>
+      </c>
+      <c r="O467" s="3">
+        <v>0</v>
+      </c>
+      <c r="P467" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q467" s="3">
+        <v>0</v>
+      </c>
+      <c r="R467" s="3">
+        <v>0</v>
+      </c>
+      <c r="S467" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T467" s="3">
+        <v>0</v>
+      </c>
+      <c r="U467" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A468" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E468" s="3">
+        <v>1</v>
+      </c>
+      <c r="F468" s="3">
+        <v>1</v>
+      </c>
+      <c r="G468" s="3">
+        <v>1</v>
+      </c>
+      <c r="H468" s="3">
+        <v>0</v>
+      </c>
+      <c r="I468" s="3">
+        <v>1</v>
+      </c>
+      <c r="J468" s="3">
+        <v>1</v>
+      </c>
+      <c r="K468" s="3">
+        <v>1</v>
+      </c>
+      <c r="L468" s="3">
+        <v>1</v>
+      </c>
+      <c r="M468" s="3">
+        <v>0</v>
+      </c>
+      <c r="N468" s="3">
+        <v>0</v>
+      </c>
+      <c r="O468" s="3">
+        <v>0</v>
+      </c>
+      <c r="P468" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q468" s="3">
+        <v>1</v>
+      </c>
+      <c r="R468" s="3">
+        <v>0</v>
+      </c>
+      <c r="S468" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T468" s="3">
+        <v>0</v>
+      </c>
+      <c r="U468" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A469" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E469" s="3">
+        <v>1</v>
+      </c>
+      <c r="F469" s="3">
+        <v>0</v>
+      </c>
+      <c r="G469" s="3">
+        <v>1</v>
+      </c>
+      <c r="H469" s="3">
+        <v>1</v>
+      </c>
+      <c r="I469" s="3">
+        <v>1</v>
+      </c>
+      <c r="J469" s="3">
+        <v>1</v>
+      </c>
+      <c r="K469" s="3">
+        <v>1</v>
+      </c>
+      <c r="L469" s="3">
+        <v>0</v>
+      </c>
+      <c r="M469" s="3">
+        <v>0</v>
+      </c>
+      <c r="N469" s="3">
+        <v>0</v>
+      </c>
+      <c r="O469" s="3">
+        <v>0</v>
+      </c>
+      <c r="P469" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q469" s="3">
+        <v>1</v>
+      </c>
+      <c r="R469" s="3">
+        <v>0</v>
+      </c>
+      <c r="S469" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T469" s="3">
+        <v>0</v>
+      </c>
+      <c r="U469" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A470" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E470" s="3">
+        <v>1</v>
+      </c>
+      <c r="F470" s="3">
+        <v>1</v>
+      </c>
+      <c r="G470" s="3">
+        <v>1</v>
+      </c>
+      <c r="H470" s="3">
+        <v>0</v>
+      </c>
+      <c r="I470" s="3">
+        <v>0</v>
+      </c>
+      <c r="J470" s="3">
+        <v>0</v>
+      </c>
+      <c r="K470" s="3">
+        <v>1</v>
+      </c>
+      <c r="L470" s="3">
+        <v>1</v>
+      </c>
+      <c r="M470" s="3">
+        <v>0</v>
+      </c>
+      <c r="N470" s="3">
+        <v>0</v>
+      </c>
+      <c r="O470" s="3">
+        <v>0</v>
+      </c>
+      <c r="P470" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q470" s="3">
+        <v>1</v>
+      </c>
+      <c r="R470" s="3">
+        <v>0</v>
+      </c>
+      <c r="S470" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T470" s="3">
+        <v>0</v>
+      </c>
+      <c r="U470" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A471" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E471" s="3">
+        <v>1</v>
+      </c>
+      <c r="F471" s="3">
+        <v>1</v>
+      </c>
+      <c r="G471" s="3">
+        <v>1</v>
+      </c>
+      <c r="H471" s="3">
+        <v>1</v>
+      </c>
+      <c r="I471" s="3">
+        <v>1</v>
+      </c>
+      <c r="J471" s="3">
+        <v>1</v>
+      </c>
+      <c r="K471" s="3">
+        <v>1</v>
+      </c>
+      <c r="L471" s="3">
+        <v>0</v>
+      </c>
+      <c r="M471" s="3">
+        <v>0</v>
+      </c>
+      <c r="N471" s="3">
+        <v>0</v>
+      </c>
+      <c r="O471" s="3">
+        <v>1</v>
+      </c>
+      <c r="P471" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q471" s="3">
+        <v>0</v>
+      </c>
+      <c r="R471" s="3">
+        <v>0</v>
+      </c>
+      <c r="S471" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T471" s="3">
+        <v>0</v>
+      </c>
+      <c r="U471" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A472" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E472" s="3">
+        <v>1</v>
+      </c>
+      <c r="F472" s="3">
+        <v>1</v>
+      </c>
+      <c r="G472" s="3">
+        <v>1</v>
+      </c>
+      <c r="H472" s="3">
+        <v>0</v>
+      </c>
+      <c r="I472" s="3">
+        <v>1</v>
+      </c>
+      <c r="J472" s="3">
+        <v>1</v>
+      </c>
+      <c r="K472" s="3">
+        <v>1</v>
+      </c>
+      <c r="L472" s="3">
+        <v>0</v>
+      </c>
+      <c r="M472" s="3">
+        <v>0</v>
+      </c>
+      <c r="N472" s="3">
+        <v>0</v>
+      </c>
+      <c r="O472" s="3">
+        <v>0</v>
+      </c>
+      <c r="P472" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q472" s="3">
+        <v>1</v>
+      </c>
+      <c r="R472" s="3">
+        <v>0</v>
+      </c>
+      <c r="S472" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T472" s="3">
+        <v>0</v>
+      </c>
+      <c r="U472" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A473" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E473" s="3">
+        <v>1</v>
+      </c>
+      <c r="F473" s="3">
+        <v>1</v>
+      </c>
+      <c r="G473" s="3">
+        <v>1</v>
+      </c>
+      <c r="H473" s="3">
+        <v>1</v>
+      </c>
+      <c r="I473" s="3">
+        <v>1</v>
+      </c>
+      <c r="J473" s="3">
+        <v>1</v>
+      </c>
+      <c r="K473" s="3">
+        <v>1</v>
+      </c>
+      <c r="L473" s="3">
+        <v>1</v>
+      </c>
+      <c r="M473" s="3">
+        <v>0</v>
+      </c>
+      <c r="N473" s="3">
+        <v>0</v>
+      </c>
+      <c r="O473" s="3">
+        <v>0</v>
+      </c>
+      <c r="P473" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q473" s="3">
+        <v>1</v>
+      </c>
+      <c r="R473" s="3">
+        <v>0</v>
+      </c>
+      <c r="S473" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T473" s="3">
+        <v>1</v>
+      </c>
+      <c r="U473" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A474" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E474" s="3">
+        <v>1</v>
+      </c>
+      <c r="F474" s="3">
+        <v>1</v>
+      </c>
+      <c r="G474" s="3">
+        <v>1</v>
+      </c>
+      <c r="H474" s="3">
+        <v>0</v>
+      </c>
+      <c r="I474" s="3">
+        <v>1</v>
+      </c>
+      <c r="J474" s="3">
+        <v>1</v>
+      </c>
+      <c r="K474" s="3">
+        <v>1</v>
+      </c>
+      <c r="L474" s="3">
+        <v>0</v>
+      </c>
+      <c r="M474" s="3">
+        <v>0</v>
+      </c>
+      <c r="N474" s="3">
+        <v>0</v>
+      </c>
+      <c r="O474" s="3">
+        <v>0</v>
+      </c>
+      <c r="P474" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q474" s="3">
+        <v>0</v>
+      </c>
+      <c r="R474" s="3">
+        <v>0</v>
+      </c>
+      <c r="S474" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T474" s="3">
+        <v>0</v>
+      </c>
+      <c r="U474" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A475" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E475" s="3">
+        <v>1</v>
+      </c>
+      <c r="F475" s="3">
+        <v>1</v>
+      </c>
+      <c r="G475" s="3">
+        <v>1</v>
+      </c>
+      <c r="H475" s="3">
+        <v>1</v>
+      </c>
+      <c r="I475" s="3">
+        <v>1</v>
+      </c>
+      <c r="J475" s="3">
+        <v>1</v>
+      </c>
+      <c r="K475" s="3">
+        <v>1</v>
+      </c>
+      <c r="L475" s="3">
+        <v>1</v>
+      </c>
+      <c r="M475" s="3">
+        <v>0</v>
+      </c>
+      <c r="N475" s="3">
+        <v>0</v>
+      </c>
+      <c r="O475" s="3">
+        <v>0</v>
+      </c>
+      <c r="P475" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q475" s="3">
+        <v>0</v>
+      </c>
+      <c r="R475" s="3">
+        <v>0</v>
+      </c>
+      <c r="S475" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T475" s="3">
+        <v>0</v>
+      </c>
+      <c r="U475" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A476" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E476" s="3">
+        <v>1</v>
+      </c>
+      <c r="F476" s="3">
+        <v>0</v>
+      </c>
+      <c r="G476" s="3">
+        <v>1</v>
+      </c>
+      <c r="H476" s="3">
+        <v>0</v>
+      </c>
+      <c r="I476" s="3">
+        <v>1</v>
+      </c>
+      <c r="J476" s="3">
+        <v>0</v>
+      </c>
+      <c r="K476" s="3">
+        <v>1</v>
+      </c>
+      <c r="L476" s="3">
+        <v>0</v>
+      </c>
+      <c r="M476" s="3">
+        <v>0</v>
+      </c>
+      <c r="N476" s="3">
+        <v>0</v>
+      </c>
+      <c r="O476" s="3">
+        <v>1</v>
+      </c>
+      <c r="P476" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q476" s="3">
+        <v>0</v>
+      </c>
+      <c r="R476" s="3">
+        <v>0</v>
+      </c>
+      <c r="S476" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T476" s="3">
+        <v>0</v>
+      </c>
+      <c r="U476" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A477" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E477" s="3">
+        <v>1</v>
+      </c>
+      <c r="F477" s="3">
+        <v>1</v>
+      </c>
+      <c r="G477" s="3">
+        <v>1</v>
+      </c>
+      <c r="H477" s="3">
+        <v>1</v>
+      </c>
+      <c r="I477" s="3">
+        <v>1</v>
+      </c>
+      <c r="J477" s="3">
+        <v>1</v>
+      </c>
+      <c r="K477" s="3">
+        <v>1</v>
+      </c>
+      <c r="L477" s="3">
+        <v>0</v>
+      </c>
+      <c r="M477" s="3">
+        <v>0</v>
+      </c>
+      <c r="N477" s="3">
+        <v>1</v>
+      </c>
+      <c r="O477" s="3">
+        <v>0</v>
+      </c>
+      <c r="P477" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q477" s="3">
+        <v>0</v>
+      </c>
+      <c r="R477" s="3">
+        <v>0</v>
+      </c>
+      <c r="S477" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T477" s="3">
+        <v>0</v>
+      </c>
+      <c r="U477" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A478" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E478" s="3">
+        <v>1</v>
+      </c>
+      <c r="F478" s="3">
+        <v>1</v>
+      </c>
+      <c r="G478" s="3">
+        <v>1</v>
+      </c>
+      <c r="H478" s="3">
+        <v>0</v>
+      </c>
+      <c r="I478" s="3">
+        <v>1</v>
+      </c>
+      <c r="J478" s="3">
+        <v>0</v>
+      </c>
+      <c r="K478" s="3">
+        <v>1</v>
+      </c>
+      <c r="L478" s="3">
+        <v>1</v>
+      </c>
+      <c r="M478" s="3">
+        <v>0</v>
+      </c>
+      <c r="N478" s="3">
+        <v>0</v>
+      </c>
+      <c r="O478" s="3">
+        <v>0</v>
+      </c>
+      <c r="P478" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q478" s="3">
+        <v>0</v>
+      </c>
+      <c r="R478" s="3">
+        <v>0</v>
+      </c>
+      <c r="S478" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T478" s="3">
+        <v>0</v>
+      </c>
+      <c r="U478" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A479" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E479" s="3">
+        <v>1</v>
+      </c>
+      <c r="F479" s="3">
+        <v>1</v>
+      </c>
+      <c r="G479" s="3">
+        <v>0</v>
+      </c>
+      <c r="H479" s="3">
+        <v>1</v>
+      </c>
+      <c r="I479" s="3">
+        <v>1</v>
+      </c>
+      <c r="J479" s="3">
+        <v>1</v>
+      </c>
+      <c r="K479" s="3">
+        <v>1</v>
+      </c>
+      <c r="L479" s="3">
+        <v>0</v>
+      </c>
+      <c r="M479" s="3">
+        <v>0</v>
+      </c>
+      <c r="N479" s="3">
+        <v>0</v>
+      </c>
+      <c r="O479" s="3">
+        <v>0</v>
+      </c>
+      <c r="P479" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q479" s="3">
+        <v>0</v>
+      </c>
+      <c r="R479" s="3">
+        <v>0</v>
+      </c>
+      <c r="S479" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T479" s="3">
+        <v>0</v>
+      </c>
+      <c r="U479" s="3">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Dailies Final.xlsx
+++ b/Data/Dailies Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155383D-73CA-4962-9C2A-CA4F76AD6083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F529115A-E8A7-477F-A817-3151BC916607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -480,36 +480,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U479"/>
+  <dimension ref="A1:U591"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="6.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -30783,6 +30763,7169 @@
         <v>69</v>
       </c>
     </row>
+    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A480" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E480" s="3">
+        <v>1</v>
+      </c>
+      <c r="F480" s="3">
+        <v>1</v>
+      </c>
+      <c r="G480" s="3">
+        <v>0</v>
+      </c>
+      <c r="H480" s="3">
+        <v>0</v>
+      </c>
+      <c r="I480" s="3">
+        <v>0</v>
+      </c>
+      <c r="J480" s="3">
+        <v>0</v>
+      </c>
+      <c r="K480" s="3">
+        <v>1</v>
+      </c>
+      <c r="L480" s="3">
+        <v>0</v>
+      </c>
+      <c r="M480" s="3">
+        <v>0</v>
+      </c>
+      <c r="N480" s="3">
+        <v>0</v>
+      </c>
+      <c r="O480" s="3">
+        <v>0</v>
+      </c>
+      <c r="P480" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q480" s="3">
+        <v>0</v>
+      </c>
+      <c r="R480" s="3">
+        <v>0</v>
+      </c>
+      <c r="S480" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T480" s="3">
+        <v>1</v>
+      </c>
+      <c r="U480" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A481" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E481" s="3">
+        <v>1</v>
+      </c>
+      <c r="F481" s="3">
+        <v>0</v>
+      </c>
+      <c r="G481" s="3">
+        <v>1</v>
+      </c>
+      <c r="H481" s="3">
+        <v>1</v>
+      </c>
+      <c r="I481" s="3">
+        <v>1</v>
+      </c>
+      <c r="J481" s="3">
+        <v>1</v>
+      </c>
+      <c r="K481" s="3">
+        <v>1</v>
+      </c>
+      <c r="L481" s="3">
+        <v>0</v>
+      </c>
+      <c r="M481" s="3">
+        <v>0</v>
+      </c>
+      <c r="N481" s="3">
+        <v>0</v>
+      </c>
+      <c r="O481" s="3">
+        <v>1</v>
+      </c>
+      <c r="P481" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q481" s="3">
+        <v>0</v>
+      </c>
+      <c r="R481" s="3">
+        <v>0</v>
+      </c>
+      <c r="S481" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T481" s="3">
+        <v>0</v>
+      </c>
+      <c r="U481" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A482" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E482" s="3">
+        <v>1</v>
+      </c>
+      <c r="F482" s="3">
+        <v>1</v>
+      </c>
+      <c r="G482" s="3">
+        <v>0</v>
+      </c>
+      <c r="H482" s="3">
+        <v>0</v>
+      </c>
+      <c r="I482" s="3">
+        <v>1</v>
+      </c>
+      <c r="J482" s="3">
+        <v>1</v>
+      </c>
+      <c r="K482" s="3">
+        <v>1</v>
+      </c>
+      <c r="L482" s="3">
+        <v>1</v>
+      </c>
+      <c r="M482" s="3">
+        <v>0</v>
+      </c>
+      <c r="N482" s="3">
+        <v>0</v>
+      </c>
+      <c r="O482" s="3">
+        <v>1</v>
+      </c>
+      <c r="P482" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q482" s="3">
+        <v>0</v>
+      </c>
+      <c r="R482" s="3">
+        <v>0</v>
+      </c>
+      <c r="S482" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T482" s="3">
+        <v>0</v>
+      </c>
+      <c r="U482" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A483" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E483" s="3">
+        <v>1</v>
+      </c>
+      <c r="F483" s="3">
+        <v>1</v>
+      </c>
+      <c r="G483" s="3">
+        <v>1</v>
+      </c>
+      <c r="H483" s="3">
+        <v>1</v>
+      </c>
+      <c r="I483" s="3">
+        <v>0</v>
+      </c>
+      <c r="J483" s="3">
+        <v>0</v>
+      </c>
+      <c r="K483" s="3">
+        <v>1</v>
+      </c>
+      <c r="L483" s="3">
+        <v>0</v>
+      </c>
+      <c r="M483" s="3">
+        <v>0</v>
+      </c>
+      <c r="N483" s="3">
+        <v>0</v>
+      </c>
+      <c r="O483" s="3">
+        <v>0</v>
+      </c>
+      <c r="P483" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q483" s="3">
+        <v>0</v>
+      </c>
+      <c r="R483" s="3">
+        <v>0</v>
+      </c>
+      <c r="S483" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T483" s="3">
+        <v>0</v>
+      </c>
+      <c r="U483" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A484" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E484" s="3">
+        <v>1</v>
+      </c>
+      <c r="F484" s="3">
+        <v>1</v>
+      </c>
+      <c r="G484" s="3">
+        <v>1</v>
+      </c>
+      <c r="H484" s="3">
+        <v>0</v>
+      </c>
+      <c r="I484" s="3">
+        <v>1</v>
+      </c>
+      <c r="J484" s="3">
+        <v>1</v>
+      </c>
+      <c r="K484" s="3">
+        <v>1</v>
+      </c>
+      <c r="L484" s="3">
+        <v>0</v>
+      </c>
+      <c r="M484" s="3">
+        <v>0</v>
+      </c>
+      <c r="N484" s="3">
+        <v>0</v>
+      </c>
+      <c r="O484" s="3">
+        <v>0</v>
+      </c>
+      <c r="P484" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q484" s="3">
+        <v>0</v>
+      </c>
+      <c r="R484" s="3">
+        <v>0</v>
+      </c>
+      <c r="S484" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T484" s="3">
+        <v>0</v>
+      </c>
+      <c r="U484" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A485" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E485" s="3">
+        <v>1</v>
+      </c>
+      <c r="F485" s="3">
+        <v>1</v>
+      </c>
+      <c r="G485" s="3">
+        <v>0</v>
+      </c>
+      <c r="H485" s="3">
+        <v>1</v>
+      </c>
+      <c r="I485" s="3">
+        <v>0</v>
+      </c>
+      <c r="J485" s="3">
+        <v>0</v>
+      </c>
+      <c r="K485" s="3">
+        <v>1</v>
+      </c>
+      <c r="L485" s="3">
+        <v>1</v>
+      </c>
+      <c r="M485" s="3">
+        <v>0</v>
+      </c>
+      <c r="N485" s="3">
+        <v>0</v>
+      </c>
+      <c r="O485" s="3">
+        <v>0</v>
+      </c>
+      <c r="P485" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q485" s="3">
+        <v>0</v>
+      </c>
+      <c r="R485" s="3">
+        <v>0</v>
+      </c>
+      <c r="S485" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T485" s="3">
+        <v>0</v>
+      </c>
+      <c r="U485" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A486" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E486" s="3">
+        <v>1</v>
+      </c>
+      <c r="F486" s="3">
+        <v>0</v>
+      </c>
+      <c r="G486" s="3">
+        <v>1</v>
+      </c>
+      <c r="H486" s="3">
+        <v>0</v>
+      </c>
+      <c r="I486" s="3">
+        <v>1</v>
+      </c>
+      <c r="J486" s="3">
+        <v>1</v>
+      </c>
+      <c r="K486" s="3">
+        <v>1</v>
+      </c>
+      <c r="L486" s="3">
+        <v>0</v>
+      </c>
+      <c r="M486" s="3">
+        <v>0</v>
+      </c>
+      <c r="N486" s="3">
+        <v>0</v>
+      </c>
+      <c r="O486" s="3">
+        <v>1</v>
+      </c>
+      <c r="P486" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q486" s="3">
+        <v>0</v>
+      </c>
+      <c r="R486" s="3">
+        <v>0</v>
+      </c>
+      <c r="S486" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T486" s="3">
+        <v>0</v>
+      </c>
+      <c r="U486" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A487" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E487" s="3">
+        <v>1</v>
+      </c>
+      <c r="F487" s="3">
+        <v>1</v>
+      </c>
+      <c r="G487" s="3">
+        <v>0</v>
+      </c>
+      <c r="H487" s="3">
+        <v>1</v>
+      </c>
+      <c r="I487" s="3">
+        <v>1</v>
+      </c>
+      <c r="J487" s="3">
+        <v>0</v>
+      </c>
+      <c r="K487" s="3">
+        <v>1</v>
+      </c>
+      <c r="L487" s="3">
+        <v>1</v>
+      </c>
+      <c r="M487" s="3">
+        <v>0</v>
+      </c>
+      <c r="N487" s="3">
+        <v>0</v>
+      </c>
+      <c r="O487" s="3">
+        <v>0</v>
+      </c>
+      <c r="P487" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q487" s="3">
+        <v>0</v>
+      </c>
+      <c r="R487" s="3">
+        <v>0</v>
+      </c>
+      <c r="S487" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T487" s="3">
+        <v>1</v>
+      </c>
+      <c r="U487" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A488" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E488" s="3">
+        <v>1</v>
+      </c>
+      <c r="F488" s="3">
+        <v>1</v>
+      </c>
+      <c r="G488" s="3">
+        <v>1</v>
+      </c>
+      <c r="H488" s="3">
+        <v>0</v>
+      </c>
+      <c r="I488" s="3">
+        <v>1</v>
+      </c>
+      <c r="J488" s="3">
+        <v>1</v>
+      </c>
+      <c r="K488" s="3">
+        <v>1</v>
+      </c>
+      <c r="L488" s="3">
+        <v>0</v>
+      </c>
+      <c r="M488" s="3">
+        <v>0</v>
+      </c>
+      <c r="N488" s="3">
+        <v>0</v>
+      </c>
+      <c r="O488" s="3">
+        <v>0</v>
+      </c>
+      <c r="P488" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q488" s="3">
+        <v>0</v>
+      </c>
+      <c r="R488" s="3">
+        <v>0</v>
+      </c>
+      <c r="S488" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T488" s="3">
+        <v>0</v>
+      </c>
+      <c r="U488" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A489" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E489" s="3">
+        <v>1</v>
+      </c>
+      <c r="F489" s="3">
+        <v>1</v>
+      </c>
+      <c r="G489" s="3">
+        <v>1</v>
+      </c>
+      <c r="H489" s="3">
+        <v>1</v>
+      </c>
+      <c r="I489" s="3">
+        <v>1</v>
+      </c>
+      <c r="J489" s="3">
+        <v>1</v>
+      </c>
+      <c r="K489" s="3">
+        <v>1</v>
+      </c>
+      <c r="L489" s="3">
+        <v>0</v>
+      </c>
+      <c r="M489" s="3">
+        <v>0</v>
+      </c>
+      <c r="N489" s="3">
+        <v>0</v>
+      </c>
+      <c r="O489" s="3">
+        <v>0</v>
+      </c>
+      <c r="P489" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q489" s="3">
+        <v>0</v>
+      </c>
+      <c r="R489" s="3">
+        <v>0</v>
+      </c>
+      <c r="S489" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T489" s="3">
+        <v>0</v>
+      </c>
+      <c r="U489" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A490" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E490" s="3">
+        <v>1</v>
+      </c>
+      <c r="F490" s="3">
+        <v>1</v>
+      </c>
+      <c r="G490" s="3">
+        <v>1</v>
+      </c>
+      <c r="H490" s="3">
+        <v>0</v>
+      </c>
+      <c r="I490" s="3">
+        <v>1</v>
+      </c>
+      <c r="J490" s="3">
+        <v>1</v>
+      </c>
+      <c r="K490" s="3">
+        <v>1</v>
+      </c>
+      <c r="L490" s="3">
+        <v>1</v>
+      </c>
+      <c r="M490" s="3">
+        <v>0</v>
+      </c>
+      <c r="N490" s="3">
+        <v>0</v>
+      </c>
+      <c r="O490" s="3">
+        <v>0</v>
+      </c>
+      <c r="P490" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q490" s="3">
+        <v>0</v>
+      </c>
+      <c r="R490" s="3">
+        <v>0</v>
+      </c>
+      <c r="S490" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T490" s="3">
+        <v>0</v>
+      </c>
+      <c r="U490" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A491" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E491" s="3">
+        <v>1</v>
+      </c>
+      <c r="F491" s="3">
+        <v>1</v>
+      </c>
+      <c r="G491" s="3">
+        <v>1</v>
+      </c>
+      <c r="H491" s="3">
+        <v>1</v>
+      </c>
+      <c r="I491" s="3">
+        <v>1</v>
+      </c>
+      <c r="J491" s="3">
+        <v>1</v>
+      </c>
+      <c r="K491" s="3">
+        <v>1</v>
+      </c>
+      <c r="L491" s="3">
+        <v>0</v>
+      </c>
+      <c r="M491" s="3">
+        <v>0</v>
+      </c>
+      <c r="N491" s="3">
+        <v>0</v>
+      </c>
+      <c r="O491" s="3">
+        <v>0</v>
+      </c>
+      <c r="P491" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q491" s="3">
+        <v>0</v>
+      </c>
+      <c r="R491" s="3">
+        <v>0</v>
+      </c>
+      <c r="S491" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T491" s="3">
+        <v>0</v>
+      </c>
+      <c r="U491" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A492" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E492" s="3">
+        <v>1</v>
+      </c>
+      <c r="F492" s="3">
+        <v>1</v>
+      </c>
+      <c r="G492" s="3">
+        <v>1</v>
+      </c>
+      <c r="H492" s="3">
+        <v>0</v>
+      </c>
+      <c r="I492" s="3">
+        <v>1</v>
+      </c>
+      <c r="J492" s="3">
+        <v>1</v>
+      </c>
+      <c r="K492" s="3">
+        <v>1</v>
+      </c>
+      <c r="L492" s="3">
+        <v>1</v>
+      </c>
+      <c r="M492" s="3">
+        <v>0</v>
+      </c>
+      <c r="N492" s="3">
+        <v>0</v>
+      </c>
+      <c r="O492" s="3">
+        <v>0</v>
+      </c>
+      <c r="P492" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q492" s="3">
+        <v>0</v>
+      </c>
+      <c r="R492" s="3">
+        <v>0</v>
+      </c>
+      <c r="S492" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T492" s="3">
+        <v>0</v>
+      </c>
+      <c r="U492" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A493" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E493" s="3">
+        <v>1</v>
+      </c>
+      <c r="F493" s="3">
+        <v>0</v>
+      </c>
+      <c r="G493" s="3">
+        <v>0</v>
+      </c>
+      <c r="H493" s="3">
+        <v>1</v>
+      </c>
+      <c r="I493" s="3">
+        <v>1</v>
+      </c>
+      <c r="J493" s="3">
+        <v>0</v>
+      </c>
+      <c r="K493" s="3">
+        <v>1</v>
+      </c>
+      <c r="L493" s="3">
+        <v>0</v>
+      </c>
+      <c r="M493" s="3">
+        <v>0</v>
+      </c>
+      <c r="N493" s="3">
+        <v>0</v>
+      </c>
+      <c r="O493" s="3">
+        <v>0</v>
+      </c>
+      <c r="P493" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q493" s="3">
+        <v>0</v>
+      </c>
+      <c r="R493" s="3">
+        <v>0</v>
+      </c>
+      <c r="S493" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T493" s="3">
+        <v>0</v>
+      </c>
+      <c r="U493" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A494" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E494" s="3">
+        <v>1</v>
+      </c>
+      <c r="F494" s="3">
+        <v>1</v>
+      </c>
+      <c r="G494" s="3">
+        <v>1</v>
+      </c>
+      <c r="H494" s="3">
+        <v>0</v>
+      </c>
+      <c r="I494" s="3">
+        <v>1</v>
+      </c>
+      <c r="J494" s="3">
+        <v>1</v>
+      </c>
+      <c r="K494" s="3">
+        <v>1</v>
+      </c>
+      <c r="L494" s="3">
+        <v>1</v>
+      </c>
+      <c r="M494" s="3">
+        <v>0</v>
+      </c>
+      <c r="N494" s="3">
+        <v>0</v>
+      </c>
+      <c r="O494" s="3">
+        <v>1</v>
+      </c>
+      <c r="P494" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q494" s="3">
+        <v>0</v>
+      </c>
+      <c r="R494" s="3">
+        <v>0</v>
+      </c>
+      <c r="S494" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T494" s="3">
+        <v>1</v>
+      </c>
+      <c r="U494" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A495" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E495" s="3">
+        <v>1</v>
+      </c>
+      <c r="F495" s="3">
+        <v>1</v>
+      </c>
+      <c r="G495" s="3">
+        <v>1</v>
+      </c>
+      <c r="H495" s="3">
+        <v>1</v>
+      </c>
+      <c r="I495" s="3">
+        <v>1</v>
+      </c>
+      <c r="J495" s="3">
+        <v>1</v>
+      </c>
+      <c r="K495" s="3">
+        <v>1</v>
+      </c>
+      <c r="L495" s="3">
+        <v>0</v>
+      </c>
+      <c r="M495" s="3">
+        <v>0</v>
+      </c>
+      <c r="N495" s="3">
+        <v>0</v>
+      </c>
+      <c r="O495" s="3">
+        <v>0</v>
+      </c>
+      <c r="P495" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q495" s="3">
+        <v>0</v>
+      </c>
+      <c r="R495" s="3">
+        <v>0</v>
+      </c>
+      <c r="S495" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T495" s="3">
+        <v>0</v>
+      </c>
+      <c r="U495" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A496" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E496" s="3">
+        <v>1</v>
+      </c>
+      <c r="F496" s="3">
+        <v>1</v>
+      </c>
+      <c r="G496" s="3">
+        <v>1</v>
+      </c>
+      <c r="H496" s="3">
+        <v>0</v>
+      </c>
+      <c r="I496" s="3">
+        <v>1</v>
+      </c>
+      <c r="J496" s="3">
+        <v>1</v>
+      </c>
+      <c r="K496" s="3">
+        <v>1</v>
+      </c>
+      <c r="L496" s="3">
+        <v>0</v>
+      </c>
+      <c r="M496" s="3">
+        <v>0</v>
+      </c>
+      <c r="N496" s="3">
+        <v>0</v>
+      </c>
+      <c r="O496" s="3">
+        <v>1</v>
+      </c>
+      <c r="P496" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q496" s="3">
+        <v>0</v>
+      </c>
+      <c r="R496" s="3">
+        <v>0</v>
+      </c>
+      <c r="S496" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T496" s="3">
+        <v>0</v>
+      </c>
+      <c r="U496" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="497" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A497" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E497" s="3">
+        <v>1</v>
+      </c>
+      <c r="F497" s="3">
+        <v>1</v>
+      </c>
+      <c r="G497" s="3">
+        <v>0</v>
+      </c>
+      <c r="H497" s="3">
+        <v>1</v>
+      </c>
+      <c r="I497" s="3">
+        <v>1</v>
+      </c>
+      <c r="J497" s="3">
+        <v>1</v>
+      </c>
+      <c r="K497" s="3">
+        <v>1</v>
+      </c>
+      <c r="L497" s="3">
+        <v>1</v>
+      </c>
+      <c r="M497" s="3">
+        <v>0</v>
+      </c>
+      <c r="N497" s="3">
+        <v>0</v>
+      </c>
+      <c r="O497" s="3">
+        <v>0</v>
+      </c>
+      <c r="P497" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q497" s="3">
+        <v>0</v>
+      </c>
+      <c r="R497" s="3">
+        <v>0</v>
+      </c>
+      <c r="S497" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T497" s="3">
+        <v>0</v>
+      </c>
+      <c r="U497" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="498" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A498" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E498" s="3">
+        <v>1</v>
+      </c>
+      <c r="F498" s="3">
+        <v>1</v>
+      </c>
+      <c r="G498" s="3">
+        <v>1</v>
+      </c>
+      <c r="H498" s="3">
+        <v>0</v>
+      </c>
+      <c r="I498" s="3">
+        <v>0</v>
+      </c>
+      <c r="J498" s="3">
+        <v>0</v>
+      </c>
+      <c r="K498" s="3">
+        <v>1</v>
+      </c>
+      <c r="L498" s="3">
+        <v>1</v>
+      </c>
+      <c r="M498" s="3">
+        <v>0</v>
+      </c>
+      <c r="N498" s="3">
+        <v>0</v>
+      </c>
+      <c r="O498" s="3">
+        <v>0</v>
+      </c>
+      <c r="P498" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q498" s="3">
+        <v>1</v>
+      </c>
+      <c r="R498" s="3">
+        <v>0</v>
+      </c>
+      <c r="S498" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T498" s="3">
+        <v>0</v>
+      </c>
+      <c r="U498" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="499" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A499" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E499" s="3">
+        <v>1</v>
+      </c>
+      <c r="F499" s="3">
+        <v>0</v>
+      </c>
+      <c r="G499" s="3">
+        <v>1</v>
+      </c>
+      <c r="H499" s="3">
+        <v>1</v>
+      </c>
+      <c r="I499" s="3">
+        <v>1</v>
+      </c>
+      <c r="J499" s="3">
+        <v>1</v>
+      </c>
+      <c r="K499" s="3">
+        <v>1</v>
+      </c>
+      <c r="L499" s="3">
+        <v>0</v>
+      </c>
+      <c r="M499" s="3">
+        <v>0</v>
+      </c>
+      <c r="N499" s="3">
+        <v>0</v>
+      </c>
+      <c r="O499" s="3">
+        <v>0</v>
+      </c>
+      <c r="P499" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q499" s="3">
+        <v>1</v>
+      </c>
+      <c r="R499" s="3">
+        <v>0</v>
+      </c>
+      <c r="S499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T499" s="3">
+        <v>0</v>
+      </c>
+      <c r="U499" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="500" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A500" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E500" s="3">
+        <v>1</v>
+      </c>
+      <c r="F500" s="3">
+        <v>1</v>
+      </c>
+      <c r="G500" s="3">
+        <v>0</v>
+      </c>
+      <c r="H500" s="3">
+        <v>0</v>
+      </c>
+      <c r="I500" s="3">
+        <v>1</v>
+      </c>
+      <c r="J500" s="3">
+        <v>1</v>
+      </c>
+      <c r="K500" s="3">
+        <v>1</v>
+      </c>
+      <c r="L500" s="3">
+        <v>0</v>
+      </c>
+      <c r="M500" s="3">
+        <v>0</v>
+      </c>
+      <c r="N500" s="3">
+        <v>0</v>
+      </c>
+      <c r="O500" s="3">
+        <v>1</v>
+      </c>
+      <c r="P500" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q500" s="3">
+        <v>1</v>
+      </c>
+      <c r="R500" s="3">
+        <v>0</v>
+      </c>
+      <c r="S500" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T500" s="3">
+        <v>0</v>
+      </c>
+      <c r="U500" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="501" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A501" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E501" s="3">
+        <v>1</v>
+      </c>
+      <c r="F501" s="3">
+        <v>1</v>
+      </c>
+      <c r="G501" s="3">
+        <v>1</v>
+      </c>
+      <c r="H501" s="3">
+        <v>1</v>
+      </c>
+      <c r="I501" s="3">
+        <v>1</v>
+      </c>
+      <c r="J501" s="3">
+        <v>1</v>
+      </c>
+      <c r="K501" s="3">
+        <v>1</v>
+      </c>
+      <c r="L501" s="3">
+        <v>1</v>
+      </c>
+      <c r="M501" s="3">
+        <v>0</v>
+      </c>
+      <c r="N501" s="3">
+        <v>0</v>
+      </c>
+      <c r="O501" s="3">
+        <v>0</v>
+      </c>
+      <c r="P501" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q501" s="3">
+        <v>1</v>
+      </c>
+      <c r="R501" s="3">
+        <v>0</v>
+      </c>
+      <c r="S501" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T501" s="3">
+        <v>1</v>
+      </c>
+      <c r="U501" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="502" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A502" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E502" s="3">
+        <v>1</v>
+      </c>
+      <c r="F502" s="3">
+        <v>1</v>
+      </c>
+      <c r="G502" s="3">
+        <v>1</v>
+      </c>
+      <c r="H502" s="3">
+        <v>0</v>
+      </c>
+      <c r="I502" s="3">
+        <v>1</v>
+      </c>
+      <c r="J502" s="3">
+        <v>1</v>
+      </c>
+      <c r="K502" s="3">
+        <v>1</v>
+      </c>
+      <c r="L502" s="3">
+        <v>0</v>
+      </c>
+      <c r="M502" s="3">
+        <v>0</v>
+      </c>
+      <c r="N502" s="3">
+        <v>0</v>
+      </c>
+      <c r="O502" s="3">
+        <v>0</v>
+      </c>
+      <c r="P502" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q502" s="3">
+        <v>0</v>
+      </c>
+      <c r="R502" s="3">
+        <v>0</v>
+      </c>
+      <c r="S502" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T502" s="3">
+        <v>0</v>
+      </c>
+      <c r="U502" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="503" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A503" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E503" s="3">
+        <v>1</v>
+      </c>
+      <c r="F503" s="3">
+        <v>1</v>
+      </c>
+      <c r="G503" s="3">
+        <v>1</v>
+      </c>
+      <c r="H503" s="3">
+        <v>1</v>
+      </c>
+      <c r="I503" s="3">
+        <v>1</v>
+      </c>
+      <c r="J503" s="3">
+        <v>1</v>
+      </c>
+      <c r="K503" s="3">
+        <v>1</v>
+      </c>
+      <c r="L503" s="3">
+        <v>0</v>
+      </c>
+      <c r="M503" s="3">
+        <v>0</v>
+      </c>
+      <c r="N503" s="3">
+        <v>0</v>
+      </c>
+      <c r="O503" s="3">
+        <v>1</v>
+      </c>
+      <c r="P503" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q503" s="3">
+        <v>1</v>
+      </c>
+      <c r="R503" s="3">
+        <v>0</v>
+      </c>
+      <c r="S503" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T503" s="3">
+        <v>0</v>
+      </c>
+      <c r="U503" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="504" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A504" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E504" s="3">
+        <v>1</v>
+      </c>
+      <c r="F504" s="3">
+        <v>1</v>
+      </c>
+      <c r="G504" s="3">
+        <v>1</v>
+      </c>
+      <c r="H504" s="3">
+        <v>0</v>
+      </c>
+      <c r="I504" s="3">
+        <v>0</v>
+      </c>
+      <c r="J504" s="3">
+        <v>1</v>
+      </c>
+      <c r="K504" s="3">
+        <v>1</v>
+      </c>
+      <c r="L504" s="3">
+        <v>1</v>
+      </c>
+      <c r="M504" s="3">
+        <v>0</v>
+      </c>
+      <c r="N504" s="3">
+        <v>0</v>
+      </c>
+      <c r="O504" s="3">
+        <v>0</v>
+      </c>
+      <c r="P504" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q504" s="3">
+        <v>1</v>
+      </c>
+      <c r="R504" s="3">
+        <v>0</v>
+      </c>
+      <c r="S504" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T504" s="3">
+        <v>0</v>
+      </c>
+      <c r="U504" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="505" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A505" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E505" s="3">
+        <v>1</v>
+      </c>
+      <c r="F505" s="3">
+        <v>1</v>
+      </c>
+      <c r="G505" s="3">
+        <v>0</v>
+      </c>
+      <c r="H505" s="3">
+        <v>1</v>
+      </c>
+      <c r="I505" s="3">
+        <v>1</v>
+      </c>
+      <c r="J505" s="3">
+        <v>1</v>
+      </c>
+      <c r="K505" s="3">
+        <v>1</v>
+      </c>
+      <c r="L505" s="3">
+        <v>0</v>
+      </c>
+      <c r="M505" s="3">
+        <v>0</v>
+      </c>
+      <c r="N505" s="3">
+        <v>0</v>
+      </c>
+      <c r="O505" s="3">
+        <v>0</v>
+      </c>
+      <c r="P505" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q505" s="3">
+        <v>0</v>
+      </c>
+      <c r="R505" s="3">
+        <v>0</v>
+      </c>
+      <c r="S505" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T505" s="3">
+        <v>0</v>
+      </c>
+      <c r="U505" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="506" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A506" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E506" s="3">
+        <v>1</v>
+      </c>
+      <c r="F506" s="3">
+        <v>0</v>
+      </c>
+      <c r="G506" s="3">
+        <v>1</v>
+      </c>
+      <c r="H506" s="3">
+        <v>0</v>
+      </c>
+      <c r="I506" s="3">
+        <v>0</v>
+      </c>
+      <c r="J506" s="3">
+        <v>1</v>
+      </c>
+      <c r="K506" s="3">
+        <v>1</v>
+      </c>
+      <c r="L506" s="3">
+        <v>0</v>
+      </c>
+      <c r="M506" s="3">
+        <v>0</v>
+      </c>
+      <c r="N506" s="3">
+        <v>0</v>
+      </c>
+      <c r="O506" s="3">
+        <v>0</v>
+      </c>
+      <c r="P506" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q506" s="3">
+        <v>1</v>
+      </c>
+      <c r="R506" s="3">
+        <v>0</v>
+      </c>
+      <c r="S506" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T506" s="3">
+        <v>0</v>
+      </c>
+      <c r="U506" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="507" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A507" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E507" s="3">
+        <v>1</v>
+      </c>
+      <c r="F507" s="3">
+        <v>1</v>
+      </c>
+      <c r="G507" s="3">
+        <v>1</v>
+      </c>
+      <c r="H507" s="3">
+        <v>0</v>
+      </c>
+      <c r="I507" s="3">
+        <v>0</v>
+      </c>
+      <c r="J507" s="3">
+        <v>0</v>
+      </c>
+      <c r="K507" s="3">
+        <v>1</v>
+      </c>
+      <c r="L507" s="3">
+        <v>1</v>
+      </c>
+      <c r="M507" s="3">
+        <v>0</v>
+      </c>
+      <c r="N507" s="3">
+        <v>0</v>
+      </c>
+      <c r="O507" s="3">
+        <v>0</v>
+      </c>
+      <c r="P507" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q507" s="3">
+        <v>1</v>
+      </c>
+      <c r="R507" s="3">
+        <v>0</v>
+      </c>
+      <c r="S507" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T507" s="3">
+        <v>0</v>
+      </c>
+      <c r="U507" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="508" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A508" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E508" s="3">
+        <v>1</v>
+      </c>
+      <c r="F508" s="3">
+        <v>1</v>
+      </c>
+      <c r="G508" s="3">
+        <v>1</v>
+      </c>
+      <c r="H508" s="3">
+        <v>1</v>
+      </c>
+      <c r="I508" s="3">
+        <v>1</v>
+      </c>
+      <c r="J508" s="3">
+        <v>1</v>
+      </c>
+      <c r="K508" s="3">
+        <v>1</v>
+      </c>
+      <c r="L508" s="3">
+        <v>1</v>
+      </c>
+      <c r="M508" s="3">
+        <v>0</v>
+      </c>
+      <c r="N508" s="3">
+        <v>0</v>
+      </c>
+      <c r="O508" s="3">
+        <v>0</v>
+      </c>
+      <c r="P508" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q508" s="3">
+        <v>1</v>
+      </c>
+      <c r="R508" s="3">
+        <v>0</v>
+      </c>
+      <c r="S508" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T508" s="3">
+        <v>1</v>
+      </c>
+      <c r="U508" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="509" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A509" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E509" s="3">
+        <v>1</v>
+      </c>
+      <c r="F509" s="3">
+        <v>1</v>
+      </c>
+      <c r="G509" s="3">
+        <v>1</v>
+      </c>
+      <c r="H509" s="3">
+        <v>0</v>
+      </c>
+      <c r="I509" s="3">
+        <v>1</v>
+      </c>
+      <c r="J509" s="3">
+        <v>1</v>
+      </c>
+      <c r="K509" s="3">
+        <v>1</v>
+      </c>
+      <c r="L509" s="3">
+        <v>0</v>
+      </c>
+      <c r="M509" s="3">
+        <v>0</v>
+      </c>
+      <c r="N509" s="3">
+        <v>0</v>
+      </c>
+      <c r="O509" s="3">
+        <v>0</v>
+      </c>
+      <c r="P509" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q509" s="3">
+        <v>0</v>
+      </c>
+      <c r="R509" s="3">
+        <v>0</v>
+      </c>
+      <c r="S509" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T509" s="3">
+        <v>0</v>
+      </c>
+      <c r="U509" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="510" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A510" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E510" s="3">
+        <v>1</v>
+      </c>
+      <c r="F510" s="3">
+        <v>1</v>
+      </c>
+      <c r="G510" s="3">
+        <v>1</v>
+      </c>
+      <c r="H510" s="3">
+        <v>1</v>
+      </c>
+      <c r="I510" s="3">
+        <v>0</v>
+      </c>
+      <c r="J510" s="3">
+        <v>1</v>
+      </c>
+      <c r="K510" s="3">
+        <v>1</v>
+      </c>
+      <c r="L510" s="3">
+        <v>1</v>
+      </c>
+      <c r="M510" s="3">
+        <v>0</v>
+      </c>
+      <c r="N510" s="3">
+        <v>0</v>
+      </c>
+      <c r="O510" s="3">
+        <v>1</v>
+      </c>
+      <c r="P510" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q510" s="3">
+        <v>1</v>
+      </c>
+      <c r="R510" s="3">
+        <v>0</v>
+      </c>
+      <c r="S510" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T510" s="3">
+        <v>0</v>
+      </c>
+      <c r="U510" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="511" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A511" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E511" s="3">
+        <v>1</v>
+      </c>
+      <c r="F511" s="3">
+        <v>0</v>
+      </c>
+      <c r="G511" s="3">
+        <v>1</v>
+      </c>
+      <c r="H511" s="3">
+        <v>0</v>
+      </c>
+      <c r="I511" s="3">
+        <v>1</v>
+      </c>
+      <c r="J511" s="3">
+        <v>1</v>
+      </c>
+      <c r="K511" s="3">
+        <v>1</v>
+      </c>
+      <c r="L511" s="3">
+        <v>0</v>
+      </c>
+      <c r="M511" s="3">
+        <v>0</v>
+      </c>
+      <c r="N511" s="3">
+        <v>0</v>
+      </c>
+      <c r="O511" s="3">
+        <v>0</v>
+      </c>
+      <c r="P511" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q511" s="3">
+        <v>1</v>
+      </c>
+      <c r="R511" s="3">
+        <v>0</v>
+      </c>
+      <c r="S511" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T511" s="3">
+        <v>0</v>
+      </c>
+      <c r="U511" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="512" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A512" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E512" s="3">
+        <v>1</v>
+      </c>
+      <c r="F512" s="3">
+        <v>1</v>
+      </c>
+      <c r="G512" s="3">
+        <v>1</v>
+      </c>
+      <c r="H512" s="3">
+        <v>1</v>
+      </c>
+      <c r="I512" s="3">
+        <v>1</v>
+      </c>
+      <c r="J512" s="3">
+        <v>1</v>
+      </c>
+      <c r="K512" s="3">
+        <v>1</v>
+      </c>
+      <c r="L512" s="3">
+        <v>0</v>
+      </c>
+      <c r="M512" s="3">
+        <v>0</v>
+      </c>
+      <c r="N512" s="3">
+        <v>0</v>
+      </c>
+      <c r="O512" s="3">
+        <v>1</v>
+      </c>
+      <c r="P512" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q512" s="3">
+        <v>0</v>
+      </c>
+      <c r="R512" s="3">
+        <v>0</v>
+      </c>
+      <c r="S512" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T512" s="3">
+        <v>0</v>
+      </c>
+      <c r="U512" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="513" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A513" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E513" s="3">
+        <v>1</v>
+      </c>
+      <c r="F513" s="3">
+        <v>1</v>
+      </c>
+      <c r="G513" s="3">
+        <v>1</v>
+      </c>
+      <c r="H513" s="3">
+        <v>0</v>
+      </c>
+      <c r="I513" s="3">
+        <v>0</v>
+      </c>
+      <c r="J513" s="3">
+        <v>0</v>
+      </c>
+      <c r="K513" s="3">
+        <v>1</v>
+      </c>
+      <c r="L513" s="3">
+        <v>1</v>
+      </c>
+      <c r="M513" s="3">
+        <v>0</v>
+      </c>
+      <c r="N513" s="3">
+        <v>0</v>
+      </c>
+      <c r="O513" s="3">
+        <v>0</v>
+      </c>
+      <c r="P513" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q513" s="3">
+        <v>1</v>
+      </c>
+      <c r="R513" s="3">
+        <v>0</v>
+      </c>
+      <c r="S513" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T513" s="3">
+        <v>0</v>
+      </c>
+      <c r="U513" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="514" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A514" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E514" s="3">
+        <v>1</v>
+      </c>
+      <c r="F514" s="3">
+        <v>1</v>
+      </c>
+      <c r="G514" s="3">
+        <v>1</v>
+      </c>
+      <c r="H514" s="3">
+        <v>1</v>
+      </c>
+      <c r="I514" s="3">
+        <v>1</v>
+      </c>
+      <c r="J514" s="3">
+        <v>1</v>
+      </c>
+      <c r="K514" s="3">
+        <v>1</v>
+      </c>
+      <c r="L514" s="3">
+        <v>0</v>
+      </c>
+      <c r="M514" s="3">
+        <v>0</v>
+      </c>
+      <c r="N514" s="3">
+        <v>0</v>
+      </c>
+      <c r="O514" s="3">
+        <v>0</v>
+      </c>
+      <c r="P514" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q514" s="3">
+        <v>0</v>
+      </c>
+      <c r="R514" s="3">
+        <v>0</v>
+      </c>
+      <c r="S514" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T514" s="3">
+        <v>0</v>
+      </c>
+      <c r="U514" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="515" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A515" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E515" s="3">
+        <v>1</v>
+      </c>
+      <c r="F515" s="3">
+        <v>1</v>
+      </c>
+      <c r="G515" s="3">
+        <v>1</v>
+      </c>
+      <c r="H515" s="3">
+        <v>0</v>
+      </c>
+      <c r="I515" s="3">
+        <v>1</v>
+      </c>
+      <c r="J515" s="3">
+        <v>1</v>
+      </c>
+      <c r="K515" s="3">
+        <v>1</v>
+      </c>
+      <c r="L515" s="3">
+        <v>1</v>
+      </c>
+      <c r="M515" s="3">
+        <v>0</v>
+      </c>
+      <c r="N515" s="3">
+        <v>0</v>
+      </c>
+      <c r="O515" s="3">
+        <v>0</v>
+      </c>
+      <c r="P515" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q515" s="3">
+        <v>1</v>
+      </c>
+      <c r="R515" s="3">
+        <v>0</v>
+      </c>
+      <c r="S515" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T515" s="3">
+        <v>1</v>
+      </c>
+      <c r="U515" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="516" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A516" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E516" s="3">
+        <v>1</v>
+      </c>
+      <c r="F516" s="3">
+        <v>1</v>
+      </c>
+      <c r="G516" s="3">
+        <v>1</v>
+      </c>
+      <c r="H516" s="3">
+        <v>1</v>
+      </c>
+      <c r="I516" s="3">
+        <v>1</v>
+      </c>
+      <c r="J516" s="3">
+        <v>1</v>
+      </c>
+      <c r="K516" s="3">
+        <v>1</v>
+      </c>
+      <c r="L516" s="3">
+        <v>0</v>
+      </c>
+      <c r="M516" s="3">
+        <v>0</v>
+      </c>
+      <c r="N516" s="3">
+        <v>0</v>
+      </c>
+      <c r="O516" s="3">
+        <v>0</v>
+      </c>
+      <c r="P516" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q516" s="3">
+        <v>0</v>
+      </c>
+      <c r="R516" s="3">
+        <v>0</v>
+      </c>
+      <c r="S516" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T516" s="3">
+        <v>0</v>
+      </c>
+      <c r="U516" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="517" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A517" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E517" s="3">
+        <v>1</v>
+      </c>
+      <c r="F517" s="3">
+        <v>1</v>
+      </c>
+      <c r="G517" s="3">
+        <v>0</v>
+      </c>
+      <c r="H517" s="3">
+        <v>0</v>
+      </c>
+      <c r="I517" s="3">
+        <v>1</v>
+      </c>
+      <c r="J517" s="3">
+        <v>1</v>
+      </c>
+      <c r="K517" s="3">
+        <v>1</v>
+      </c>
+      <c r="L517" s="3">
+        <v>1</v>
+      </c>
+      <c r="M517" s="3">
+        <v>0</v>
+      </c>
+      <c r="N517" s="3">
+        <v>0</v>
+      </c>
+      <c r="O517" s="3">
+        <v>1</v>
+      </c>
+      <c r="P517" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q517" s="3">
+        <v>0</v>
+      </c>
+      <c r="R517" s="3">
+        <v>0</v>
+      </c>
+      <c r="S517" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T517" s="3">
+        <v>0</v>
+      </c>
+      <c r="U517" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="518" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A518" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E518" s="3">
+        <v>1</v>
+      </c>
+      <c r="F518" s="3">
+        <v>1</v>
+      </c>
+      <c r="G518" s="3">
+        <v>0</v>
+      </c>
+      <c r="H518" s="3">
+        <v>1</v>
+      </c>
+      <c r="I518" s="3">
+        <v>0</v>
+      </c>
+      <c r="J518" s="3">
+        <v>0</v>
+      </c>
+      <c r="K518" s="3">
+        <v>1</v>
+      </c>
+      <c r="L518" s="3">
+        <v>0</v>
+      </c>
+      <c r="M518" s="3">
+        <v>0</v>
+      </c>
+      <c r="N518" s="3">
+        <v>0</v>
+      </c>
+      <c r="O518" s="3">
+        <v>0</v>
+      </c>
+      <c r="P518" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q518" s="3">
+        <v>1</v>
+      </c>
+      <c r="R518" s="3">
+        <v>0</v>
+      </c>
+      <c r="S518" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T518" s="3">
+        <v>0</v>
+      </c>
+      <c r="U518" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="519" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A519" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E519" s="3">
+        <v>1</v>
+      </c>
+      <c r="F519" s="3">
+        <v>1</v>
+      </c>
+      <c r="G519" s="3">
+        <v>1</v>
+      </c>
+      <c r="H519" s="3">
+        <v>0</v>
+      </c>
+      <c r="I519" s="3">
+        <v>1</v>
+      </c>
+      <c r="J519" s="3">
+        <v>1</v>
+      </c>
+      <c r="K519" s="3">
+        <v>1</v>
+      </c>
+      <c r="L519" s="3">
+        <v>0</v>
+      </c>
+      <c r="M519" s="3">
+        <v>0</v>
+      </c>
+      <c r="N519" s="3">
+        <v>0</v>
+      </c>
+      <c r="O519" s="3">
+        <v>0</v>
+      </c>
+      <c r="P519" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q519" s="3">
+        <v>0</v>
+      </c>
+      <c r="R519" s="3">
+        <v>0</v>
+      </c>
+      <c r="S519" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T519" s="3">
+        <v>0</v>
+      </c>
+      <c r="U519" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="520" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A520" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E520" s="3">
+        <v>1</v>
+      </c>
+      <c r="F520" s="3">
+        <v>1</v>
+      </c>
+      <c r="G520" s="3">
+        <v>0</v>
+      </c>
+      <c r="H520" s="3">
+        <v>1</v>
+      </c>
+      <c r="I520" s="3">
+        <v>1</v>
+      </c>
+      <c r="J520" s="3">
+        <v>1</v>
+      </c>
+      <c r="K520" s="3">
+        <v>1</v>
+      </c>
+      <c r="L520" s="3">
+        <v>0</v>
+      </c>
+      <c r="M520" s="3">
+        <v>0</v>
+      </c>
+      <c r="N520" s="3">
+        <v>0</v>
+      </c>
+      <c r="O520" s="3">
+        <v>0</v>
+      </c>
+      <c r="P520" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q520" s="3">
+        <v>1</v>
+      </c>
+      <c r="R520" s="3">
+        <v>0</v>
+      </c>
+      <c r="S520" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T520" s="3">
+        <v>0</v>
+      </c>
+      <c r="U520" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="521" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A521" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E521" s="3">
+        <v>1</v>
+      </c>
+      <c r="F521" s="3">
+        <v>1</v>
+      </c>
+      <c r="G521" s="3">
+        <v>1</v>
+      </c>
+      <c r="H521" s="3">
+        <v>0</v>
+      </c>
+      <c r="I521" s="3">
+        <v>1</v>
+      </c>
+      <c r="J521" s="3">
+        <v>1</v>
+      </c>
+      <c r="K521" s="3">
+        <v>1</v>
+      </c>
+      <c r="L521" s="3">
+        <v>1</v>
+      </c>
+      <c r="M521" s="3">
+        <v>0</v>
+      </c>
+      <c r="N521" s="3">
+        <v>0</v>
+      </c>
+      <c r="O521" s="3">
+        <v>0</v>
+      </c>
+      <c r="P521" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q521" s="3">
+        <v>1</v>
+      </c>
+      <c r="R521" s="3">
+        <v>0</v>
+      </c>
+      <c r="S521" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T521" s="3">
+        <v>0</v>
+      </c>
+      <c r="U521" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="522" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A522" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E522" s="3">
+        <v>1</v>
+      </c>
+      <c r="F522" s="3">
+        <v>1</v>
+      </c>
+      <c r="G522" s="3">
+        <v>0</v>
+      </c>
+      <c r="H522" s="3">
+        <v>1</v>
+      </c>
+      <c r="I522" s="3">
+        <v>1</v>
+      </c>
+      <c r="J522" s="3">
+        <v>1</v>
+      </c>
+      <c r="K522" s="3">
+        <v>1</v>
+      </c>
+      <c r="L522" s="3">
+        <v>1</v>
+      </c>
+      <c r="M522" s="3">
+        <v>0</v>
+      </c>
+      <c r="N522" s="3">
+        <v>0</v>
+      </c>
+      <c r="O522" s="3">
+        <v>0</v>
+      </c>
+      <c r="P522" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q522" s="3">
+        <v>1</v>
+      </c>
+      <c r="R522" s="3">
+        <v>0</v>
+      </c>
+      <c r="S522" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T522" s="3">
+        <v>1</v>
+      </c>
+      <c r="U522" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="523" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A523" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E523" s="3">
+        <v>1</v>
+      </c>
+      <c r="F523" s="3">
+        <v>1</v>
+      </c>
+      <c r="G523" s="3">
+        <v>0</v>
+      </c>
+      <c r="H523" s="3">
+        <v>0</v>
+      </c>
+      <c r="I523" s="3">
+        <v>1</v>
+      </c>
+      <c r="J523" s="3">
+        <v>1</v>
+      </c>
+      <c r="K523" s="3">
+        <v>1</v>
+      </c>
+      <c r="L523" s="3">
+        <v>0</v>
+      </c>
+      <c r="M523" s="3">
+        <v>0</v>
+      </c>
+      <c r="N523" s="3">
+        <v>0</v>
+      </c>
+      <c r="O523" s="3">
+        <v>0</v>
+      </c>
+      <c r="P523" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q523" s="3">
+        <v>0</v>
+      </c>
+      <c r="R523" s="3">
+        <v>0</v>
+      </c>
+      <c r="S523" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T523" s="3">
+        <v>0</v>
+      </c>
+      <c r="U523" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="524" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A524" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E524" s="3">
+        <v>1</v>
+      </c>
+      <c r="F524" s="3">
+        <v>1</v>
+      </c>
+      <c r="G524" s="3">
+        <v>0</v>
+      </c>
+      <c r="H524" s="3">
+        <v>1</v>
+      </c>
+      <c r="I524" s="3">
+        <v>1</v>
+      </c>
+      <c r="J524" s="3">
+        <v>1</v>
+      </c>
+      <c r="K524" s="3">
+        <v>1</v>
+      </c>
+      <c r="L524" s="3">
+        <v>1</v>
+      </c>
+      <c r="M524" s="3">
+        <v>0</v>
+      </c>
+      <c r="N524" s="3">
+        <v>0</v>
+      </c>
+      <c r="O524" s="3">
+        <v>1</v>
+      </c>
+      <c r="P524" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q524" s="3">
+        <v>1</v>
+      </c>
+      <c r="R524" s="3">
+        <v>0</v>
+      </c>
+      <c r="S524" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T524" s="3">
+        <v>0</v>
+      </c>
+      <c r="U524" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="525" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A525" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E525" s="3">
+        <v>1</v>
+      </c>
+      <c r="F525" s="3">
+        <v>1</v>
+      </c>
+      <c r="G525" s="3">
+        <v>1</v>
+      </c>
+      <c r="H525" s="3">
+        <v>0</v>
+      </c>
+      <c r="I525" s="3">
+        <v>1</v>
+      </c>
+      <c r="J525" s="3">
+        <v>1</v>
+      </c>
+      <c r="K525" s="3">
+        <v>1</v>
+      </c>
+      <c r="L525" s="3">
+        <v>0</v>
+      </c>
+      <c r="M525" s="3">
+        <v>0</v>
+      </c>
+      <c r="N525" s="3">
+        <v>0</v>
+      </c>
+      <c r="O525" s="3">
+        <v>0</v>
+      </c>
+      <c r="P525" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q525" s="3">
+        <v>1</v>
+      </c>
+      <c r="R525" s="3">
+        <v>0</v>
+      </c>
+      <c r="S525" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T525" s="3">
+        <v>0</v>
+      </c>
+      <c r="U525" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="526" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A526" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E526" s="3">
+        <v>1</v>
+      </c>
+      <c r="F526" s="3">
+        <v>1</v>
+      </c>
+      <c r="G526" s="3">
+        <v>1</v>
+      </c>
+      <c r="H526" s="3">
+        <v>1</v>
+      </c>
+      <c r="I526" s="3">
+        <v>1</v>
+      </c>
+      <c r="J526" s="3">
+        <v>1</v>
+      </c>
+      <c r="K526" s="3">
+        <v>1</v>
+      </c>
+      <c r="L526" s="3">
+        <v>1</v>
+      </c>
+      <c r="M526" s="3">
+        <v>0</v>
+      </c>
+      <c r="N526" s="3">
+        <v>0</v>
+      </c>
+      <c r="O526" s="3">
+        <v>1</v>
+      </c>
+      <c r="P526" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q526" s="3">
+        <v>1</v>
+      </c>
+      <c r="R526" s="3">
+        <v>0</v>
+      </c>
+      <c r="S526" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T526" s="3">
+        <v>0</v>
+      </c>
+      <c r="U526" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="527" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A527" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E527" s="3">
+        <v>1</v>
+      </c>
+      <c r="F527" s="3">
+        <v>1</v>
+      </c>
+      <c r="G527" s="3">
+        <v>1</v>
+      </c>
+      <c r="H527" s="3">
+        <v>0</v>
+      </c>
+      <c r="I527" s="3">
+        <v>1</v>
+      </c>
+      <c r="J527" s="3">
+        <v>1</v>
+      </c>
+      <c r="K527" s="3">
+        <v>1</v>
+      </c>
+      <c r="L527" s="3">
+        <v>0</v>
+      </c>
+      <c r="M527" s="3">
+        <v>0</v>
+      </c>
+      <c r="N527" s="3">
+        <v>0</v>
+      </c>
+      <c r="O527" s="3">
+        <v>0</v>
+      </c>
+      <c r="P527" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q527" s="3">
+        <v>0</v>
+      </c>
+      <c r="R527" s="3">
+        <v>0</v>
+      </c>
+      <c r="S527" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T527" s="3">
+        <v>0</v>
+      </c>
+      <c r="U527" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="528" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A528" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E528" s="3">
+        <v>1</v>
+      </c>
+      <c r="F528" s="3">
+        <v>1</v>
+      </c>
+      <c r="G528" s="3">
+        <v>1</v>
+      </c>
+      <c r="H528" s="3">
+        <v>1</v>
+      </c>
+      <c r="I528" s="3">
+        <v>1</v>
+      </c>
+      <c r="J528" s="3">
+        <v>1</v>
+      </c>
+      <c r="K528" s="3">
+        <v>1</v>
+      </c>
+      <c r="L528" s="3">
+        <v>0</v>
+      </c>
+      <c r="M528" s="3">
+        <v>0</v>
+      </c>
+      <c r="N528" s="3">
+        <v>0</v>
+      </c>
+      <c r="O528" s="3">
+        <v>0</v>
+      </c>
+      <c r="P528" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q528" s="3">
+        <v>0</v>
+      </c>
+      <c r="R528" s="3">
+        <v>0</v>
+      </c>
+      <c r="S528" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T528" s="3">
+        <v>0</v>
+      </c>
+      <c r="U528" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="529" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A529" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E529" s="3">
+        <v>1</v>
+      </c>
+      <c r="F529" s="3">
+        <v>1</v>
+      </c>
+      <c r="G529" s="3">
+        <v>1</v>
+      </c>
+      <c r="H529" s="3">
+        <v>0</v>
+      </c>
+      <c r="I529" s="3">
+        <v>1</v>
+      </c>
+      <c r="J529" s="3">
+        <v>1</v>
+      </c>
+      <c r="K529" s="3">
+        <v>1</v>
+      </c>
+      <c r="L529" s="3">
+        <v>1</v>
+      </c>
+      <c r="M529" s="3">
+        <v>0</v>
+      </c>
+      <c r="N529" s="3">
+        <v>0</v>
+      </c>
+      <c r="O529" s="3">
+        <v>0</v>
+      </c>
+      <c r="P529" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q529" s="3">
+        <v>0</v>
+      </c>
+      <c r="R529" s="3">
+        <v>0</v>
+      </c>
+      <c r="S529" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T529" s="3">
+        <v>1</v>
+      </c>
+      <c r="U529" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="530" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A530" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E530" s="3">
+        <v>1</v>
+      </c>
+      <c r="F530" s="3">
+        <v>1</v>
+      </c>
+      <c r="G530" s="3">
+        <v>1</v>
+      </c>
+      <c r="H530" s="3">
+        <v>1</v>
+      </c>
+      <c r="I530" s="3">
+        <v>1</v>
+      </c>
+      <c r="J530" s="3">
+        <v>1</v>
+      </c>
+      <c r="K530" s="3">
+        <v>1</v>
+      </c>
+      <c r="L530" s="3">
+        <v>0</v>
+      </c>
+      <c r="M530" s="3">
+        <v>0</v>
+      </c>
+      <c r="N530" s="3">
+        <v>0</v>
+      </c>
+      <c r="O530" s="3">
+        <v>0</v>
+      </c>
+      <c r="P530" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q530" s="3">
+        <v>0</v>
+      </c>
+      <c r="R530" s="3">
+        <v>0</v>
+      </c>
+      <c r="S530" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T530" s="3">
+        <v>0</v>
+      </c>
+      <c r="U530" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="531" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A531" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E531" s="3">
+        <v>1</v>
+      </c>
+      <c r="F531" s="3">
+        <v>1</v>
+      </c>
+      <c r="G531" s="3">
+        <v>0</v>
+      </c>
+      <c r="H531" s="3">
+        <v>0</v>
+      </c>
+      <c r="I531" s="3">
+        <v>1</v>
+      </c>
+      <c r="J531" s="3">
+        <v>1</v>
+      </c>
+      <c r="K531" s="3">
+        <v>1</v>
+      </c>
+      <c r="L531" s="3">
+        <v>1</v>
+      </c>
+      <c r="M531" s="3">
+        <v>0</v>
+      </c>
+      <c r="N531" s="3">
+        <v>0</v>
+      </c>
+      <c r="O531" s="3">
+        <v>1</v>
+      </c>
+      <c r="P531" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q531" s="3">
+        <v>0</v>
+      </c>
+      <c r="R531" s="3">
+        <v>0</v>
+      </c>
+      <c r="S531" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T531" s="3">
+        <v>0</v>
+      </c>
+      <c r="U531" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="532" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A532" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E532" s="3">
+        <v>1</v>
+      </c>
+      <c r="F532" s="3">
+        <v>0</v>
+      </c>
+      <c r="G532" s="3">
+        <v>1</v>
+      </c>
+      <c r="H532" s="3">
+        <v>1</v>
+      </c>
+      <c r="I532" s="3">
+        <v>0</v>
+      </c>
+      <c r="J532" s="3">
+        <v>0</v>
+      </c>
+      <c r="K532" s="3">
+        <v>1</v>
+      </c>
+      <c r="L532" s="3">
+        <v>0</v>
+      </c>
+      <c r="M532" s="3">
+        <v>0</v>
+      </c>
+      <c r="N532" s="3">
+        <v>0</v>
+      </c>
+      <c r="O532" s="3">
+        <v>0</v>
+      </c>
+      <c r="P532" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q532" s="3">
+        <v>1</v>
+      </c>
+      <c r="R532" s="3">
+        <v>0</v>
+      </c>
+      <c r="S532" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T532" s="3">
+        <v>0</v>
+      </c>
+      <c r="U532" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="533" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A533" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E533" s="3">
+        <v>1</v>
+      </c>
+      <c r="F533" s="3">
+        <v>1</v>
+      </c>
+      <c r="G533" s="3">
+        <v>0</v>
+      </c>
+      <c r="H533" s="3">
+        <v>0</v>
+      </c>
+      <c r="I533" s="3">
+        <v>1</v>
+      </c>
+      <c r="J533" s="3">
+        <v>1</v>
+      </c>
+      <c r="K533" s="3">
+        <v>1</v>
+      </c>
+      <c r="L533" s="3">
+        <v>1</v>
+      </c>
+      <c r="M533" s="3">
+        <v>0</v>
+      </c>
+      <c r="N533" s="3">
+        <v>0</v>
+      </c>
+      <c r="O533" s="3">
+        <v>0</v>
+      </c>
+      <c r="P533" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q533" s="3">
+        <v>0</v>
+      </c>
+      <c r="R533" s="3">
+        <v>0</v>
+      </c>
+      <c r="S533" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T533" s="3">
+        <v>0</v>
+      </c>
+      <c r="U533" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A534" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E534" s="3">
+        <v>1</v>
+      </c>
+      <c r="F534" s="3">
+        <v>1</v>
+      </c>
+      <c r="G534" s="3">
+        <v>1</v>
+      </c>
+      <c r="H534" s="3">
+        <v>1</v>
+      </c>
+      <c r="I534" s="3">
+        <v>1</v>
+      </c>
+      <c r="J534" s="3">
+        <v>1</v>
+      </c>
+      <c r="K534" s="3">
+        <v>1</v>
+      </c>
+      <c r="L534" s="3">
+        <v>0</v>
+      </c>
+      <c r="M534" s="3">
+        <v>0</v>
+      </c>
+      <c r="N534" s="3">
+        <v>0</v>
+      </c>
+      <c r="O534" s="3">
+        <v>0</v>
+      </c>
+      <c r="P534" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q534" s="3">
+        <v>0</v>
+      </c>
+      <c r="R534" s="3">
+        <v>0</v>
+      </c>
+      <c r="S534" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T534" s="3">
+        <v>0</v>
+      </c>
+      <c r="U534" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A535" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E535" s="3">
+        <v>1</v>
+      </c>
+      <c r="F535" s="3">
+        <v>1</v>
+      </c>
+      <c r="G535" s="3">
+        <v>1</v>
+      </c>
+      <c r="H535" s="3">
+        <v>0</v>
+      </c>
+      <c r="I535" s="3">
+        <v>1</v>
+      </c>
+      <c r="J535" s="3">
+        <v>1</v>
+      </c>
+      <c r="K535" s="3">
+        <v>1</v>
+      </c>
+      <c r="L535" s="3">
+        <v>0</v>
+      </c>
+      <c r="M535" s="3">
+        <v>0</v>
+      </c>
+      <c r="N535" s="3">
+        <v>0</v>
+      </c>
+      <c r="O535" s="3">
+        <v>0</v>
+      </c>
+      <c r="P535" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q535" s="3">
+        <v>0</v>
+      </c>
+      <c r="R535" s="3">
+        <v>0</v>
+      </c>
+      <c r="S535" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T535" s="3">
+        <v>0</v>
+      </c>
+      <c r="U535" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A536" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E536" s="3">
+        <v>1</v>
+      </c>
+      <c r="F536" s="3">
+        <v>1</v>
+      </c>
+      <c r="G536" s="3">
+        <v>1</v>
+      </c>
+      <c r="H536" s="3">
+        <v>0</v>
+      </c>
+      <c r="I536" s="3">
+        <v>1</v>
+      </c>
+      <c r="J536" s="3">
+        <v>1</v>
+      </c>
+      <c r="K536" s="3">
+        <v>1</v>
+      </c>
+      <c r="L536" s="3">
+        <v>1</v>
+      </c>
+      <c r="M536" s="3">
+        <v>0</v>
+      </c>
+      <c r="N536" s="3">
+        <v>0</v>
+      </c>
+      <c r="O536" s="3">
+        <v>1</v>
+      </c>
+      <c r="P536" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q536" s="3">
+        <v>0</v>
+      </c>
+      <c r="R536" s="3">
+        <v>0</v>
+      </c>
+      <c r="S536" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T536" s="3">
+        <v>1</v>
+      </c>
+      <c r="U536" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="537" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A537" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E537" s="3">
+        <v>1</v>
+      </c>
+      <c r="F537" s="3">
+        <v>1</v>
+      </c>
+      <c r="G537" s="3">
+        <v>1</v>
+      </c>
+      <c r="H537" s="3">
+        <v>1</v>
+      </c>
+      <c r="I537" s="3">
+        <v>1</v>
+      </c>
+      <c r="J537" s="3">
+        <v>1</v>
+      </c>
+      <c r="K537" s="3">
+        <v>1</v>
+      </c>
+      <c r="L537" s="3">
+        <v>0</v>
+      </c>
+      <c r="M537" s="3">
+        <v>0</v>
+      </c>
+      <c r="N537" s="3">
+        <v>0</v>
+      </c>
+      <c r="O537" s="3">
+        <v>0</v>
+      </c>
+      <c r="P537" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q537" s="3">
+        <v>0</v>
+      </c>
+      <c r="R537" s="3">
+        <v>0</v>
+      </c>
+      <c r="S537" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T537" s="3">
+        <v>0</v>
+      </c>
+      <c r="U537" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="538" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A538" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E538" s="3">
+        <v>1</v>
+      </c>
+      <c r="F538" s="3">
+        <v>1</v>
+      </c>
+      <c r="G538" s="3">
+        <v>1</v>
+      </c>
+      <c r="H538" s="3">
+        <v>0</v>
+      </c>
+      <c r="I538" s="3">
+        <v>1</v>
+      </c>
+      <c r="J538" s="3">
+        <v>1</v>
+      </c>
+      <c r="K538" s="3">
+        <v>1</v>
+      </c>
+      <c r="L538" s="3">
+        <v>1</v>
+      </c>
+      <c r="M538" s="3">
+        <v>0</v>
+      </c>
+      <c r="N538" s="3">
+        <v>0</v>
+      </c>
+      <c r="O538" s="3">
+        <v>1</v>
+      </c>
+      <c r="P538" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q538" s="3">
+        <v>0</v>
+      </c>
+      <c r="R538" s="3">
+        <v>0</v>
+      </c>
+      <c r="S538" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T538" s="3">
+        <v>0</v>
+      </c>
+      <c r="U538" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="539" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A539" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E539" s="3">
+        <v>1</v>
+      </c>
+      <c r="F539" s="3">
+        <v>0</v>
+      </c>
+      <c r="G539" s="3">
+        <v>0</v>
+      </c>
+      <c r="H539" s="3">
+        <v>1</v>
+      </c>
+      <c r="I539" s="3">
+        <v>0</v>
+      </c>
+      <c r="J539" s="3">
+        <v>0</v>
+      </c>
+      <c r="K539" s="3">
+        <v>1</v>
+      </c>
+      <c r="L539" s="3">
+        <v>0</v>
+      </c>
+      <c r="M539" s="3">
+        <v>0</v>
+      </c>
+      <c r="N539" s="3">
+        <v>0</v>
+      </c>
+      <c r="O539" s="3">
+        <v>0</v>
+      </c>
+      <c r="P539" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q539" s="3">
+        <v>0</v>
+      </c>
+      <c r="R539" s="3">
+        <v>0</v>
+      </c>
+      <c r="S539" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T539" s="3">
+        <v>0</v>
+      </c>
+      <c r="U539" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="540" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A540" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E540" s="3">
+        <v>1</v>
+      </c>
+      <c r="F540" s="3">
+        <v>1</v>
+      </c>
+      <c r="G540" s="3">
+        <v>1</v>
+      </c>
+      <c r="H540" s="3">
+        <v>0</v>
+      </c>
+      <c r="I540" s="3">
+        <v>1</v>
+      </c>
+      <c r="J540" s="3">
+        <v>1</v>
+      </c>
+      <c r="K540" s="3">
+        <v>1</v>
+      </c>
+      <c r="L540" s="3">
+        <v>0</v>
+      </c>
+      <c r="M540" s="3">
+        <v>0</v>
+      </c>
+      <c r="N540" s="3">
+        <v>1</v>
+      </c>
+      <c r="O540" s="3">
+        <v>1</v>
+      </c>
+      <c r="P540" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q540" s="3">
+        <v>0</v>
+      </c>
+      <c r="R540" s="3">
+        <v>0</v>
+      </c>
+      <c r="S540" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T540" s="3">
+        <v>0</v>
+      </c>
+      <c r="U540" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="541" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A541" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E541" s="3">
+        <v>1</v>
+      </c>
+      <c r="F541" s="3">
+        <v>1</v>
+      </c>
+      <c r="G541" s="3">
+        <v>0</v>
+      </c>
+      <c r="H541" s="3">
+        <v>1</v>
+      </c>
+      <c r="I541" s="3">
+        <v>1</v>
+      </c>
+      <c r="J541" s="3">
+        <v>1</v>
+      </c>
+      <c r="K541" s="3">
+        <v>1</v>
+      </c>
+      <c r="L541" s="3">
+        <v>1</v>
+      </c>
+      <c r="M541" s="3">
+        <v>0</v>
+      </c>
+      <c r="N541" s="3">
+        <v>0</v>
+      </c>
+      <c r="O541" s="3">
+        <v>0</v>
+      </c>
+      <c r="P541" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q541" s="3">
+        <v>1</v>
+      </c>
+      <c r="R541" s="3">
+        <v>0</v>
+      </c>
+      <c r="S541" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T541" s="3">
+        <v>0</v>
+      </c>
+      <c r="U541" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="542" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A542" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E542" s="3">
+        <v>1</v>
+      </c>
+      <c r="F542" s="3">
+        <v>0</v>
+      </c>
+      <c r="G542" s="3">
+        <v>1</v>
+      </c>
+      <c r="H542" s="3">
+        <v>0</v>
+      </c>
+      <c r="I542" s="3">
+        <v>0</v>
+      </c>
+      <c r="J542" s="3">
+        <v>0</v>
+      </c>
+      <c r="K542" s="3">
+        <v>1</v>
+      </c>
+      <c r="L542" s="3">
+        <v>0</v>
+      </c>
+      <c r="M542" s="3">
+        <v>0</v>
+      </c>
+      <c r="N542" s="3">
+        <v>0</v>
+      </c>
+      <c r="O542" s="3">
+        <v>1</v>
+      </c>
+      <c r="P542" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q542" s="3">
+        <v>0</v>
+      </c>
+      <c r="R542" s="3">
+        <v>1</v>
+      </c>
+      <c r="S542" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T542" s="3">
+        <v>0</v>
+      </c>
+      <c r="U542" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="543" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A543" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E543" s="3">
+        <v>1</v>
+      </c>
+      <c r="F543" s="3">
+        <v>1</v>
+      </c>
+      <c r="G543" s="3">
+        <v>0</v>
+      </c>
+      <c r="H543" s="3">
+        <v>1</v>
+      </c>
+      <c r="I543" s="3">
+        <v>1</v>
+      </c>
+      <c r="J543" s="3">
+        <v>1</v>
+      </c>
+      <c r="K543" s="3">
+        <v>1</v>
+      </c>
+      <c r="L543" s="3">
+        <v>1</v>
+      </c>
+      <c r="M543" s="3">
+        <v>0</v>
+      </c>
+      <c r="N543" s="3">
+        <v>0</v>
+      </c>
+      <c r="O543" s="3">
+        <v>0</v>
+      </c>
+      <c r="P543" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q543" s="3">
+        <v>0</v>
+      </c>
+      <c r="R543" s="3">
+        <v>1</v>
+      </c>
+      <c r="S543" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T543" s="3">
+        <v>1</v>
+      </c>
+      <c r="U543" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="544" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A544" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E544" s="3">
+        <v>1</v>
+      </c>
+      <c r="F544" s="3">
+        <v>1</v>
+      </c>
+      <c r="G544" s="3">
+        <v>1</v>
+      </c>
+      <c r="H544" s="3">
+        <v>0</v>
+      </c>
+      <c r="I544" s="3">
+        <v>1</v>
+      </c>
+      <c r="J544" s="3">
+        <v>1</v>
+      </c>
+      <c r="K544" s="3">
+        <v>1</v>
+      </c>
+      <c r="L544" s="3">
+        <v>0</v>
+      </c>
+      <c r="M544" s="3">
+        <v>0</v>
+      </c>
+      <c r="N544" s="3">
+        <v>1</v>
+      </c>
+      <c r="O544" s="3">
+        <v>0</v>
+      </c>
+      <c r="P544" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q544" s="3">
+        <v>0</v>
+      </c>
+      <c r="R544" s="3">
+        <v>0</v>
+      </c>
+      <c r="S544" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T544" s="3">
+        <v>0</v>
+      </c>
+      <c r="U544" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="545" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A545" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E545" s="3">
+        <v>1</v>
+      </c>
+      <c r="F545" s="3">
+        <v>1</v>
+      </c>
+      <c r="G545" s="3">
+        <v>0</v>
+      </c>
+      <c r="H545" s="3">
+        <v>1</v>
+      </c>
+      <c r="I545" s="3">
+        <v>1</v>
+      </c>
+      <c r="J545" s="3">
+        <v>0</v>
+      </c>
+      <c r="K545" s="3">
+        <v>1</v>
+      </c>
+      <c r="L545" s="3">
+        <v>1</v>
+      </c>
+      <c r="M545" s="3">
+        <v>0</v>
+      </c>
+      <c r="N545" s="3">
+        <v>0</v>
+      </c>
+      <c r="O545" s="3">
+        <v>1</v>
+      </c>
+      <c r="P545" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q545" s="3">
+        <v>1</v>
+      </c>
+      <c r="R545" s="3">
+        <v>0</v>
+      </c>
+      <c r="S545" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T545" s="3">
+        <v>0</v>
+      </c>
+      <c r="U545" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="546" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A546" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E546" s="3">
+        <v>1</v>
+      </c>
+      <c r="F546" s="3">
+        <v>0</v>
+      </c>
+      <c r="G546" s="3">
+        <v>1</v>
+      </c>
+      <c r="H546" s="3">
+        <v>0</v>
+      </c>
+      <c r="I546" s="3">
+        <v>1</v>
+      </c>
+      <c r="J546" s="3">
+        <v>1</v>
+      </c>
+      <c r="K546" s="3">
+        <v>1</v>
+      </c>
+      <c r="L546" s="3">
+        <v>0</v>
+      </c>
+      <c r="M546" s="3">
+        <v>0</v>
+      </c>
+      <c r="N546" s="3">
+        <v>1</v>
+      </c>
+      <c r="O546" s="3">
+        <v>1</v>
+      </c>
+      <c r="P546" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q546" s="3">
+        <v>1</v>
+      </c>
+      <c r="R546" s="3">
+        <v>1</v>
+      </c>
+      <c r="S546" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T546" s="3">
+        <v>0</v>
+      </c>
+      <c r="U546" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="547" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A547" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E547" s="3">
+        <v>1</v>
+      </c>
+      <c r="F547" s="3">
+        <v>1</v>
+      </c>
+      <c r="G547" s="3">
+        <v>1</v>
+      </c>
+      <c r="H547" s="3">
+        <v>1</v>
+      </c>
+      <c r="I547" s="3">
+        <v>1</v>
+      </c>
+      <c r="J547" s="3">
+        <v>1</v>
+      </c>
+      <c r="K547" s="3">
+        <v>1</v>
+      </c>
+      <c r="L547" s="3">
+        <v>0</v>
+      </c>
+      <c r="M547" s="3">
+        <v>0</v>
+      </c>
+      <c r="N547" s="3">
+        <v>1</v>
+      </c>
+      <c r="O547" s="3">
+        <v>0</v>
+      </c>
+      <c r="P547" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q547" s="3">
+        <v>1</v>
+      </c>
+      <c r="R547" s="3">
+        <v>0</v>
+      </c>
+      <c r="S547" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T547" s="3">
+        <v>0</v>
+      </c>
+      <c r="U547" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="548" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A548" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E548" s="3">
+        <v>1</v>
+      </c>
+      <c r="F548" s="3">
+        <v>1</v>
+      </c>
+      <c r="G548" s="3">
+        <v>1</v>
+      </c>
+      <c r="H548" s="3">
+        <v>0</v>
+      </c>
+      <c r="I548" s="3">
+        <v>1</v>
+      </c>
+      <c r="J548" s="3">
+        <v>1</v>
+      </c>
+      <c r="K548" s="3">
+        <v>1</v>
+      </c>
+      <c r="L548" s="3">
+        <v>1</v>
+      </c>
+      <c r="M548" s="3">
+        <v>0</v>
+      </c>
+      <c r="N548" s="3">
+        <v>0</v>
+      </c>
+      <c r="O548" s="3">
+        <v>0</v>
+      </c>
+      <c r="P548" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q548" s="3">
+        <v>1</v>
+      </c>
+      <c r="R548" s="3">
+        <v>0</v>
+      </c>
+      <c r="S548" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T548" s="3">
+        <v>0</v>
+      </c>
+      <c r="U548" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="549" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A549" s="2">
+        <v>45354</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E549" s="3">
+        <v>1</v>
+      </c>
+      <c r="F549" s="3">
+        <v>1</v>
+      </c>
+      <c r="G549" s="3">
+        <v>1</v>
+      </c>
+      <c r="H549" s="3">
+        <v>1</v>
+      </c>
+      <c r="I549" s="3">
+        <v>1</v>
+      </c>
+      <c r="J549" s="3">
+        <v>1</v>
+      </c>
+      <c r="K549" s="3">
+        <v>1</v>
+      </c>
+      <c r="L549" s="3">
+        <v>0</v>
+      </c>
+      <c r="M549" s="3">
+        <v>0</v>
+      </c>
+      <c r="N549" s="3">
+        <v>1</v>
+      </c>
+      <c r="O549" s="3">
+        <v>1</v>
+      </c>
+      <c r="P549" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q549" s="3">
+        <v>1</v>
+      </c>
+      <c r="R549" s="3">
+        <v>1</v>
+      </c>
+      <c r="S549" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T549" s="3">
+        <v>0</v>
+      </c>
+      <c r="U549" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="550" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A550" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E550" s="3">
+        <v>1</v>
+      </c>
+      <c r="F550" s="3">
+        <v>1</v>
+      </c>
+      <c r="G550" s="3">
+        <v>0</v>
+      </c>
+      <c r="H550" s="3">
+        <v>0</v>
+      </c>
+      <c r="I550" s="3">
+        <v>0</v>
+      </c>
+      <c r="J550" s="3">
+        <v>0</v>
+      </c>
+      <c r="K550" s="3">
+        <v>1</v>
+      </c>
+      <c r="L550" s="3">
+        <v>1</v>
+      </c>
+      <c r="M550" s="3">
+        <v>0</v>
+      </c>
+      <c r="N550" s="3">
+        <v>1</v>
+      </c>
+      <c r="O550" s="3">
+        <v>0</v>
+      </c>
+      <c r="P550" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q550" s="3">
+        <v>1</v>
+      </c>
+      <c r="R550" s="3">
+        <v>0</v>
+      </c>
+      <c r="S550" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T550" s="3">
+        <v>1</v>
+      </c>
+      <c r="U550" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="551" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A551" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E551" s="3">
+        <v>1</v>
+      </c>
+      <c r="F551" s="3">
+        <v>1</v>
+      </c>
+      <c r="G551" s="3">
+        <v>1</v>
+      </c>
+      <c r="H551" s="3">
+        <v>1</v>
+      </c>
+      <c r="I551" s="3">
+        <v>1</v>
+      </c>
+      <c r="J551" s="3">
+        <v>1</v>
+      </c>
+      <c r="K551" s="3">
+        <v>1</v>
+      </c>
+      <c r="L551" s="3">
+        <v>0</v>
+      </c>
+      <c r="M551" s="3">
+        <v>0</v>
+      </c>
+      <c r="N551" s="3">
+        <v>1</v>
+      </c>
+      <c r="O551" s="3">
+        <v>1</v>
+      </c>
+      <c r="P551" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q551" s="3">
+        <v>0</v>
+      </c>
+      <c r="R551" s="3">
+        <v>0</v>
+      </c>
+      <c r="S551" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T551" s="3">
+        <v>0</v>
+      </c>
+      <c r="U551" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="552" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A552" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E552" s="3">
+        <v>1</v>
+      </c>
+      <c r="F552" s="3">
+        <v>1</v>
+      </c>
+      <c r="G552" s="3">
+        <v>1</v>
+      </c>
+      <c r="H552" s="3">
+        <v>0</v>
+      </c>
+      <c r="I552" s="3">
+        <v>1</v>
+      </c>
+      <c r="J552" s="3">
+        <v>1</v>
+      </c>
+      <c r="K552" s="3">
+        <v>1</v>
+      </c>
+      <c r="L552" s="3">
+        <v>1</v>
+      </c>
+      <c r="M552" s="3">
+        <v>0</v>
+      </c>
+      <c r="N552" s="3">
+        <v>0</v>
+      </c>
+      <c r="O552" s="3">
+        <v>1</v>
+      </c>
+      <c r="P552" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q552" s="3">
+        <v>1</v>
+      </c>
+      <c r="R552" s="3">
+        <v>0</v>
+      </c>
+      <c r="S552" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T552" s="3">
+        <v>0</v>
+      </c>
+      <c r="U552" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="553" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A553" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E553" s="3">
+        <v>1</v>
+      </c>
+      <c r="F553" s="3">
+        <v>1</v>
+      </c>
+      <c r="G553" s="3">
+        <v>1</v>
+      </c>
+      <c r="H553" s="3">
+        <v>1</v>
+      </c>
+      <c r="I553" s="3">
+        <v>1</v>
+      </c>
+      <c r="J553" s="3">
+        <v>1</v>
+      </c>
+      <c r="K553" s="3">
+        <v>1</v>
+      </c>
+      <c r="L553" s="3">
+        <v>1</v>
+      </c>
+      <c r="M553" s="3">
+        <v>0</v>
+      </c>
+      <c r="N553" s="3">
+        <v>0</v>
+      </c>
+      <c r="O553" s="3">
+        <v>0</v>
+      </c>
+      <c r="P553" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q553" s="3">
+        <v>1</v>
+      </c>
+      <c r="R553" s="3">
+        <v>1</v>
+      </c>
+      <c r="S553" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T553" s="3">
+        <v>0</v>
+      </c>
+      <c r="U553" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="554" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A554" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E554" s="3">
+        <v>1</v>
+      </c>
+      <c r="F554" s="3">
+        <v>1</v>
+      </c>
+      <c r="G554" s="3">
+        <v>1</v>
+      </c>
+      <c r="H554" s="3">
+        <v>0</v>
+      </c>
+      <c r="I554" s="3">
+        <v>1</v>
+      </c>
+      <c r="J554" s="3">
+        <v>1</v>
+      </c>
+      <c r="K554" s="3">
+        <v>1</v>
+      </c>
+      <c r="L554" s="3">
+        <v>0</v>
+      </c>
+      <c r="M554" s="3">
+        <v>0</v>
+      </c>
+      <c r="N554" s="3">
+        <v>1</v>
+      </c>
+      <c r="O554" s="3">
+        <v>1</v>
+      </c>
+      <c r="P554" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q554" s="3">
+        <v>0</v>
+      </c>
+      <c r="R554" s="3">
+        <v>0</v>
+      </c>
+      <c r="S554" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T554" s="3">
+        <v>0</v>
+      </c>
+      <c r="U554" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="555" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A555" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E555" s="3">
+        <v>1</v>
+      </c>
+      <c r="F555" s="3">
+        <v>1</v>
+      </c>
+      <c r="G555" s="3">
+        <v>0</v>
+      </c>
+      <c r="H555" s="3">
+        <v>1</v>
+      </c>
+      <c r="I555" s="3">
+        <v>1</v>
+      </c>
+      <c r="J555" s="3">
+        <v>1</v>
+      </c>
+      <c r="K555" s="3">
+        <v>1</v>
+      </c>
+      <c r="L555" s="3">
+        <v>0</v>
+      </c>
+      <c r="M555" s="3">
+        <v>0</v>
+      </c>
+      <c r="N555" s="3">
+        <v>1</v>
+      </c>
+      <c r="O555" s="3">
+        <v>0</v>
+      </c>
+      <c r="P555" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q555" s="3">
+        <v>0</v>
+      </c>
+      <c r="R555" s="3">
+        <v>0</v>
+      </c>
+      <c r="S555" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T555" s="3">
+        <v>0</v>
+      </c>
+      <c r="U555" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="556" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A556" s="2">
+        <v>45361</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E556" s="3">
+        <v>1</v>
+      </c>
+      <c r="F556" s="3">
+        <v>1</v>
+      </c>
+      <c r="G556" s="3">
+        <v>1</v>
+      </c>
+      <c r="H556" s="3">
+        <v>0</v>
+      </c>
+      <c r="I556" s="3">
+        <v>1</v>
+      </c>
+      <c r="J556" s="3">
+        <v>1</v>
+      </c>
+      <c r="K556" s="3">
+        <v>1</v>
+      </c>
+      <c r="L556" s="3">
+        <v>0</v>
+      </c>
+      <c r="M556" s="3">
+        <v>0</v>
+      </c>
+      <c r="N556" s="3">
+        <v>0</v>
+      </c>
+      <c r="O556" s="3">
+        <v>0</v>
+      </c>
+      <c r="P556" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q556" s="3">
+        <v>0</v>
+      </c>
+      <c r="R556" s="3">
+        <v>0</v>
+      </c>
+      <c r="S556" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T556" s="3">
+        <v>0</v>
+      </c>
+      <c r="U556" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="557" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A557" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E557" s="3">
+        <v>1</v>
+      </c>
+      <c r="F557" s="3">
+        <v>1</v>
+      </c>
+      <c r="G557" s="3">
+        <v>0</v>
+      </c>
+      <c r="H557" s="3">
+        <v>1</v>
+      </c>
+      <c r="I557" s="3">
+        <v>1</v>
+      </c>
+      <c r="J557" s="3">
+        <v>1</v>
+      </c>
+      <c r="K557" s="3">
+        <v>1</v>
+      </c>
+      <c r="L557" s="3">
+        <v>0</v>
+      </c>
+      <c r="M557" s="3">
+        <v>0</v>
+      </c>
+      <c r="N557" s="3">
+        <v>1</v>
+      </c>
+      <c r="O557" s="3">
+        <v>1</v>
+      </c>
+      <c r="P557" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q557" s="3">
+        <v>0</v>
+      </c>
+      <c r="R557" s="3">
+        <v>1</v>
+      </c>
+      <c r="S557" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T557" s="3">
+        <v>1</v>
+      </c>
+      <c r="U557" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="558" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A558" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E558" s="3">
+        <v>1</v>
+      </c>
+      <c r="F558" s="3">
+        <v>1</v>
+      </c>
+      <c r="G558" s="3">
+        <v>1</v>
+      </c>
+      <c r="H558" s="3">
+        <v>0</v>
+      </c>
+      <c r="I558" s="3">
+        <v>1</v>
+      </c>
+      <c r="J558" s="3">
+        <v>1</v>
+      </c>
+      <c r="K558" s="3">
+        <v>1</v>
+      </c>
+      <c r="L558" s="3">
+        <v>0</v>
+      </c>
+      <c r="M558" s="3">
+        <v>0</v>
+      </c>
+      <c r="N558" s="3">
+        <v>1</v>
+      </c>
+      <c r="O558" s="3">
+        <v>0</v>
+      </c>
+      <c r="P558" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q558" s="3">
+        <v>0</v>
+      </c>
+      <c r="R558" s="3">
+        <v>0</v>
+      </c>
+      <c r="S558" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T558" s="3">
+        <v>0</v>
+      </c>
+      <c r="U558" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="559" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A559" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E559" s="3">
+        <v>1</v>
+      </c>
+      <c r="F559" s="3">
+        <v>1</v>
+      </c>
+      <c r="G559" s="3">
+        <v>1</v>
+      </c>
+      <c r="H559" s="3">
+        <v>1</v>
+      </c>
+      <c r="I559" s="3">
+        <v>1</v>
+      </c>
+      <c r="J559" s="3">
+        <v>1</v>
+      </c>
+      <c r="K559" s="3">
+        <v>1</v>
+      </c>
+      <c r="L559" s="3">
+        <v>0</v>
+      </c>
+      <c r="M559" s="3">
+        <v>0</v>
+      </c>
+      <c r="N559" s="3">
+        <v>0</v>
+      </c>
+      <c r="O559" s="3">
+        <v>1</v>
+      </c>
+      <c r="P559" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q559" s="3">
+        <v>0</v>
+      </c>
+      <c r="R559" s="3">
+        <v>0</v>
+      </c>
+      <c r="S559" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T559" s="3">
+        <v>0</v>
+      </c>
+      <c r="U559" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="560" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A560" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E560" s="3">
+        <v>1</v>
+      </c>
+      <c r="F560" s="3">
+        <v>1</v>
+      </c>
+      <c r="G560" s="3">
+        <v>1</v>
+      </c>
+      <c r="H560" s="3">
+        <v>0</v>
+      </c>
+      <c r="I560" s="3">
+        <v>0</v>
+      </c>
+      <c r="J560" s="3">
+        <v>0</v>
+      </c>
+      <c r="K560" s="3">
+        <v>1</v>
+      </c>
+      <c r="L560" s="3">
+        <v>1</v>
+      </c>
+      <c r="M560" s="3">
+        <v>0</v>
+      </c>
+      <c r="N560" s="3">
+        <v>0</v>
+      </c>
+      <c r="O560" s="3">
+        <v>0</v>
+      </c>
+      <c r="P560" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q560" s="3">
+        <v>0</v>
+      </c>
+      <c r="R560" s="3">
+        <v>0</v>
+      </c>
+      <c r="S560" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T560" s="3">
+        <v>0</v>
+      </c>
+      <c r="U560" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="561" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A561" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E561" s="3">
+        <v>1</v>
+      </c>
+      <c r="F561" s="3">
+        <v>1</v>
+      </c>
+      <c r="G561" s="3">
+        <v>1</v>
+      </c>
+      <c r="H561" s="3">
+        <v>1</v>
+      </c>
+      <c r="I561" s="3">
+        <v>1</v>
+      </c>
+      <c r="J561" s="3">
+        <v>1</v>
+      </c>
+      <c r="K561" s="3">
+        <v>1</v>
+      </c>
+      <c r="L561" s="3">
+        <v>0</v>
+      </c>
+      <c r="M561" s="3">
+        <v>0</v>
+      </c>
+      <c r="N561" s="3">
+        <v>0</v>
+      </c>
+      <c r="O561" s="3">
+        <v>0</v>
+      </c>
+      <c r="P561" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q561" s="3">
+        <v>0</v>
+      </c>
+      <c r="R561" s="3">
+        <v>0</v>
+      </c>
+      <c r="S561" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T561" s="3">
+        <v>0</v>
+      </c>
+      <c r="U561" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="562" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E562" s="3">
+        <v>0</v>
+      </c>
+      <c r="F562" s="3">
+        <v>1</v>
+      </c>
+      <c r="G562" s="3">
+        <v>1</v>
+      </c>
+      <c r="H562" s="3">
+        <v>0</v>
+      </c>
+      <c r="I562" s="3">
+        <v>0</v>
+      </c>
+      <c r="J562" s="3">
+        <v>0</v>
+      </c>
+      <c r="K562" s="3">
+        <v>1</v>
+      </c>
+      <c r="L562" s="3">
+        <v>1</v>
+      </c>
+      <c r="M562" s="3">
+        <v>0</v>
+      </c>
+      <c r="N562" s="3">
+        <v>0</v>
+      </c>
+      <c r="O562" s="3">
+        <v>0</v>
+      </c>
+      <c r="P562" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q562" s="3">
+        <v>0</v>
+      </c>
+      <c r="R562" s="3">
+        <v>0</v>
+      </c>
+      <c r="S562" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T562" s="3">
+        <v>0</v>
+      </c>
+      <c r="U562" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="563" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A563" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E563" s="3">
+        <v>1</v>
+      </c>
+      <c r="F563" s="3">
+        <v>1</v>
+      </c>
+      <c r="G563" s="3">
+        <v>1</v>
+      </c>
+      <c r="H563" s="3">
+        <v>1</v>
+      </c>
+      <c r="I563" s="3">
+        <v>0</v>
+      </c>
+      <c r="J563" s="3">
+        <v>1</v>
+      </c>
+      <c r="K563" s="3">
+        <v>1</v>
+      </c>
+      <c r="L563" s="3">
+        <v>0</v>
+      </c>
+      <c r="M563" s="3">
+        <v>0</v>
+      </c>
+      <c r="N563" s="3">
+        <v>0</v>
+      </c>
+      <c r="O563" s="3">
+        <v>0</v>
+      </c>
+      <c r="P563" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q563" s="3">
+        <v>1</v>
+      </c>
+      <c r="R563" s="3">
+        <v>0</v>
+      </c>
+      <c r="S563" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T563" s="3">
+        <v>0</v>
+      </c>
+      <c r="U563" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="564" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A564" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E564" s="3">
+        <v>1</v>
+      </c>
+      <c r="F564" s="3">
+        <v>1</v>
+      </c>
+      <c r="G564" s="3">
+        <v>1</v>
+      </c>
+      <c r="H564" s="3">
+        <v>0</v>
+      </c>
+      <c r="I564" s="3">
+        <v>1</v>
+      </c>
+      <c r="J564" s="3">
+        <v>1</v>
+      </c>
+      <c r="K564" s="3">
+        <v>1</v>
+      </c>
+      <c r="L564" s="3">
+        <v>1</v>
+      </c>
+      <c r="M564" s="3">
+        <v>0</v>
+      </c>
+      <c r="N564" s="3">
+        <v>0</v>
+      </c>
+      <c r="O564" s="3">
+        <v>1</v>
+      </c>
+      <c r="P564" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q564" s="3">
+        <v>1</v>
+      </c>
+      <c r="R564" s="3">
+        <v>1</v>
+      </c>
+      <c r="S564" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T564" s="3">
+        <v>1</v>
+      </c>
+      <c r="U564" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="565" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A565" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E565" s="3">
+        <v>1</v>
+      </c>
+      <c r="F565" s="3">
+        <v>1</v>
+      </c>
+      <c r="G565" s="3">
+        <v>1</v>
+      </c>
+      <c r="H565" s="3">
+        <v>1</v>
+      </c>
+      <c r="I565" s="3">
+        <v>1</v>
+      </c>
+      <c r="J565" s="3">
+        <v>1</v>
+      </c>
+      <c r="K565" s="3">
+        <v>1</v>
+      </c>
+      <c r="L565" s="3">
+        <v>0</v>
+      </c>
+      <c r="M565" s="3">
+        <v>0</v>
+      </c>
+      <c r="N565" s="3">
+        <v>1</v>
+      </c>
+      <c r="O565" s="3">
+        <v>0</v>
+      </c>
+      <c r="P565" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q565" s="3">
+        <v>0</v>
+      </c>
+      <c r="R565" s="3">
+        <v>0</v>
+      </c>
+      <c r="S565" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T565" s="3">
+        <v>0</v>
+      </c>
+      <c r="U565" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="566" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A566" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E566" s="3">
+        <v>1</v>
+      </c>
+      <c r="F566" s="3">
+        <v>1</v>
+      </c>
+      <c r="G566" s="3">
+        <v>1</v>
+      </c>
+      <c r="H566" s="3">
+        <v>0</v>
+      </c>
+      <c r="I566" s="3">
+        <v>1</v>
+      </c>
+      <c r="J566" s="3">
+        <v>1</v>
+      </c>
+      <c r="K566" s="3">
+        <v>1</v>
+      </c>
+      <c r="L566" s="3">
+        <v>1</v>
+      </c>
+      <c r="M566" s="3">
+        <v>0</v>
+      </c>
+      <c r="N566" s="3">
+        <v>0</v>
+      </c>
+      <c r="O566" s="3">
+        <v>1</v>
+      </c>
+      <c r="P566" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q566" s="3">
+        <v>1</v>
+      </c>
+      <c r="R566" s="3">
+        <v>0</v>
+      </c>
+      <c r="S566" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T566" s="3">
+        <v>0</v>
+      </c>
+      <c r="U566" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="567" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A567" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E567" s="3">
+        <v>1</v>
+      </c>
+      <c r="F567" s="3">
+        <v>1</v>
+      </c>
+      <c r="G567" s="3">
+        <v>1</v>
+      </c>
+      <c r="H567" s="3">
+        <v>1</v>
+      </c>
+      <c r="I567" s="3">
+        <v>1</v>
+      </c>
+      <c r="J567" s="3">
+        <v>1</v>
+      </c>
+      <c r="K567" s="3">
+        <v>1</v>
+      </c>
+      <c r="L567" s="3">
+        <v>0</v>
+      </c>
+      <c r="M567" s="3">
+        <v>1</v>
+      </c>
+      <c r="N567" s="3">
+        <v>1</v>
+      </c>
+      <c r="O567" s="3">
+        <v>1</v>
+      </c>
+      <c r="P567" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q567" s="3">
+        <v>1</v>
+      </c>
+      <c r="R567" s="3">
+        <v>1</v>
+      </c>
+      <c r="S567" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T567" s="3">
+        <v>0</v>
+      </c>
+      <c r="U567" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="568" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A568" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E568" s="3">
+        <v>1</v>
+      </c>
+      <c r="F568" s="3">
+        <v>1</v>
+      </c>
+      <c r="G568" s="3">
+        <v>1</v>
+      </c>
+      <c r="H568" s="3">
+        <v>0</v>
+      </c>
+      <c r="I568" s="3">
+        <v>1</v>
+      </c>
+      <c r="J568" s="3">
+        <v>1</v>
+      </c>
+      <c r="K568" s="3">
+        <v>1</v>
+      </c>
+      <c r="L568" s="3">
+        <v>1</v>
+      </c>
+      <c r="M568" s="3">
+        <v>0</v>
+      </c>
+      <c r="N568" s="3">
+        <v>1</v>
+      </c>
+      <c r="O568" s="3">
+        <v>0</v>
+      </c>
+      <c r="P568" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q568" s="3">
+        <v>1</v>
+      </c>
+      <c r="R568" s="3">
+        <v>0</v>
+      </c>
+      <c r="S568" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T568" s="3">
+        <v>0</v>
+      </c>
+      <c r="U568" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="569" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A569" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E569" s="3">
+        <v>1</v>
+      </c>
+      <c r="F569" s="3">
+        <v>0</v>
+      </c>
+      <c r="G569" s="3">
+        <v>1</v>
+      </c>
+      <c r="H569" s="3">
+        <v>1</v>
+      </c>
+      <c r="I569" s="3">
+        <v>1</v>
+      </c>
+      <c r="J569" s="3">
+        <v>1</v>
+      </c>
+      <c r="K569" s="3">
+        <v>1</v>
+      </c>
+      <c r="L569" s="3">
+        <v>0</v>
+      </c>
+      <c r="M569" s="3">
+        <v>0</v>
+      </c>
+      <c r="N569" s="3">
+        <v>1</v>
+      </c>
+      <c r="O569" s="3">
+        <v>0</v>
+      </c>
+      <c r="P569" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q569" s="3">
+        <v>1</v>
+      </c>
+      <c r="R569" s="3">
+        <v>0</v>
+      </c>
+      <c r="S569" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T569" s="3">
+        <v>0</v>
+      </c>
+      <c r="U569" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A570" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E570" s="3">
+        <v>1</v>
+      </c>
+      <c r="F570" s="3">
+        <v>1</v>
+      </c>
+      <c r="G570" s="3">
+        <v>1</v>
+      </c>
+      <c r="H570" s="3">
+        <v>0</v>
+      </c>
+      <c r="I570" s="3">
+        <v>1</v>
+      </c>
+      <c r="J570" s="3">
+        <v>1</v>
+      </c>
+      <c r="K570" s="3">
+        <v>1</v>
+      </c>
+      <c r="L570" s="3">
+        <v>0</v>
+      </c>
+      <c r="M570" s="3">
+        <v>0</v>
+      </c>
+      <c r="N570" s="3">
+        <v>1</v>
+      </c>
+      <c r="O570" s="3">
+        <v>1</v>
+      </c>
+      <c r="P570" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q570" s="3">
+        <v>1</v>
+      </c>
+      <c r="R570" s="3">
+        <v>1</v>
+      </c>
+      <c r="S570" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T570" s="3">
+        <v>0</v>
+      </c>
+      <c r="U570" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A571" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E571" s="3">
+        <v>1</v>
+      </c>
+      <c r="F571" s="3">
+        <v>1</v>
+      </c>
+      <c r="G571" s="3">
+        <v>1</v>
+      </c>
+      <c r="H571" s="3">
+        <v>1</v>
+      </c>
+      <c r="I571" s="3">
+        <v>1</v>
+      </c>
+      <c r="J571" s="3">
+        <v>1</v>
+      </c>
+      <c r="K571" s="3">
+        <v>1</v>
+      </c>
+      <c r="L571" s="3">
+        <v>1</v>
+      </c>
+      <c r="M571" s="3">
+        <v>0</v>
+      </c>
+      <c r="N571" s="3">
+        <v>0</v>
+      </c>
+      <c r="O571" s="3">
+        <v>1</v>
+      </c>
+      <c r="P571" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q571" s="3">
+        <v>1</v>
+      </c>
+      <c r="R571" s="3">
+        <v>1</v>
+      </c>
+      <c r="S571" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T571" s="3">
+        <v>1</v>
+      </c>
+      <c r="U571" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A572" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E572" s="3">
+        <v>1</v>
+      </c>
+      <c r="F572" s="3">
+        <v>1</v>
+      </c>
+      <c r="G572" s="3">
+        <v>1</v>
+      </c>
+      <c r="H572" s="3">
+        <v>0</v>
+      </c>
+      <c r="I572" s="3">
+        <v>1</v>
+      </c>
+      <c r="J572" s="3">
+        <v>1</v>
+      </c>
+      <c r="K572" s="3">
+        <v>1</v>
+      </c>
+      <c r="L572" s="3">
+        <v>0</v>
+      </c>
+      <c r="M572" s="3">
+        <v>0</v>
+      </c>
+      <c r="N572" s="3">
+        <v>1</v>
+      </c>
+      <c r="O572" s="3">
+        <v>0</v>
+      </c>
+      <c r="P572" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q572" s="3">
+        <v>0</v>
+      </c>
+      <c r="R572" s="3">
+        <v>0</v>
+      </c>
+      <c r="S572" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T572" s="3">
+        <v>0</v>
+      </c>
+      <c r="U572" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A573" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E573" s="3">
+        <v>1</v>
+      </c>
+      <c r="F573" s="3">
+        <v>1</v>
+      </c>
+      <c r="G573" s="3">
+        <v>0</v>
+      </c>
+      <c r="H573" s="3">
+        <v>1</v>
+      </c>
+      <c r="I573" s="3">
+        <v>1</v>
+      </c>
+      <c r="J573" s="3">
+        <v>1</v>
+      </c>
+      <c r="K573" s="3">
+        <v>1</v>
+      </c>
+      <c r="L573" s="3">
+        <v>1</v>
+      </c>
+      <c r="M573" s="3">
+        <v>0</v>
+      </c>
+      <c r="N573" s="3">
+        <v>0</v>
+      </c>
+      <c r="O573" s="3">
+        <v>1</v>
+      </c>
+      <c r="P573" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q573" s="3">
+        <v>1</v>
+      </c>
+      <c r="R573" s="3">
+        <v>0</v>
+      </c>
+      <c r="S573" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T573" s="3">
+        <v>0</v>
+      </c>
+      <c r="U573" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A574" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E574" s="3">
+        <v>1</v>
+      </c>
+      <c r="F574" s="3">
+        <v>1</v>
+      </c>
+      <c r="G574" s="3">
+        <v>1</v>
+      </c>
+      <c r="H574" s="3">
+        <v>0</v>
+      </c>
+      <c r="I574" s="3">
+        <v>1</v>
+      </c>
+      <c r="J574" s="3">
+        <v>1</v>
+      </c>
+      <c r="K574" s="3">
+        <v>0</v>
+      </c>
+      <c r="L574" s="3">
+        <v>0</v>
+      </c>
+      <c r="M574" s="3">
+        <v>0</v>
+      </c>
+      <c r="N574" s="3">
+        <v>1</v>
+      </c>
+      <c r="O574" s="3">
+        <v>0</v>
+      </c>
+      <c r="P574" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q574" s="3">
+        <v>1</v>
+      </c>
+      <c r="R574" s="3">
+        <v>1</v>
+      </c>
+      <c r="S574" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T574" s="3">
+        <v>0</v>
+      </c>
+      <c r="U574" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A575" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E575" s="3">
+        <v>1</v>
+      </c>
+      <c r="F575" s="3">
+        <v>1</v>
+      </c>
+      <c r="G575" s="3">
+        <v>1</v>
+      </c>
+      <c r="H575" s="3">
+        <v>1</v>
+      </c>
+      <c r="I575" s="3">
+        <v>1</v>
+      </c>
+      <c r="J575" s="3">
+        <v>1</v>
+      </c>
+      <c r="K575" s="3">
+        <v>1</v>
+      </c>
+      <c r="L575" s="3">
+        <v>0</v>
+      </c>
+      <c r="M575" s="3">
+        <v>0</v>
+      </c>
+      <c r="N575" s="3">
+        <v>0</v>
+      </c>
+      <c r="O575" s="3">
+        <v>0</v>
+      </c>
+      <c r="P575" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q575" s="3">
+        <v>0</v>
+      </c>
+      <c r="R575" s="3">
+        <v>0</v>
+      </c>
+      <c r="S575" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T575" s="3">
+        <v>0</v>
+      </c>
+      <c r="U575" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A576" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E576" s="3">
+        <v>1</v>
+      </c>
+      <c r="F576" s="3">
+        <v>1</v>
+      </c>
+      <c r="G576" s="3">
+        <v>1</v>
+      </c>
+      <c r="H576" s="3">
+        <v>0</v>
+      </c>
+      <c r="I576" s="3">
+        <v>1</v>
+      </c>
+      <c r="J576" s="3">
+        <v>0</v>
+      </c>
+      <c r="K576" s="3">
+        <v>1</v>
+      </c>
+      <c r="L576" s="3">
+        <v>1</v>
+      </c>
+      <c r="M576" s="3">
+        <v>0</v>
+      </c>
+      <c r="N576" s="3">
+        <v>0</v>
+      </c>
+      <c r="O576" s="3">
+        <v>1</v>
+      </c>
+      <c r="P576" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q576" s="3">
+        <v>1</v>
+      </c>
+      <c r="R576" s="3">
+        <v>0</v>
+      </c>
+      <c r="S576" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T576" s="3">
+        <v>0</v>
+      </c>
+      <c r="U576" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="577" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A577" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E577" s="3">
+        <v>1</v>
+      </c>
+      <c r="F577" s="3">
+        <v>1</v>
+      </c>
+      <c r="G577" s="3">
+        <v>1</v>
+      </c>
+      <c r="H577" s="3">
+        <v>1</v>
+      </c>
+      <c r="I577" s="3">
+        <v>0</v>
+      </c>
+      <c r="J577" s="3">
+        <v>0</v>
+      </c>
+      <c r="K577" s="3">
+        <v>1</v>
+      </c>
+      <c r="L577" s="3">
+        <v>0</v>
+      </c>
+      <c r="M577" s="3">
+        <v>0</v>
+      </c>
+      <c r="N577" s="3">
+        <v>1</v>
+      </c>
+      <c r="O577" s="3">
+        <v>0</v>
+      </c>
+      <c r="P577" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q577" s="3">
+        <v>1</v>
+      </c>
+      <c r="R577" s="3">
+        <v>0</v>
+      </c>
+      <c r="S577" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T577" s="3">
+        <v>0</v>
+      </c>
+      <c r="U577" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="578" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A578" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E578" s="3">
+        <v>1</v>
+      </c>
+      <c r="F578" s="3">
+        <v>1</v>
+      </c>
+      <c r="G578" s="3">
+        <v>0</v>
+      </c>
+      <c r="H578" s="3">
+        <v>0</v>
+      </c>
+      <c r="I578" s="3">
+        <v>1</v>
+      </c>
+      <c r="J578" s="3">
+        <v>1</v>
+      </c>
+      <c r="K578" s="3">
+        <v>1</v>
+      </c>
+      <c r="L578" s="3">
+        <v>1</v>
+      </c>
+      <c r="M578" s="3">
+        <v>1</v>
+      </c>
+      <c r="N578" s="3">
+        <v>1</v>
+      </c>
+      <c r="O578" s="3">
+        <v>0</v>
+      </c>
+      <c r="P578" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q578" s="3">
+        <v>1</v>
+      </c>
+      <c r="R578" s="3">
+        <v>1</v>
+      </c>
+      <c r="S578" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T578" s="3">
+        <v>1</v>
+      </c>
+      <c r="U578" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="579" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A579" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E579" s="3">
+        <v>1</v>
+      </c>
+      <c r="F579" s="3">
+        <v>1</v>
+      </c>
+      <c r="G579" s="3">
+        <v>1</v>
+      </c>
+      <c r="H579" s="3">
+        <v>1</v>
+      </c>
+      <c r="I579" s="3">
+        <v>1</v>
+      </c>
+      <c r="J579" s="3">
+        <v>1</v>
+      </c>
+      <c r="K579" s="3">
+        <v>1</v>
+      </c>
+      <c r="L579" s="3">
+        <v>0</v>
+      </c>
+      <c r="M579" s="3">
+        <v>0</v>
+      </c>
+      <c r="N579" s="3">
+        <v>1</v>
+      </c>
+      <c r="O579" s="3">
+        <v>0</v>
+      </c>
+      <c r="P579" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q579" s="3">
+        <v>0</v>
+      </c>
+      <c r="R579" s="3">
+        <v>0</v>
+      </c>
+      <c r="S579" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T579" s="3">
+        <v>0</v>
+      </c>
+      <c r="U579" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="580" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A580" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E580" s="3">
+        <v>1</v>
+      </c>
+      <c r="F580" s="3">
+        <v>1</v>
+      </c>
+      <c r="G580" s="3">
+        <v>1</v>
+      </c>
+      <c r="H580" s="3">
+        <v>0</v>
+      </c>
+      <c r="I580" s="3">
+        <v>1</v>
+      </c>
+      <c r="J580" s="3">
+        <v>1</v>
+      </c>
+      <c r="K580" s="3">
+        <v>1</v>
+      </c>
+      <c r="L580" s="3">
+        <v>1</v>
+      </c>
+      <c r="M580" s="3">
+        <v>0</v>
+      </c>
+      <c r="N580" s="3">
+        <v>0</v>
+      </c>
+      <c r="O580" s="3">
+        <v>0</v>
+      </c>
+      <c r="P580" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q580" s="3">
+        <v>1</v>
+      </c>
+      <c r="R580" s="3">
+        <v>0</v>
+      </c>
+      <c r="S580" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T580" s="3">
+        <v>0</v>
+      </c>
+      <c r="U580" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="581" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A581" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E581" s="3">
+        <v>1</v>
+      </c>
+      <c r="F581" s="3">
+        <v>0</v>
+      </c>
+      <c r="G581" s="3">
+        <v>1</v>
+      </c>
+      <c r="H581" s="3">
+        <v>1</v>
+      </c>
+      <c r="I581" s="3">
+        <v>1</v>
+      </c>
+      <c r="J581" s="3">
+        <v>1</v>
+      </c>
+      <c r="K581" s="3">
+        <v>1</v>
+      </c>
+      <c r="L581" s="3">
+        <v>0</v>
+      </c>
+      <c r="M581" s="3">
+        <v>0</v>
+      </c>
+      <c r="N581" s="3">
+        <v>0</v>
+      </c>
+      <c r="O581" s="3">
+        <v>1</v>
+      </c>
+      <c r="P581" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q581" s="3">
+        <v>0</v>
+      </c>
+      <c r="R581" s="3">
+        <v>1</v>
+      </c>
+      <c r="S581" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T581" s="3">
+        <v>0</v>
+      </c>
+      <c r="U581" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="582" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A582" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E582" s="3">
+        <v>1</v>
+      </c>
+      <c r="F582" s="3">
+        <v>1</v>
+      </c>
+      <c r="G582" s="3">
+        <v>1</v>
+      </c>
+      <c r="H582" s="3">
+        <v>0</v>
+      </c>
+      <c r="I582" s="3">
+        <v>1</v>
+      </c>
+      <c r="J582" s="3">
+        <v>1</v>
+      </c>
+      <c r="K582" s="3">
+        <v>1</v>
+      </c>
+      <c r="L582" s="3">
+        <v>1</v>
+      </c>
+      <c r="M582" s="3">
+        <v>0</v>
+      </c>
+      <c r="N582" s="3">
+        <v>0</v>
+      </c>
+      <c r="O582" s="3">
+        <v>0</v>
+      </c>
+      <c r="P582" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q582" s="3">
+        <v>0</v>
+      </c>
+      <c r="R582" s="3">
+        <v>0</v>
+      </c>
+      <c r="S582" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T582" s="3">
+        <v>0</v>
+      </c>
+      <c r="U582" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="583" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A583" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E583" s="3">
+        <v>1</v>
+      </c>
+      <c r="F583" s="3">
+        <v>1</v>
+      </c>
+      <c r="G583" s="3">
+        <v>1</v>
+      </c>
+      <c r="H583" s="3">
+        <v>1</v>
+      </c>
+      <c r="I583" s="3">
+        <v>1</v>
+      </c>
+      <c r="J583" s="3">
+        <v>1</v>
+      </c>
+      <c r="K583" s="3">
+        <v>1</v>
+      </c>
+      <c r="L583" s="3">
+        <v>0</v>
+      </c>
+      <c r="M583" s="3">
+        <v>0</v>
+      </c>
+      <c r="N583" s="3">
+        <v>0</v>
+      </c>
+      <c r="O583" s="3">
+        <v>0</v>
+      </c>
+      <c r="P583" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q583" s="3">
+        <v>0</v>
+      </c>
+      <c r="R583" s="3">
+        <v>0</v>
+      </c>
+      <c r="S583" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T583" s="3">
+        <v>0</v>
+      </c>
+      <c r="U583" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="584" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A584" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E584" s="3">
+        <v>1</v>
+      </c>
+      <c r="F584" s="3">
+        <v>1</v>
+      </c>
+      <c r="G584" s="3">
+        <v>1</v>
+      </c>
+      <c r="H584" s="3">
+        <v>0</v>
+      </c>
+      <c r="I584" s="3">
+        <v>1</v>
+      </c>
+      <c r="J584" s="3">
+        <v>1</v>
+      </c>
+      <c r="K584" s="3">
+        <v>1</v>
+      </c>
+      <c r="L584" s="3">
+        <v>0</v>
+      </c>
+      <c r="M584" s="3">
+        <v>0</v>
+      </c>
+      <c r="N584" s="3">
+        <v>0</v>
+      </c>
+      <c r="O584" s="3">
+        <v>1</v>
+      </c>
+      <c r="P584" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q584" s="3">
+        <v>1</v>
+      </c>
+      <c r="R584" s="3">
+        <v>1</v>
+      </c>
+      <c r="S584" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T584" s="3">
+        <v>0</v>
+      </c>
+      <c r="U584" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="585" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A585" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E585" s="3">
+        <v>1</v>
+      </c>
+      <c r="F585" s="3">
+        <v>1</v>
+      </c>
+      <c r="G585" s="3">
+        <v>1</v>
+      </c>
+      <c r="H585" s="3">
+        <v>1</v>
+      </c>
+      <c r="I585" s="3">
+        <v>1</v>
+      </c>
+      <c r="J585" s="3">
+        <v>1</v>
+      </c>
+      <c r="K585" s="3">
+        <v>1</v>
+      </c>
+      <c r="L585" s="3">
+        <v>1</v>
+      </c>
+      <c r="M585" s="3">
+        <v>0</v>
+      </c>
+      <c r="N585" s="3">
+        <v>0</v>
+      </c>
+      <c r="O585" s="3">
+        <v>0</v>
+      </c>
+      <c r="P585" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q585" s="3">
+        <v>1</v>
+      </c>
+      <c r="R585" s="3">
+        <v>0</v>
+      </c>
+      <c r="S585" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T585" s="3">
+        <v>1</v>
+      </c>
+      <c r="U585" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="586" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A586" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E586" s="3">
+        <v>1</v>
+      </c>
+      <c r="F586" s="3">
+        <v>1</v>
+      </c>
+      <c r="G586" s="3">
+        <v>1</v>
+      </c>
+      <c r="H586" s="3">
+        <v>0</v>
+      </c>
+      <c r="I586" s="3">
+        <v>1</v>
+      </c>
+      <c r="J586" s="3">
+        <v>1</v>
+      </c>
+      <c r="K586" s="3">
+        <v>1</v>
+      </c>
+      <c r="L586" s="3">
+        <v>0</v>
+      </c>
+      <c r="M586" s="3">
+        <v>0</v>
+      </c>
+      <c r="N586" s="3">
+        <v>1</v>
+      </c>
+      <c r="O586" s="3">
+        <v>0</v>
+      </c>
+      <c r="P586" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q586" s="3">
+        <v>0</v>
+      </c>
+      <c r="R586" s="3">
+        <v>0</v>
+      </c>
+      <c r="S586" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T586" s="3">
+        <v>0</v>
+      </c>
+      <c r="U586" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="587" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A587" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E587" s="3">
+        <v>1</v>
+      </c>
+      <c r="F587" s="3">
+        <v>1</v>
+      </c>
+      <c r="G587" s="3">
+        <v>1</v>
+      </c>
+      <c r="H587" s="3">
+        <v>1</v>
+      </c>
+      <c r="I587" s="3">
+        <v>1</v>
+      </c>
+      <c r="J587" s="3">
+        <v>1</v>
+      </c>
+      <c r="K587" s="3">
+        <v>1</v>
+      </c>
+      <c r="L587" s="3">
+        <v>1</v>
+      </c>
+      <c r="M587" s="3">
+        <v>0</v>
+      </c>
+      <c r="N587" s="3">
+        <v>0</v>
+      </c>
+      <c r="O587" s="3">
+        <v>1</v>
+      </c>
+      <c r="P587" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q587" s="3">
+        <v>0</v>
+      </c>
+      <c r="R587" s="3">
+        <v>0</v>
+      </c>
+      <c r="S587" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T587" s="3">
+        <v>0</v>
+      </c>
+      <c r="U587" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="588" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A588" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E588" s="3">
+        <v>1</v>
+      </c>
+      <c r="F588" s="3">
+        <v>1</v>
+      </c>
+      <c r="G588" s="3">
+        <v>1</v>
+      </c>
+      <c r="H588" s="3">
+        <v>0</v>
+      </c>
+      <c r="I588" s="3">
+        <v>0</v>
+      </c>
+      <c r="J588" s="3">
+        <v>0</v>
+      </c>
+      <c r="K588" s="3">
+        <v>1</v>
+      </c>
+      <c r="L588" s="3">
+        <v>0</v>
+      </c>
+      <c r="M588" s="3">
+        <v>0</v>
+      </c>
+      <c r="N588" s="3">
+        <v>0</v>
+      </c>
+      <c r="O588" s="3">
+        <v>0</v>
+      </c>
+      <c r="P588" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q588" s="3">
+        <v>1</v>
+      </c>
+      <c r="R588" s="3">
+        <v>0</v>
+      </c>
+      <c r="S588" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T588" s="3">
+        <v>0</v>
+      </c>
+      <c r="U588" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="589" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A589" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E589" s="3">
+        <v>1</v>
+      </c>
+      <c r="F589" s="3">
+        <v>1</v>
+      </c>
+      <c r="G589" s="3">
+        <v>1</v>
+      </c>
+      <c r="H589" s="3">
+        <v>0</v>
+      </c>
+      <c r="I589" s="3">
+        <v>1</v>
+      </c>
+      <c r="J589" s="3">
+        <v>1</v>
+      </c>
+      <c r="K589" s="3">
+        <v>1</v>
+      </c>
+      <c r="L589" s="3">
+        <v>0</v>
+      </c>
+      <c r="M589" s="3">
+        <v>0</v>
+      </c>
+      <c r="N589" s="3">
+        <v>0</v>
+      </c>
+      <c r="O589" s="3">
+        <v>0</v>
+      </c>
+      <c r="P589" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q589" s="3">
+        <v>1</v>
+      </c>
+      <c r="R589" s="3">
+        <v>0</v>
+      </c>
+      <c r="S589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T589" s="3">
+        <v>0</v>
+      </c>
+      <c r="U589" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="590" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A590" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E590" s="3">
+        <v>1</v>
+      </c>
+      <c r="F590" s="3">
+        <v>1</v>
+      </c>
+      <c r="G590" s="3">
+        <v>1</v>
+      </c>
+      <c r="H590" s="3">
+        <v>1</v>
+      </c>
+      <c r="I590" s="3">
+        <v>1</v>
+      </c>
+      <c r="J590" s="3">
+        <v>1</v>
+      </c>
+      <c r="K590" s="3">
+        <v>1</v>
+      </c>
+      <c r="L590" s="3">
+        <v>1</v>
+      </c>
+      <c r="M590" s="3">
+        <v>0</v>
+      </c>
+      <c r="N590" s="3">
+        <v>0</v>
+      </c>
+      <c r="O590" s="3">
+        <v>0</v>
+      </c>
+      <c r="P590" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q590" s="3">
+        <v>1</v>
+      </c>
+      <c r="R590" s="3">
+        <v>0</v>
+      </c>
+      <c r="S590" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T590" s="3">
+        <v>0</v>
+      </c>
+      <c r="U590" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="591" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A591" s="2">
+        <v>45396</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E591" s="3">
+        <v>1</v>
+      </c>
+      <c r="F591" s="3">
+        <v>0</v>
+      </c>
+      <c r="G591" s="3">
+        <v>1</v>
+      </c>
+      <c r="H591" s="3">
+        <v>0</v>
+      </c>
+      <c r="I591" s="3">
+        <v>1</v>
+      </c>
+      <c r="J591" s="3">
+        <v>1</v>
+      </c>
+      <c r="K591" s="3">
+        <v>1</v>
+      </c>
+      <c r="L591" s="3">
+        <v>0</v>
+      </c>
+      <c r="M591" s="3">
+        <v>0</v>
+      </c>
+      <c r="N591" s="3">
+        <v>1</v>
+      </c>
+      <c r="O591" s="3">
+        <v>1</v>
+      </c>
+      <c r="P591" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q591" s="3">
+        <v>1</v>
+      </c>
+      <c r="R591" s="3">
+        <v>0</v>
+      </c>
+      <c r="S591" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T591" s="3">
+        <v>0</v>
+      </c>
+      <c r="U591" s="3">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Dailies Final.xlsx
+++ b/Data/Dailies Final.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U668"/>
+  <dimension ref="A1:U724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47307,6 +47307,3929 @@
         <v>96</v>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+      <c r="F669">
+        <v>0</v>
+      </c>
+      <c r="G669">
+        <v>1</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+      <c r="I669">
+        <v>1</v>
+      </c>
+      <c r="J669">
+        <v>1</v>
+      </c>
+      <c r="K669">
+        <v>1</v>
+      </c>
+      <c r="L669">
+        <v>1</v>
+      </c>
+      <c r="M669">
+        <v>0</v>
+      </c>
+      <c r="N669">
+        <v>1</v>
+      </c>
+      <c r="O669">
+        <v>0</v>
+      </c>
+      <c r="P669">
+        <v>1</v>
+      </c>
+      <c r="Q669">
+        <v>0</v>
+      </c>
+      <c r="R669">
+        <v>0</v>
+      </c>
+      <c r="S669" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T669">
+        <v>1</v>
+      </c>
+      <c r="U669">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="E670">
+        <v>1</v>
+      </c>
+      <c r="F670">
+        <v>1</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+      <c r="H670">
+        <v>1</v>
+      </c>
+      <c r="I670">
+        <v>1</v>
+      </c>
+      <c r="J670">
+        <v>1</v>
+      </c>
+      <c r="K670">
+        <v>1</v>
+      </c>
+      <c r="L670">
+        <v>0</v>
+      </c>
+      <c r="M670">
+        <v>0</v>
+      </c>
+      <c r="N670">
+        <v>1</v>
+      </c>
+      <c r="O670">
+        <v>0</v>
+      </c>
+      <c r="P670">
+        <v>0</v>
+      </c>
+      <c r="Q670">
+        <v>0</v>
+      </c>
+      <c r="R670">
+        <v>0</v>
+      </c>
+      <c r="S670" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T670">
+        <v>0</v>
+      </c>
+      <c r="U670">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>45476</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E671">
+        <v>1</v>
+      </c>
+      <c r="F671">
+        <v>1</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+      <c r="H671">
+        <v>0</v>
+      </c>
+      <c r="I671">
+        <v>1</v>
+      </c>
+      <c r="J671">
+        <v>1</v>
+      </c>
+      <c r="K671">
+        <v>1</v>
+      </c>
+      <c r="L671">
+        <v>0</v>
+      </c>
+      <c r="M671">
+        <v>0</v>
+      </c>
+      <c r="N671">
+        <v>0</v>
+      </c>
+      <c r="O671">
+        <v>0</v>
+      </c>
+      <c r="P671">
+        <v>0</v>
+      </c>
+      <c r="Q671">
+        <v>0</v>
+      </c>
+      <c r="R671">
+        <v>0</v>
+      </c>
+      <c r="S671" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T671">
+        <v>0</v>
+      </c>
+      <c r="U671">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>45477</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+      <c r="F672">
+        <v>0</v>
+      </c>
+      <c r="G672">
+        <v>0</v>
+      </c>
+      <c r="H672">
+        <v>1</v>
+      </c>
+      <c r="I672">
+        <v>0</v>
+      </c>
+      <c r="J672">
+        <v>0</v>
+      </c>
+      <c r="K672">
+        <v>1</v>
+      </c>
+      <c r="L672">
+        <v>0</v>
+      </c>
+      <c r="M672">
+        <v>0</v>
+      </c>
+      <c r="N672">
+        <v>0</v>
+      </c>
+      <c r="O672">
+        <v>0</v>
+      </c>
+      <c r="P672">
+        <v>0</v>
+      </c>
+      <c r="Q672">
+        <v>0</v>
+      </c>
+      <c r="R672">
+        <v>0</v>
+      </c>
+      <c r="S672" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T672">
+        <v>0</v>
+      </c>
+      <c r="U672">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E673">
+        <v>1</v>
+      </c>
+      <c r="F673">
+        <v>0</v>
+      </c>
+      <c r="G673">
+        <v>1</v>
+      </c>
+      <c r="H673">
+        <v>0</v>
+      </c>
+      <c r="I673">
+        <v>0</v>
+      </c>
+      <c r="J673">
+        <v>0</v>
+      </c>
+      <c r="K673">
+        <v>1</v>
+      </c>
+      <c r="L673">
+        <v>0</v>
+      </c>
+      <c r="M673">
+        <v>0</v>
+      </c>
+      <c r="N673">
+        <v>1</v>
+      </c>
+      <c r="O673">
+        <v>0</v>
+      </c>
+      <c r="P673">
+        <v>1</v>
+      </c>
+      <c r="Q673">
+        <v>0</v>
+      </c>
+      <c r="R673">
+        <v>0</v>
+      </c>
+      <c r="S673" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T673">
+        <v>0</v>
+      </c>
+      <c r="U673">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>45479</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+      <c r="F674">
+        <v>1</v>
+      </c>
+      <c r="G674">
+        <v>0</v>
+      </c>
+      <c r="H674">
+        <v>1</v>
+      </c>
+      <c r="I674">
+        <v>1</v>
+      </c>
+      <c r="J674">
+        <v>1</v>
+      </c>
+      <c r="K674">
+        <v>1</v>
+      </c>
+      <c r="L674">
+        <v>0</v>
+      </c>
+      <c r="M674">
+        <v>0</v>
+      </c>
+      <c r="N674">
+        <v>1</v>
+      </c>
+      <c r="O674">
+        <v>0</v>
+      </c>
+      <c r="P674">
+        <v>0</v>
+      </c>
+      <c r="Q674">
+        <v>0</v>
+      </c>
+      <c r="R674">
+        <v>0</v>
+      </c>
+      <c r="S674" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T674">
+        <v>0</v>
+      </c>
+      <c r="U674">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>45480</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="E675">
+        <v>1</v>
+      </c>
+      <c r="F675">
+        <v>1</v>
+      </c>
+      <c r="G675">
+        <v>0</v>
+      </c>
+      <c r="H675">
+        <v>0</v>
+      </c>
+      <c r="I675">
+        <v>1</v>
+      </c>
+      <c r="J675">
+        <v>0</v>
+      </c>
+      <c r="K675">
+        <v>1</v>
+      </c>
+      <c r="L675">
+        <v>0</v>
+      </c>
+      <c r="M675">
+        <v>0</v>
+      </c>
+      <c r="N675">
+        <v>0</v>
+      </c>
+      <c r="O675">
+        <v>0</v>
+      </c>
+      <c r="P675">
+        <v>1</v>
+      </c>
+      <c r="Q675">
+        <v>1</v>
+      </c>
+      <c r="R675">
+        <v>0</v>
+      </c>
+      <c r="S675" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T675">
+        <v>0</v>
+      </c>
+      <c r="U675">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>45481</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E676">
+        <v>1</v>
+      </c>
+      <c r="F676">
+        <v>1</v>
+      </c>
+      <c r="G676">
+        <v>1</v>
+      </c>
+      <c r="H676">
+        <v>1</v>
+      </c>
+      <c r="I676">
+        <v>1</v>
+      </c>
+      <c r="J676">
+        <v>1</v>
+      </c>
+      <c r="K676">
+        <v>1</v>
+      </c>
+      <c r="L676">
+        <v>0</v>
+      </c>
+      <c r="M676">
+        <v>0</v>
+      </c>
+      <c r="N676">
+        <v>1</v>
+      </c>
+      <c r="O676">
+        <v>1</v>
+      </c>
+      <c r="P676">
+        <v>0</v>
+      </c>
+      <c r="Q676">
+        <v>1</v>
+      </c>
+      <c r="R676">
+        <v>0</v>
+      </c>
+      <c r="S676" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T676">
+        <v>1</v>
+      </c>
+      <c r="U676">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2">
+        <v>45482</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E677">
+        <v>1</v>
+      </c>
+      <c r="F677">
+        <v>1</v>
+      </c>
+      <c r="G677">
+        <v>1</v>
+      </c>
+      <c r="H677">
+        <v>0</v>
+      </c>
+      <c r="I677">
+        <v>1</v>
+      </c>
+      <c r="J677">
+        <v>1</v>
+      </c>
+      <c r="K677">
+        <v>1</v>
+      </c>
+      <c r="L677">
+        <v>0</v>
+      </c>
+      <c r="M677">
+        <v>0</v>
+      </c>
+      <c r="N677">
+        <v>0</v>
+      </c>
+      <c r="O677">
+        <v>0</v>
+      </c>
+      <c r="P677">
+        <v>0</v>
+      </c>
+      <c r="Q677">
+        <v>0</v>
+      </c>
+      <c r="R677">
+        <v>0</v>
+      </c>
+      <c r="S677" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T677">
+        <v>0</v>
+      </c>
+      <c r="U677">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+      <c r="F678">
+        <v>1</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678">
+        <v>1</v>
+      </c>
+      <c r="I678">
+        <v>1</v>
+      </c>
+      <c r="J678">
+        <v>1</v>
+      </c>
+      <c r="K678">
+        <v>1</v>
+      </c>
+      <c r="L678">
+        <v>1</v>
+      </c>
+      <c r="M678">
+        <v>0</v>
+      </c>
+      <c r="N678">
+        <v>0</v>
+      </c>
+      <c r="O678">
+        <v>0</v>
+      </c>
+      <c r="P678">
+        <v>0</v>
+      </c>
+      <c r="Q678">
+        <v>0</v>
+      </c>
+      <c r="R678">
+        <v>0</v>
+      </c>
+      <c r="S678" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T678">
+        <v>0</v>
+      </c>
+      <c r="U678">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E679">
+        <v>1</v>
+      </c>
+      <c r="F679">
+        <v>1</v>
+      </c>
+      <c r="G679">
+        <v>1</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+      <c r="I679">
+        <v>1</v>
+      </c>
+      <c r="J679">
+        <v>1</v>
+      </c>
+      <c r="K679">
+        <v>1</v>
+      </c>
+      <c r="L679">
+        <v>0</v>
+      </c>
+      <c r="M679">
+        <v>0</v>
+      </c>
+      <c r="N679">
+        <v>0</v>
+      </c>
+      <c r="O679">
+        <v>1</v>
+      </c>
+      <c r="P679">
+        <v>0</v>
+      </c>
+      <c r="Q679">
+        <v>0</v>
+      </c>
+      <c r="R679">
+        <v>0</v>
+      </c>
+      <c r="S679" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T679">
+        <v>0</v>
+      </c>
+      <c r="U679">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+      <c r="F680">
+        <v>1</v>
+      </c>
+      <c r="G680">
+        <v>1</v>
+      </c>
+      <c r="H680">
+        <v>1</v>
+      </c>
+      <c r="I680">
+        <v>1</v>
+      </c>
+      <c r="J680">
+        <v>1</v>
+      </c>
+      <c r="K680">
+        <v>1</v>
+      </c>
+      <c r="L680">
+        <v>0</v>
+      </c>
+      <c r="M680">
+        <v>0</v>
+      </c>
+      <c r="N680">
+        <v>1</v>
+      </c>
+      <c r="O680">
+        <v>0</v>
+      </c>
+      <c r="P680">
+        <v>0</v>
+      </c>
+      <c r="Q680">
+        <v>0</v>
+      </c>
+      <c r="R680">
+        <v>0</v>
+      </c>
+      <c r="S680" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T680">
+        <v>0</v>
+      </c>
+      <c r="U680">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2">
+        <v>45486</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+      <c r="F681">
+        <v>1</v>
+      </c>
+      <c r="G681">
+        <v>1</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+      <c r="I681">
+        <v>0</v>
+      </c>
+      <c r="J681">
+        <v>0</v>
+      </c>
+      <c r="K681">
+        <v>1</v>
+      </c>
+      <c r="L681">
+        <v>1</v>
+      </c>
+      <c r="M681">
+        <v>0</v>
+      </c>
+      <c r="N681">
+        <v>1</v>
+      </c>
+      <c r="O681">
+        <v>0</v>
+      </c>
+      <c r="P681">
+        <v>0</v>
+      </c>
+      <c r="Q681">
+        <v>1</v>
+      </c>
+      <c r="R681">
+        <v>0</v>
+      </c>
+      <c r="S681" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T681">
+        <v>0</v>
+      </c>
+      <c r="U681">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2">
+        <v>45487</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+      <c r="F682">
+        <v>1</v>
+      </c>
+      <c r="G682">
+        <v>1</v>
+      </c>
+      <c r="H682">
+        <v>1</v>
+      </c>
+      <c r="I682">
+        <v>1</v>
+      </c>
+      <c r="J682">
+        <v>1</v>
+      </c>
+      <c r="K682">
+        <v>1</v>
+      </c>
+      <c r="L682">
+        <v>0</v>
+      </c>
+      <c r="M682">
+        <v>0</v>
+      </c>
+      <c r="N682">
+        <v>1</v>
+      </c>
+      <c r="O682">
+        <v>0</v>
+      </c>
+      <c r="P682">
+        <v>0</v>
+      </c>
+      <c r="Q682">
+        <v>0</v>
+      </c>
+      <c r="R682">
+        <v>0</v>
+      </c>
+      <c r="S682" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T682">
+        <v>0</v>
+      </c>
+      <c r="U682">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2">
+        <v>45488</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E683">
+        <v>1</v>
+      </c>
+      <c r="F683">
+        <v>1</v>
+      </c>
+      <c r="G683">
+        <v>1</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+      <c r="I683">
+        <v>1</v>
+      </c>
+      <c r="J683">
+        <v>1</v>
+      </c>
+      <c r="K683">
+        <v>1</v>
+      </c>
+      <c r="L683">
+        <v>1</v>
+      </c>
+      <c r="M683">
+        <v>0</v>
+      </c>
+      <c r="N683">
+        <v>1</v>
+      </c>
+      <c r="O683">
+        <v>0</v>
+      </c>
+      <c r="P683">
+        <v>0</v>
+      </c>
+      <c r="Q683">
+        <v>0</v>
+      </c>
+      <c r="R683">
+        <v>0</v>
+      </c>
+      <c r="S683" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T683">
+        <v>1</v>
+      </c>
+      <c r="U683">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+      <c r="F684">
+        <v>1</v>
+      </c>
+      <c r="G684">
+        <v>1</v>
+      </c>
+      <c r="H684">
+        <v>1</v>
+      </c>
+      <c r="I684">
+        <v>1</v>
+      </c>
+      <c r="J684">
+        <v>1</v>
+      </c>
+      <c r="K684">
+        <v>1</v>
+      </c>
+      <c r="L684">
+        <v>0</v>
+      </c>
+      <c r="M684">
+        <v>0</v>
+      </c>
+      <c r="N684">
+        <v>1</v>
+      </c>
+      <c r="O684">
+        <v>1</v>
+      </c>
+      <c r="P684">
+        <v>0</v>
+      </c>
+      <c r="Q684">
+        <v>0</v>
+      </c>
+      <c r="R684">
+        <v>0</v>
+      </c>
+      <c r="S684" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T684">
+        <v>0</v>
+      </c>
+      <c r="U684">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E685">
+        <v>1</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+      <c r="G685">
+        <v>1</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+      <c r="I685">
+        <v>1</v>
+      </c>
+      <c r="J685">
+        <v>1</v>
+      </c>
+      <c r="K685">
+        <v>1</v>
+      </c>
+      <c r="L685">
+        <v>1</v>
+      </c>
+      <c r="M685">
+        <v>0</v>
+      </c>
+      <c r="N685">
+        <v>0</v>
+      </c>
+      <c r="O685">
+        <v>1</v>
+      </c>
+      <c r="P685">
+        <v>0</v>
+      </c>
+      <c r="Q685">
+        <v>0</v>
+      </c>
+      <c r="R685">
+        <v>0</v>
+      </c>
+      <c r="S685" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T685">
+        <v>0</v>
+      </c>
+      <c r="U685">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+      <c r="F686">
+        <v>1</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686">
+        <v>1</v>
+      </c>
+      <c r="I686">
+        <v>1</v>
+      </c>
+      <c r="J686">
+        <v>1</v>
+      </c>
+      <c r="K686">
+        <v>1</v>
+      </c>
+      <c r="L686">
+        <v>0</v>
+      </c>
+      <c r="M686">
+        <v>0</v>
+      </c>
+      <c r="N686">
+        <v>1</v>
+      </c>
+      <c r="O686">
+        <v>0</v>
+      </c>
+      <c r="P686">
+        <v>0</v>
+      </c>
+      <c r="Q686">
+        <v>1</v>
+      </c>
+      <c r="R686">
+        <v>0</v>
+      </c>
+      <c r="S686" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T686">
+        <v>0</v>
+      </c>
+      <c r="U686">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E687">
+        <v>1</v>
+      </c>
+      <c r="F687">
+        <v>1</v>
+      </c>
+      <c r="G687">
+        <v>0</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+      <c r="I687">
+        <v>1</v>
+      </c>
+      <c r="J687">
+        <v>1</v>
+      </c>
+      <c r="K687">
+        <v>1</v>
+      </c>
+      <c r="L687">
+        <v>0</v>
+      </c>
+      <c r="M687">
+        <v>0</v>
+      </c>
+      <c r="N687">
+        <v>1</v>
+      </c>
+      <c r="O687">
+        <v>1</v>
+      </c>
+      <c r="P687">
+        <v>1</v>
+      </c>
+      <c r="Q687">
+        <v>0</v>
+      </c>
+      <c r="R687">
+        <v>0</v>
+      </c>
+      <c r="S687" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T687">
+        <v>0</v>
+      </c>
+      <c r="U687">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2">
+        <v>45493</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E688">
+        <v>1</v>
+      </c>
+      <c r="F688">
+        <v>1</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688">
+        <v>1</v>
+      </c>
+      <c r="I688">
+        <v>0</v>
+      </c>
+      <c r="J688">
+        <v>0</v>
+      </c>
+      <c r="K688">
+        <v>1</v>
+      </c>
+      <c r="L688">
+        <v>1</v>
+      </c>
+      <c r="M688">
+        <v>0</v>
+      </c>
+      <c r="N688">
+        <v>0</v>
+      </c>
+      <c r="O688">
+        <v>0</v>
+      </c>
+      <c r="P688">
+        <v>0</v>
+      </c>
+      <c r="Q688">
+        <v>1</v>
+      </c>
+      <c r="R688">
+        <v>0</v>
+      </c>
+      <c r="S688" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T688">
+        <v>0</v>
+      </c>
+      <c r="U688">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2">
+        <v>45494</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E689">
+        <v>1</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+      <c r="I689">
+        <v>0</v>
+      </c>
+      <c r="J689">
+        <v>0</v>
+      </c>
+      <c r="K689">
+        <v>1</v>
+      </c>
+      <c r="L689">
+        <v>0</v>
+      </c>
+      <c r="M689">
+        <v>0</v>
+      </c>
+      <c r="N689">
+        <v>1</v>
+      </c>
+      <c r="O689">
+        <v>0</v>
+      </c>
+      <c r="P689">
+        <v>0</v>
+      </c>
+      <c r="Q689">
+        <v>0</v>
+      </c>
+      <c r="R689">
+        <v>0</v>
+      </c>
+      <c r="S689" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T689">
+        <v>0</v>
+      </c>
+      <c r="U689">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E690">
+        <v>1</v>
+      </c>
+      <c r="F690">
+        <v>1</v>
+      </c>
+      <c r="G690">
+        <v>0</v>
+      </c>
+      <c r="H690">
+        <v>1</v>
+      </c>
+      <c r="I690">
+        <v>1</v>
+      </c>
+      <c r="J690">
+        <v>1</v>
+      </c>
+      <c r="K690">
+        <v>1</v>
+      </c>
+      <c r="L690">
+        <v>1</v>
+      </c>
+      <c r="M690">
+        <v>0</v>
+      </c>
+      <c r="N690">
+        <v>0</v>
+      </c>
+      <c r="O690">
+        <v>0</v>
+      </c>
+      <c r="P690">
+        <v>0</v>
+      </c>
+      <c r="Q690">
+        <v>0</v>
+      </c>
+      <c r="R690">
+        <v>0</v>
+      </c>
+      <c r="S690" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T690">
+        <v>1</v>
+      </c>
+      <c r="U690">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2">
+        <v>45496</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E691">
+        <v>1</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+      <c r="G691">
+        <v>0</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
+      </c>
+      <c r="I691">
+        <v>1</v>
+      </c>
+      <c r="J691">
+        <v>1</v>
+      </c>
+      <c r="K691">
+        <v>1</v>
+      </c>
+      <c r="L691">
+        <v>0</v>
+      </c>
+      <c r="M691">
+        <v>0</v>
+      </c>
+      <c r="N691">
+        <v>1</v>
+      </c>
+      <c r="O691">
+        <v>0</v>
+      </c>
+      <c r="P691">
+        <v>1</v>
+      </c>
+      <c r="Q691">
+        <v>0</v>
+      </c>
+      <c r="R691">
+        <v>0</v>
+      </c>
+      <c r="S691" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T691">
+        <v>0</v>
+      </c>
+      <c r="U691">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E692">
+        <v>1</v>
+      </c>
+      <c r="F692">
+        <v>1</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+      <c r="H692">
+        <v>1</v>
+      </c>
+      <c r="I692">
+        <v>1</v>
+      </c>
+      <c r="J692">
+        <v>1</v>
+      </c>
+      <c r="K692">
+        <v>1</v>
+      </c>
+      <c r="L692">
+        <v>1</v>
+      </c>
+      <c r="M692">
+        <v>0</v>
+      </c>
+      <c r="N692">
+        <v>0</v>
+      </c>
+      <c r="O692">
+        <v>1</v>
+      </c>
+      <c r="P692">
+        <v>0</v>
+      </c>
+      <c r="Q692">
+        <v>0</v>
+      </c>
+      <c r="R692">
+        <v>0</v>
+      </c>
+      <c r="S692" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T692">
+        <v>0</v>
+      </c>
+      <c r="U692">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E693">
+        <v>1</v>
+      </c>
+      <c r="F693">
+        <v>0</v>
+      </c>
+      <c r="G693">
+        <v>0</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+      <c r="I693">
+        <v>0</v>
+      </c>
+      <c r="J693">
+        <v>0</v>
+      </c>
+      <c r="K693">
+        <v>1</v>
+      </c>
+      <c r="L693">
+        <v>0</v>
+      </c>
+      <c r="M693">
+        <v>0</v>
+      </c>
+      <c r="N693">
+        <v>1</v>
+      </c>
+      <c r="O693">
+        <v>0</v>
+      </c>
+      <c r="P693">
+        <v>1</v>
+      </c>
+      <c r="Q693">
+        <v>0</v>
+      </c>
+      <c r="R693">
+        <v>0</v>
+      </c>
+      <c r="S693" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T693">
+        <v>0</v>
+      </c>
+      <c r="U693">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E694">
+        <v>1</v>
+      </c>
+      <c r="F694">
+        <v>1</v>
+      </c>
+      <c r="G694">
+        <v>0</v>
+      </c>
+      <c r="H694">
+        <v>1</v>
+      </c>
+      <c r="I694">
+        <v>1</v>
+      </c>
+      <c r="J694">
+        <v>1</v>
+      </c>
+      <c r="K694">
+        <v>1</v>
+      </c>
+      <c r="L694">
+        <v>0</v>
+      </c>
+      <c r="M694">
+        <v>0</v>
+      </c>
+      <c r="N694">
+        <v>1</v>
+      </c>
+      <c r="O694">
+        <v>1</v>
+      </c>
+      <c r="P694">
+        <v>0</v>
+      </c>
+      <c r="Q694">
+        <v>0</v>
+      </c>
+      <c r="R694">
+        <v>0</v>
+      </c>
+      <c r="S694" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T694">
+        <v>0</v>
+      </c>
+      <c r="U694">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2">
+        <v>45500</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="E695">
+        <v>1</v>
+      </c>
+      <c r="F695">
+        <v>1</v>
+      </c>
+      <c r="G695">
+        <v>0</v>
+      </c>
+      <c r="H695">
+        <v>0</v>
+      </c>
+      <c r="I695">
+        <v>0</v>
+      </c>
+      <c r="J695">
+        <v>0</v>
+      </c>
+      <c r="K695">
+        <v>1</v>
+      </c>
+      <c r="L695">
+        <v>1</v>
+      </c>
+      <c r="M695">
+        <v>0</v>
+      </c>
+      <c r="N695">
+        <v>0</v>
+      </c>
+      <c r="O695">
+        <v>0</v>
+      </c>
+      <c r="P695">
+        <v>0</v>
+      </c>
+      <c r="Q695">
+        <v>1</v>
+      </c>
+      <c r="R695">
+        <v>0</v>
+      </c>
+      <c r="S695" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T695">
+        <v>0</v>
+      </c>
+      <c r="U695">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2">
+        <v>45501</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+      <c r="F696">
+        <v>0</v>
+      </c>
+      <c r="G696">
+        <v>0</v>
+      </c>
+      <c r="H696">
+        <v>1</v>
+      </c>
+      <c r="I696">
+        <v>1</v>
+      </c>
+      <c r="J696">
+        <v>1</v>
+      </c>
+      <c r="K696">
+        <v>1</v>
+      </c>
+      <c r="L696">
+        <v>0</v>
+      </c>
+      <c r="M696">
+        <v>0</v>
+      </c>
+      <c r="N696">
+        <v>1</v>
+      </c>
+      <c r="O696">
+        <v>0</v>
+      </c>
+      <c r="P696">
+        <v>0</v>
+      </c>
+      <c r="Q696">
+        <v>0</v>
+      </c>
+      <c r="R696">
+        <v>0</v>
+      </c>
+      <c r="S696" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T696">
+        <v>0</v>
+      </c>
+      <c r="U696">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="E697">
+        <v>1</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+      <c r="G697">
+        <v>0</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+      <c r="I697">
+        <v>1</v>
+      </c>
+      <c r="J697">
+        <v>1</v>
+      </c>
+      <c r="K697">
+        <v>1</v>
+      </c>
+      <c r="L697">
+        <v>1</v>
+      </c>
+      <c r="M697">
+        <v>0</v>
+      </c>
+      <c r="N697">
+        <v>0</v>
+      </c>
+      <c r="O697">
+        <v>0</v>
+      </c>
+      <c r="P697">
+        <v>0</v>
+      </c>
+      <c r="Q697">
+        <v>1</v>
+      </c>
+      <c r="R697">
+        <v>0</v>
+      </c>
+      <c r="S697" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T697">
+        <v>1</v>
+      </c>
+      <c r="U697">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E698">
+        <v>1</v>
+      </c>
+      <c r="F698">
+        <v>1</v>
+      </c>
+      <c r="G698">
+        <v>1</v>
+      </c>
+      <c r="H698">
+        <v>1</v>
+      </c>
+      <c r="I698">
+        <v>1</v>
+      </c>
+      <c r="J698">
+        <v>1</v>
+      </c>
+      <c r="K698">
+        <v>1</v>
+      </c>
+      <c r="L698">
+        <v>0</v>
+      </c>
+      <c r="M698">
+        <v>0</v>
+      </c>
+      <c r="N698">
+        <v>1</v>
+      </c>
+      <c r="O698">
+        <v>0</v>
+      </c>
+      <c r="P698">
+        <v>0</v>
+      </c>
+      <c r="Q698">
+        <v>0</v>
+      </c>
+      <c r="R698">
+        <v>0</v>
+      </c>
+      <c r="S698" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T698">
+        <v>0</v>
+      </c>
+      <c r="U698">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E699">
+        <v>1</v>
+      </c>
+      <c r="F699">
+        <v>1</v>
+      </c>
+      <c r="G699">
+        <v>1</v>
+      </c>
+      <c r="H699">
+        <v>0</v>
+      </c>
+      <c r="I699">
+        <v>1</v>
+      </c>
+      <c r="J699">
+        <v>1</v>
+      </c>
+      <c r="K699">
+        <v>1</v>
+      </c>
+      <c r="L699">
+        <v>0</v>
+      </c>
+      <c r="M699">
+        <v>0</v>
+      </c>
+      <c r="N699">
+        <v>0</v>
+      </c>
+      <c r="O699">
+        <v>1</v>
+      </c>
+      <c r="P699">
+        <v>0</v>
+      </c>
+      <c r="Q699">
+        <v>0</v>
+      </c>
+      <c r="R699">
+        <v>0</v>
+      </c>
+      <c r="S699" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T699">
+        <v>0</v>
+      </c>
+      <c r="U699">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+      <c r="F700">
+        <v>0</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+      <c r="H700">
+        <v>1</v>
+      </c>
+      <c r="I700">
+        <v>1</v>
+      </c>
+      <c r="J700">
+        <v>1</v>
+      </c>
+      <c r="K700">
+        <v>1</v>
+      </c>
+      <c r="L700">
+        <v>1</v>
+      </c>
+      <c r="M700">
+        <v>0</v>
+      </c>
+      <c r="N700">
+        <v>0</v>
+      </c>
+      <c r="O700">
+        <v>0</v>
+      </c>
+      <c r="P700">
+        <v>1</v>
+      </c>
+      <c r="Q700">
+        <v>0</v>
+      </c>
+      <c r="R700">
+        <v>0</v>
+      </c>
+      <c r="S700" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T700">
+        <v>0</v>
+      </c>
+      <c r="U700">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2">
+        <v>45506</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+      <c r="F701">
+        <v>1</v>
+      </c>
+      <c r="G701">
+        <v>1</v>
+      </c>
+      <c r="H701">
+        <v>0</v>
+      </c>
+      <c r="I701">
+        <v>1</v>
+      </c>
+      <c r="J701">
+        <v>1</v>
+      </c>
+      <c r="K701">
+        <v>1</v>
+      </c>
+      <c r="L701">
+        <v>0</v>
+      </c>
+      <c r="M701">
+        <v>0</v>
+      </c>
+      <c r="N701">
+        <v>0</v>
+      </c>
+      <c r="O701">
+        <v>0</v>
+      </c>
+      <c r="P701">
+        <v>0</v>
+      </c>
+      <c r="Q701">
+        <v>0</v>
+      </c>
+      <c r="R701">
+        <v>0</v>
+      </c>
+      <c r="S701" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T701">
+        <v>0</v>
+      </c>
+      <c r="U701">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2">
+        <v>45507</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+      <c r="F702">
+        <v>1</v>
+      </c>
+      <c r="G702">
+        <v>0</v>
+      </c>
+      <c r="H702">
+        <v>1</v>
+      </c>
+      <c r="I702">
+        <v>1</v>
+      </c>
+      <c r="J702">
+        <v>1</v>
+      </c>
+      <c r="K702">
+        <v>1</v>
+      </c>
+      <c r="L702">
+        <v>0</v>
+      </c>
+      <c r="M702">
+        <v>0</v>
+      </c>
+      <c r="N702">
+        <v>1</v>
+      </c>
+      <c r="O702">
+        <v>0</v>
+      </c>
+      <c r="P702">
+        <v>0</v>
+      </c>
+      <c r="Q702">
+        <v>0</v>
+      </c>
+      <c r="R702">
+        <v>0</v>
+      </c>
+      <c r="S702" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T702">
+        <v>0</v>
+      </c>
+      <c r="U702">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2">
+        <v>45508</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+      <c r="F703">
+        <v>0</v>
+      </c>
+      <c r="G703">
+        <v>1</v>
+      </c>
+      <c r="H703">
+        <v>0</v>
+      </c>
+      <c r="I703">
+        <v>0</v>
+      </c>
+      <c r="J703">
+        <v>0</v>
+      </c>
+      <c r="K703">
+        <v>1</v>
+      </c>
+      <c r="L703">
+        <v>0</v>
+      </c>
+      <c r="M703">
+        <v>0</v>
+      </c>
+      <c r="N703">
+        <v>0</v>
+      </c>
+      <c r="O703">
+        <v>0</v>
+      </c>
+      <c r="P703">
+        <v>1</v>
+      </c>
+      <c r="Q703">
+        <v>0</v>
+      </c>
+      <c r="R703">
+        <v>0</v>
+      </c>
+      <c r="S703" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T703">
+        <v>0</v>
+      </c>
+      <c r="U703">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2">
+        <v>45509</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+      <c r="F704">
+        <v>1</v>
+      </c>
+      <c r="G704">
+        <v>1</v>
+      </c>
+      <c r="H704">
+        <v>1</v>
+      </c>
+      <c r="I704">
+        <v>1</v>
+      </c>
+      <c r="J704">
+        <v>1</v>
+      </c>
+      <c r="K704">
+        <v>1</v>
+      </c>
+      <c r="L704">
+        <v>1</v>
+      </c>
+      <c r="M704">
+        <v>1</v>
+      </c>
+      <c r="N704">
+        <v>0</v>
+      </c>
+      <c r="O704">
+        <v>1</v>
+      </c>
+      <c r="P704">
+        <v>0</v>
+      </c>
+      <c r="Q704">
+        <v>0</v>
+      </c>
+      <c r="R704">
+        <v>0</v>
+      </c>
+      <c r="S704" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T704">
+        <v>1</v>
+      </c>
+      <c r="U704">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2">
+        <v>45510</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+      <c r="G705">
+        <v>1</v>
+      </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
+      <c r="I705">
+        <v>1</v>
+      </c>
+      <c r="J705">
+        <v>0</v>
+      </c>
+      <c r="K705">
+        <v>1</v>
+      </c>
+      <c r="L705">
+        <v>0</v>
+      </c>
+      <c r="M705">
+        <v>0</v>
+      </c>
+      <c r="N705">
+        <v>1</v>
+      </c>
+      <c r="O705">
+        <v>0</v>
+      </c>
+      <c r="P705">
+        <v>0</v>
+      </c>
+      <c r="Q705">
+        <v>0</v>
+      </c>
+      <c r="R705">
+        <v>0</v>
+      </c>
+      <c r="S705" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T705">
+        <v>0</v>
+      </c>
+      <c r="U705">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2">
+        <v>45511</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+      <c r="F706">
+        <v>1</v>
+      </c>
+      <c r="G706">
+        <v>1</v>
+      </c>
+      <c r="H706">
+        <v>1</v>
+      </c>
+      <c r="I706">
+        <v>1</v>
+      </c>
+      <c r="J706">
+        <v>1</v>
+      </c>
+      <c r="K706">
+        <v>1</v>
+      </c>
+      <c r="L706">
+        <v>0</v>
+      </c>
+      <c r="M706">
+        <v>1</v>
+      </c>
+      <c r="N706">
+        <v>0</v>
+      </c>
+      <c r="O706">
+        <v>1</v>
+      </c>
+      <c r="P706">
+        <v>0</v>
+      </c>
+      <c r="Q706">
+        <v>0</v>
+      </c>
+      <c r="R706">
+        <v>0</v>
+      </c>
+      <c r="S706" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T706">
+        <v>0</v>
+      </c>
+      <c r="U706">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2">
+        <v>45512</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E707">
+        <v>1</v>
+      </c>
+      <c r="F707">
+        <v>0</v>
+      </c>
+      <c r="G707">
+        <v>1</v>
+      </c>
+      <c r="H707">
+        <v>0</v>
+      </c>
+      <c r="I707">
+        <v>0</v>
+      </c>
+      <c r="J707">
+        <v>0</v>
+      </c>
+      <c r="K707">
+        <v>1</v>
+      </c>
+      <c r="L707">
+        <v>0</v>
+      </c>
+      <c r="M707">
+        <v>0</v>
+      </c>
+      <c r="N707">
+        <v>0</v>
+      </c>
+      <c r="O707">
+        <v>0</v>
+      </c>
+      <c r="P707">
+        <v>1</v>
+      </c>
+      <c r="Q707">
+        <v>0</v>
+      </c>
+      <c r="R707">
+        <v>0</v>
+      </c>
+      <c r="S707" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T707">
+        <v>0</v>
+      </c>
+      <c r="U707">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2">
+        <v>45513</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+      <c r="F708">
+        <v>1</v>
+      </c>
+      <c r="G708">
+        <v>1</v>
+      </c>
+      <c r="H708">
+        <v>1</v>
+      </c>
+      <c r="I708">
+        <v>1</v>
+      </c>
+      <c r="J708">
+        <v>1</v>
+      </c>
+      <c r="K708">
+        <v>1</v>
+      </c>
+      <c r="L708">
+        <v>0</v>
+      </c>
+      <c r="M708">
+        <v>0</v>
+      </c>
+      <c r="N708">
+        <v>1</v>
+      </c>
+      <c r="O708">
+        <v>1</v>
+      </c>
+      <c r="P708">
+        <v>0</v>
+      </c>
+      <c r="Q708">
+        <v>0</v>
+      </c>
+      <c r="R708">
+        <v>0</v>
+      </c>
+      <c r="S708" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T708">
+        <v>0</v>
+      </c>
+      <c r="U708">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2">
+        <v>45514</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E709">
+        <v>1</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+      <c r="G709">
+        <v>1</v>
+      </c>
+      <c r="H709">
+        <v>0</v>
+      </c>
+      <c r="I709">
+        <v>0</v>
+      </c>
+      <c r="J709">
+        <v>0</v>
+      </c>
+      <c r="K709">
+        <v>1</v>
+      </c>
+      <c r="L709">
+        <v>1</v>
+      </c>
+      <c r="M709">
+        <v>0</v>
+      </c>
+      <c r="N709">
+        <v>0</v>
+      </c>
+      <c r="O709">
+        <v>0</v>
+      </c>
+      <c r="P709">
+        <v>0</v>
+      </c>
+      <c r="Q709">
+        <v>0</v>
+      </c>
+      <c r="R709">
+        <v>0</v>
+      </c>
+      <c r="S709" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T709">
+        <v>0</v>
+      </c>
+      <c r="U709">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2">
+        <v>45515</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E710">
+        <v>1</v>
+      </c>
+      <c r="F710">
+        <v>1</v>
+      </c>
+      <c r="G710">
+        <v>1</v>
+      </c>
+      <c r="H710">
+        <v>1</v>
+      </c>
+      <c r="I710">
+        <v>1</v>
+      </c>
+      <c r="J710">
+        <v>1</v>
+      </c>
+      <c r="K710">
+        <v>1</v>
+      </c>
+      <c r="L710">
+        <v>0</v>
+      </c>
+      <c r="M710">
+        <v>0</v>
+      </c>
+      <c r="N710">
+        <v>0</v>
+      </c>
+      <c r="O710">
+        <v>0</v>
+      </c>
+      <c r="P710">
+        <v>0</v>
+      </c>
+      <c r="Q710">
+        <v>0</v>
+      </c>
+      <c r="R710">
+        <v>0</v>
+      </c>
+      <c r="S710" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T710">
+        <v>0</v>
+      </c>
+      <c r="U710">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2">
+        <v>45516</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E711">
+        <v>1</v>
+      </c>
+      <c r="F711">
+        <v>1</v>
+      </c>
+      <c r="G711">
+        <v>1</v>
+      </c>
+      <c r="H711">
+        <v>0</v>
+      </c>
+      <c r="I711">
+        <v>1</v>
+      </c>
+      <c r="J711">
+        <v>1</v>
+      </c>
+      <c r="K711">
+        <v>1</v>
+      </c>
+      <c r="L711">
+        <v>1</v>
+      </c>
+      <c r="M711">
+        <v>0</v>
+      </c>
+      <c r="N711">
+        <v>0</v>
+      </c>
+      <c r="O711">
+        <v>1</v>
+      </c>
+      <c r="P711">
+        <v>0</v>
+      </c>
+      <c r="Q711">
+        <v>0</v>
+      </c>
+      <c r="R711">
+        <v>0</v>
+      </c>
+      <c r="S711" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T711">
+        <v>1</v>
+      </c>
+      <c r="U711">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2">
+        <v>45517</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+      <c r="F712">
+        <v>1</v>
+      </c>
+      <c r="G712">
+        <v>1</v>
+      </c>
+      <c r="H712">
+        <v>1</v>
+      </c>
+      <c r="I712">
+        <v>1</v>
+      </c>
+      <c r="J712">
+        <v>1</v>
+      </c>
+      <c r="K712">
+        <v>1</v>
+      </c>
+      <c r="L712">
+        <v>0</v>
+      </c>
+      <c r="M712">
+        <v>0</v>
+      </c>
+      <c r="N712">
+        <v>0</v>
+      </c>
+      <c r="O712">
+        <v>0</v>
+      </c>
+      <c r="P712">
+        <v>0</v>
+      </c>
+      <c r="Q712">
+        <v>0</v>
+      </c>
+      <c r="R712">
+        <v>0</v>
+      </c>
+      <c r="S712" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T712">
+        <v>0</v>
+      </c>
+      <c r="U712">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E713">
+        <v>1</v>
+      </c>
+      <c r="F713">
+        <v>1</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+      <c r="H713">
+        <v>0</v>
+      </c>
+      <c r="I713">
+        <v>0</v>
+      </c>
+      <c r="J713">
+        <v>1</v>
+      </c>
+      <c r="K713">
+        <v>1</v>
+      </c>
+      <c r="L713">
+        <v>0</v>
+      </c>
+      <c r="M713">
+        <v>0</v>
+      </c>
+      <c r="N713">
+        <v>0</v>
+      </c>
+      <c r="O713">
+        <v>0</v>
+      </c>
+      <c r="P713">
+        <v>0</v>
+      </c>
+      <c r="Q713">
+        <v>0</v>
+      </c>
+      <c r="R713">
+        <v>0</v>
+      </c>
+      <c r="S713" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T713">
+        <v>0</v>
+      </c>
+      <c r="U713">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+      <c r="F714">
+        <v>1</v>
+      </c>
+      <c r="G714">
+        <v>1</v>
+      </c>
+      <c r="H714">
+        <v>1</v>
+      </c>
+      <c r="I714">
+        <v>1</v>
+      </c>
+      <c r="J714">
+        <v>1</v>
+      </c>
+      <c r="K714">
+        <v>1</v>
+      </c>
+      <c r="L714">
+        <v>0</v>
+      </c>
+      <c r="M714">
+        <v>0</v>
+      </c>
+      <c r="N714">
+        <v>0</v>
+      </c>
+      <c r="O714">
+        <v>1</v>
+      </c>
+      <c r="P714">
+        <v>0</v>
+      </c>
+      <c r="Q714">
+        <v>0</v>
+      </c>
+      <c r="R714">
+        <v>0</v>
+      </c>
+      <c r="S714" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T714">
+        <v>0</v>
+      </c>
+      <c r="U714">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+      <c r="F715">
+        <v>1</v>
+      </c>
+      <c r="G715">
+        <v>1</v>
+      </c>
+      <c r="H715">
+        <v>0</v>
+      </c>
+      <c r="I715">
+        <v>1</v>
+      </c>
+      <c r="J715">
+        <v>1</v>
+      </c>
+      <c r="K715">
+        <v>1</v>
+      </c>
+      <c r="L715">
+        <v>0</v>
+      </c>
+      <c r="M715">
+        <v>0</v>
+      </c>
+      <c r="N715">
+        <v>0</v>
+      </c>
+      <c r="O715">
+        <v>0</v>
+      </c>
+      <c r="P715">
+        <v>0</v>
+      </c>
+      <c r="Q715">
+        <v>0</v>
+      </c>
+      <c r="R715">
+        <v>0</v>
+      </c>
+      <c r="S715" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T715">
+        <v>0</v>
+      </c>
+      <c r="U715">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2">
+        <v>45521</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E716">
+        <v>0</v>
+      </c>
+      <c r="F716">
+        <v>1</v>
+      </c>
+      <c r="G716">
+        <v>1</v>
+      </c>
+      <c r="H716">
+        <v>1</v>
+      </c>
+      <c r="I716">
+        <v>0</v>
+      </c>
+      <c r="J716">
+        <v>0</v>
+      </c>
+      <c r="K716">
+        <v>1</v>
+      </c>
+      <c r="L716">
+        <v>1</v>
+      </c>
+      <c r="M716">
+        <v>0</v>
+      </c>
+      <c r="N716">
+        <v>1</v>
+      </c>
+      <c r="O716">
+        <v>0</v>
+      </c>
+      <c r="P716">
+        <v>1</v>
+      </c>
+      <c r="Q716">
+        <v>0</v>
+      </c>
+      <c r="R716">
+        <v>0</v>
+      </c>
+      <c r="S716" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T716">
+        <v>0</v>
+      </c>
+      <c r="U716">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2">
+        <v>45522</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="F717">
+        <v>0</v>
+      </c>
+      <c r="G717">
+        <v>1</v>
+      </c>
+      <c r="H717">
+        <v>0</v>
+      </c>
+      <c r="I717">
+        <v>0</v>
+      </c>
+      <c r="J717">
+        <v>1</v>
+      </c>
+      <c r="K717">
+        <v>1</v>
+      </c>
+      <c r="L717">
+        <v>0</v>
+      </c>
+      <c r="M717">
+        <v>0</v>
+      </c>
+      <c r="N717">
+        <v>0</v>
+      </c>
+      <c r="O717">
+        <v>0</v>
+      </c>
+      <c r="P717">
+        <v>0</v>
+      </c>
+      <c r="Q717">
+        <v>1</v>
+      </c>
+      <c r="R717">
+        <v>0</v>
+      </c>
+      <c r="S717" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T717">
+        <v>0</v>
+      </c>
+      <c r="U717">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+      <c r="F718">
+        <v>1</v>
+      </c>
+      <c r="G718">
+        <v>1</v>
+      </c>
+      <c r="H718">
+        <v>0</v>
+      </c>
+      <c r="I718">
+        <v>1</v>
+      </c>
+      <c r="J718">
+        <v>1</v>
+      </c>
+      <c r="K718">
+        <v>1</v>
+      </c>
+      <c r="L718">
+        <v>1</v>
+      </c>
+      <c r="M718">
+        <v>0</v>
+      </c>
+      <c r="N718">
+        <v>0</v>
+      </c>
+      <c r="O718">
+        <v>0</v>
+      </c>
+      <c r="P718">
+        <v>1</v>
+      </c>
+      <c r="Q718">
+        <v>0</v>
+      </c>
+      <c r="R718">
+        <v>0</v>
+      </c>
+      <c r="S718" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="T718">
+        <v>1</v>
+      </c>
+      <c r="U718">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2">
+        <v>45524</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+      <c r="F719">
+        <v>1</v>
+      </c>
+      <c r="G719">
+        <v>1</v>
+      </c>
+      <c r="H719">
+        <v>1</v>
+      </c>
+      <c r="I719">
+        <v>1</v>
+      </c>
+      <c r="J719">
+        <v>1</v>
+      </c>
+      <c r="K719">
+        <v>1</v>
+      </c>
+      <c r="L719">
+        <v>0</v>
+      </c>
+      <c r="M719">
+        <v>0</v>
+      </c>
+      <c r="N719">
+        <v>1</v>
+      </c>
+      <c r="O719">
+        <v>0</v>
+      </c>
+      <c r="P719">
+        <v>0</v>
+      </c>
+      <c r="Q719">
+        <v>0</v>
+      </c>
+      <c r="R719">
+        <v>0</v>
+      </c>
+      <c r="S719" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="T719">
+        <v>0</v>
+      </c>
+      <c r="U719">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2">
+        <v>45525</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720">
+        <v>1</v>
+      </c>
+      <c r="G720">
+        <v>1</v>
+      </c>
+      <c r="H720">
+        <v>0</v>
+      </c>
+      <c r="I720">
+        <v>1</v>
+      </c>
+      <c r="J720">
+        <v>1</v>
+      </c>
+      <c r="K720">
+        <v>1</v>
+      </c>
+      <c r="L720">
+        <v>1</v>
+      </c>
+      <c r="M720">
+        <v>0</v>
+      </c>
+      <c r="N720">
+        <v>0</v>
+      </c>
+      <c r="O720">
+        <v>1</v>
+      </c>
+      <c r="P720">
+        <v>1</v>
+      </c>
+      <c r="Q720">
+        <v>0</v>
+      </c>
+      <c r="R720">
+        <v>0</v>
+      </c>
+      <c r="S720" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="T720">
+        <v>0</v>
+      </c>
+      <c r="U720">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E721">
+        <v>1</v>
+      </c>
+      <c r="F721">
+        <v>0</v>
+      </c>
+      <c r="G721">
+        <v>1</v>
+      </c>
+      <c r="H721">
+        <v>1</v>
+      </c>
+      <c r="I721">
+        <v>1</v>
+      </c>
+      <c r="J721">
+        <v>1</v>
+      </c>
+      <c r="K721">
+        <v>1</v>
+      </c>
+      <c r="L721">
+        <v>0</v>
+      </c>
+      <c r="M721">
+        <v>0</v>
+      </c>
+      <c r="N721">
+        <v>1</v>
+      </c>
+      <c r="O721">
+        <v>0</v>
+      </c>
+      <c r="P721">
+        <v>1</v>
+      </c>
+      <c r="Q721">
+        <v>1</v>
+      </c>
+      <c r="R721">
+        <v>0</v>
+      </c>
+      <c r="S721" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="T721">
+        <v>0</v>
+      </c>
+      <c r="U721">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Acne Shampoo</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E722">
+        <v>1</v>
+      </c>
+      <c r="F722">
+        <v>1</v>
+      </c>
+      <c r="G722">
+        <v>1</v>
+      </c>
+      <c r="H722">
+        <v>0</v>
+      </c>
+      <c r="I722">
+        <v>1</v>
+      </c>
+      <c r="J722">
+        <v>1</v>
+      </c>
+      <c r="K722">
+        <v>1</v>
+      </c>
+      <c r="L722">
+        <v>0</v>
+      </c>
+      <c r="M722">
+        <v>0</v>
+      </c>
+      <c r="N722">
+        <v>0</v>
+      </c>
+      <c r="O722">
+        <v>0</v>
+      </c>
+      <c r="P722">
+        <v>0</v>
+      </c>
+      <c r="Q722">
+        <v>0</v>
+      </c>
+      <c r="R722">
+        <v>0</v>
+      </c>
+      <c r="S722" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="T722">
+        <v>0</v>
+      </c>
+      <c r="U722">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2">
+        <v>45528</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E723">
+        <v>1</v>
+      </c>
+      <c r="F723">
+        <v>1</v>
+      </c>
+      <c r="G723">
+        <v>1</v>
+      </c>
+      <c r="H723">
+        <v>1</v>
+      </c>
+      <c r="I723">
+        <v>0</v>
+      </c>
+      <c r="J723">
+        <v>0</v>
+      </c>
+      <c r="K723">
+        <v>1</v>
+      </c>
+      <c r="L723">
+        <v>1</v>
+      </c>
+      <c r="M723">
+        <v>0</v>
+      </c>
+      <c r="N723">
+        <v>0</v>
+      </c>
+      <c r="O723">
+        <v>0</v>
+      </c>
+      <c r="P723">
+        <v>1</v>
+      </c>
+      <c r="Q723">
+        <v>0</v>
+      </c>
+      <c r="R723">
+        <v>0</v>
+      </c>
+      <c r="S723" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="T723">
+        <v>0</v>
+      </c>
+      <c r="U723">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>45529</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E724">
+        <v>1</v>
+      </c>
+      <c r="F724">
+        <v>0</v>
+      </c>
+      <c r="G724">
+        <v>1</v>
+      </c>
+      <c r="H724">
+        <v>0</v>
+      </c>
+      <c r="I724">
+        <v>0</v>
+      </c>
+      <c r="J724">
+        <v>0</v>
+      </c>
+      <c r="K724">
+        <v>1</v>
+      </c>
+      <c r="L724">
+        <v>0</v>
+      </c>
+      <c r="M724">
+        <v>0</v>
+      </c>
+      <c r="N724">
+        <v>0</v>
+      </c>
+      <c r="O724">
+        <v>0</v>
+      </c>
+      <c r="P724">
+        <v>0</v>
+      </c>
+      <c r="Q724">
+        <v>0</v>
+      </c>
+      <c r="R724">
+        <v>0</v>
+      </c>
+      <c r="S724" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="T724">
+        <v>0</v>
+      </c>
+      <c r="U724">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
